--- a/attachments/pars_result.xlsx
+++ b/attachments/pars_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="all" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="mvideo" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="eldorado" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="vse_instrumenti" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ozon" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="wb" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mvideo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eldorado" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="vse_instrumenti" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ozon" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wb" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -636,7 +636,7 @@
       </c>
       <c r="F2" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">12 158 ₽ </t>
+          <t xml:space="preserve">8 878 ₽ </t>
         </is>
       </c>
       <c r="G2" s="19" t="n"/>
@@ -654,18 +654,18 @@
       </c>
       <c r="C3" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D3" s="19" t="n"/>
       <c r="E3" s="19" t="inlineStr">
         <is>
-          <t>4 985 р.</t>
+          <t>5 142 р.</t>
         </is>
       </c>
       <c r="F3" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 142 ₽ </t>
+          <t xml:space="preserve">5 103 ₽ </t>
         </is>
       </c>
       <c r="G3" s="19" t="n"/>
@@ -694,7 +694,7 @@
       </c>
       <c r="F4" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">12 990 ₽ </t>
+          <t xml:space="preserve">10 951 ₽ </t>
         </is>
       </c>
       <c r="G4" s="19" t="n"/>
@@ -712,7 +712,7 @@
       </c>
       <c r="C5" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D5" s="19" t="n"/>
@@ -741,18 +741,18 @@
       </c>
       <c r="C6" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D6" s="19" t="n"/>
       <c r="E6" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F6" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G6" s="19" t="n"/>
@@ -770,18 +770,18 @@
       </c>
       <c r="C7" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D7" s="19" t="n"/>
       <c r="E7" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F7" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G7" s="19" t="n"/>
@@ -805,7 +805,7 @@
       <c r="D8" s="19" t="n"/>
       <c r="E8" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F8" s="20" t="inlineStr">
@@ -834,12 +834,12 @@
       <c r="D9" s="19" t="n"/>
       <c r="E9" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F9" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">29 990 ₽ </t>
+          <t xml:space="preserve">36 128 ₽ </t>
         </is>
       </c>
       <c r="G9" s="19" t="n"/>
@@ -857,7 +857,7 @@
       </c>
       <c r="C10" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D10" s="19" t="n"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="F10" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 990 ₽ </t>
+          <t xml:space="preserve">6 325 ₽ </t>
         </is>
       </c>
       <c r="G10" s="19" t="n"/>
@@ -973,18 +973,18 @@
       </c>
       <c r="C14" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D14" s="19" t="n"/>
       <c r="E14" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F14" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G14" s="19" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C16" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D16" s="19" t="n"/>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F16" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G16" s="19" t="n"/>
@@ -1066,7 +1066,7 @@
       <c r="D17" s="19" t="n"/>
       <c r="E17" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F17" s="20" t="inlineStr">
@@ -1089,18 +1089,18 @@
       </c>
       <c r="C18" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D18" s="19" t="n"/>
       <c r="E18" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F18" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G18" s="19" t="n"/>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="F19" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 539 ₽ </t>
+          <t xml:space="preserve">2 751 ₽ </t>
         </is>
       </c>
       <c r="G19" s="19" t="n"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C20" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D20" s="19" t="n"/>
@@ -1176,18 +1176,18 @@
       </c>
       <c r="C21" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D21" s="19" t="n"/>
       <c r="E21" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F21" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 515 ₽ </t>
+          <t xml:space="preserve">3 496 ₽ </t>
         </is>
       </c>
       <c r="G21" s="19" t="n"/>
@@ -1205,18 +1205,18 @@
       </c>
       <c r="C22" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D22" s="19" t="n"/>
       <c r="E22" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F22" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G22" s="19" t="n"/>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="F24" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G24" s="19" t="n"/>
@@ -1292,18 +1292,18 @@
       </c>
       <c r="C25" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D25" s="19" t="n"/>
       <c r="E25" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F25" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 990 ₽ </t>
+          <t xml:space="preserve">4 851 ₽ </t>
         </is>
       </c>
       <c r="G25" s="19" t="n"/>
@@ -1321,13 +1321,13 @@
       </c>
       <c r="C26" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D26" s="19" t="n"/>
       <c r="E26" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F26" s="20" t="inlineStr">
@@ -1350,18 +1350,18 @@
       </c>
       <c r="C27" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D27" s="19" t="n"/>
       <c r="E27" s="19" t="inlineStr">
         <is>
-          <t>8 730 р.</t>
+          <t>8 399 р.</t>
         </is>
       </c>
       <c r="F27" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 730 ₽ </t>
+          <t xml:space="preserve">8 028 ₽ </t>
         </is>
       </c>
       <c r="G27" s="19" t="n"/>
@@ -1379,18 +1379,18 @@
       </c>
       <c r="C28" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D28" s="19" t="n"/>
       <c r="E28" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F28" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G28" s="19" t="n"/>
@@ -1408,13 +1408,13 @@
       </c>
       <c r="C29" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D29" s="19" t="n"/>
       <c r="E29" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F29" s="20" t="inlineStr">
@@ -1443,12 +1443,12 @@
       <c r="D30" s="19" t="n"/>
       <c r="E30" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F30" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G30" s="19" t="n"/>
@@ -1466,18 +1466,18 @@
       </c>
       <c r="C31" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D31" s="19" t="n"/>
       <c r="E31" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F31" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G31" s="19" t="n"/>
@@ -1501,12 +1501,12 @@
       <c r="D32" s="19" t="n"/>
       <c r="E32" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F32" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G32" s="19" t="n"/>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="F33" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 983 ₽ </t>
+          <t xml:space="preserve">9 990 ₽ </t>
         </is>
       </c>
       <c r="G33" s="19" t="n"/>
@@ -1559,7 +1559,7 @@
       <c r="D34" s="19" t="n"/>
       <c r="E34" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F34" s="20" t="inlineStr">
@@ -1582,13 +1582,13 @@
       </c>
       <c r="C35" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D35" s="19" t="n"/>
       <c r="E35" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F35" s="20" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C36" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D36" s="19" t="n"/>
@@ -1640,18 +1640,18 @@
       </c>
       <c r="C37" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D37" s="19" t="n"/>
       <c r="E37" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F37" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G37" s="19" t="n"/>
@@ -1698,13 +1698,13 @@
       </c>
       <c r="C39" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D39" s="19" t="n"/>
       <c r="E39" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F39" s="20" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="C40" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D40" s="19" t="n"/>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="F40" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G40" s="19" t="n"/>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="F41" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 056 ₽ </t>
+          <t xml:space="preserve">4 111 ₽ </t>
         </is>
       </c>
       <c r="G41" s="19" t="n"/>
@@ -1785,18 +1785,18 @@
       </c>
       <c r="C42" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D42" s="19" t="n"/>
       <c r="E42" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F42" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G42" s="19" t="n"/>
@@ -1814,13 +1814,13 @@
       </c>
       <c r="C43" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D43" s="19" t="n"/>
       <c r="E43" s="19" t="inlineStr">
         <is>
-          <t>5 403 р.</t>
+          <t>5 990 р.</t>
         </is>
       </c>
       <c r="F43" s="20" t="inlineStr">
@@ -1843,13 +1843,13 @@
       </c>
       <c r="C44" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D44" s="19" t="n"/>
       <c r="E44" s="19" t="inlineStr">
         <is>
-          <t>4 286 р.</t>
+          <t>4 490 р.</t>
         </is>
       </c>
       <c r="F44" s="20" t="inlineStr">
@@ -1872,18 +1872,18 @@
       </c>
       <c r="C45" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D45" s="19" t="n"/>
       <c r="E45" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F45" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G45" s="19" t="n"/>
@@ -1907,12 +1907,12 @@
       <c r="D46" s="19" t="n"/>
       <c r="E46" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F46" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G46" s="19" t="n"/>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="C47" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D47" s="19" t="n"/>
@@ -1959,18 +1959,18 @@
       </c>
       <c r="C48" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D48" s="19" t="n"/>
       <c r="E48" s="19" t="inlineStr">
         <is>
-          <t>2 246 р.</t>
+          <t>2 490 р.</t>
         </is>
       </c>
       <c r="F48" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 490 ₽ </t>
+          <t xml:space="preserve">2 290 ₽ </t>
         </is>
       </c>
       <c r="G48" s="19" t="n"/>
@@ -1988,18 +1988,18 @@
       </c>
       <c r="C49" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D49" s="19" t="n"/>
       <c r="E49" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F49" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G49" s="19" t="n"/>
@@ -2023,12 +2023,12 @@
       <c r="D50" s="19" t="n"/>
       <c r="E50" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F50" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G50" s="19" t="n"/>
@@ -2052,12 +2052,12 @@
       <c r="D51" s="19" t="n"/>
       <c r="E51" s="19" t="inlineStr">
         <is>
-          <t>13 500 р.</t>
+          <t>12 836 р.</t>
         </is>
       </c>
       <c r="F51" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">16 990 ₽ </t>
+          <t xml:space="preserve">21 004 ₽ </t>
         </is>
       </c>
       <c r="G51" s="19" t="n"/>
@@ -2075,18 +2075,18 @@
       </c>
       <c r="C52" s="19" t="inlineStr">
         <is>
-          <t>4 990 ₽</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D52" s="19" t="n"/>
       <c r="E52" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F52" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G52" s="19" t="n"/>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="C53" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D53" s="19" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="F53" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 014 ₽ </t>
+          <t xml:space="preserve">5 256 ₽ </t>
         </is>
       </c>
       <c r="G53" s="19" t="n"/>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="C54" s="19" t="inlineStr">
         <is>
-          <t>4 090 ₽</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D54" s="19" t="n"/>
@@ -2162,18 +2162,18 @@
       </c>
       <c r="C55" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D55" s="19" t="n"/>
       <c r="E55" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F55" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 264 ₽ </t>
+          <t xml:space="preserve">1 347 ₽ </t>
         </is>
       </c>
       <c r="G55" s="19" t="n"/>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="C56" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D56" s="19" t="n"/>
@@ -2220,18 +2220,18 @@
       </c>
       <c r="C57" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D57" s="19" t="n"/>
       <c r="E57" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F57" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G57" s="19" t="n"/>
@@ -2249,18 +2249,18 @@
       </c>
       <c r="C58" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D58" s="19" t="n"/>
       <c r="E58" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F58" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G58" s="19" t="n"/>
@@ -2284,12 +2284,12 @@
       <c r="D59" s="19" t="n"/>
       <c r="E59" s="19" t="inlineStr">
         <is>
-          <t>7 172 р.</t>
+          <t>7 372 р.</t>
         </is>
       </c>
       <c r="F59" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 280 ₽ </t>
+          <t xml:space="preserve">10 981 ₽ </t>
         </is>
       </c>
       <c r="G59" s="19" t="n"/>
@@ -2307,18 +2307,18 @@
       </c>
       <c r="C60" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D60" s="19" t="n"/>
       <c r="E60" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F60" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G60" s="19" t="n"/>
@@ -2336,13 +2336,13 @@
       </c>
       <c r="C61" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8 490 ₽</t>
         </is>
       </c>
       <c r="D61" s="19" t="n"/>
       <c r="E61" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F61" s="20" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="F62" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 985 ₽ </t>
+          <t xml:space="preserve">2 691 ₽ </t>
         </is>
       </c>
       <c r="G62" s="19" t="n"/>
@@ -2394,13 +2394,13 @@
       </c>
       <c r="C63" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D63" s="19" t="n"/>
       <c r="E63" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F63" s="20" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="F64" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G64" s="19" t="n"/>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C65" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D65" s="19" t="n"/>
@@ -2597,13 +2597,13 @@
       </c>
       <c r="C70" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D70" s="19" t="n"/>
       <c r="E70" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F70" s="20" t="inlineStr">
@@ -2626,18 +2626,18 @@
       </c>
       <c r="C71" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D71" s="19" t="n"/>
       <c r="E71" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F71" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G71" s="19" t="n"/>
@@ -2661,12 +2661,12 @@
       <c r="D72" s="19" t="n"/>
       <c r="E72" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F72" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G72" s="19" t="n"/>
@@ -2684,13 +2684,13 @@
       </c>
       <c r="C73" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D73" s="19" t="n"/>
       <c r="E73" s="19" t="inlineStr">
         <is>
-          <t>6 552 р.</t>
+          <t>6 962 р.</t>
         </is>
       </c>
       <c r="F73" s="20" t="inlineStr">
@@ -2719,12 +2719,12 @@
       <c r="D74" s="19" t="n"/>
       <c r="E74" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F74" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G74" s="19" t="n"/>
@@ -2742,13 +2742,13 @@
       </c>
       <c r="C75" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D75" s="19" t="n"/>
       <c r="E75" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F75" s="20" t="inlineStr">
@@ -2771,18 +2771,18 @@
       </c>
       <c r="C76" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D76" s="19" t="n"/>
       <c r="E76" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F76" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G76" s="19" t="n"/>
@@ -2800,13 +2800,13 @@
       </c>
       <c r="C77" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D77" s="19" t="n"/>
       <c r="E77" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F77" s="20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="F78" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 796 ₽ </t>
+          <t xml:space="preserve">5 490 ₽ </t>
         </is>
       </c>
       <c r="G78" s="19" t="n"/>
@@ -2858,18 +2858,18 @@
       </c>
       <c r="C79" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D79" s="19" t="n"/>
       <c r="E79" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F79" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G79" s="19" t="n"/>
@@ -2887,13 +2887,13 @@
       </c>
       <c r="C80" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D80" s="19" t="n"/>
       <c r="E80" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F80" s="20" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="F81" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 707 ₽ </t>
+          <t xml:space="preserve">3 165 ₽ </t>
         </is>
       </c>
       <c r="G81" s="19" t="n"/>
@@ -2980,12 +2980,12 @@
       <c r="D83" s="19" t="n"/>
       <c r="E83" s="19" t="inlineStr">
         <is>
-          <t>14 349 р.</t>
+          <t>15 412 р.</t>
         </is>
       </c>
       <c r="F83" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 074 ₽ </t>
+          <t xml:space="preserve">15 243 ₽ </t>
         </is>
       </c>
       <c r="G83" s="19" t="n"/>
@@ -3009,12 +3009,12 @@
       <c r="D84" s="19" t="n"/>
       <c r="E84" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F84" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G84" s="19" t="n"/>
@@ -3032,13 +3032,13 @@
       </c>
       <c r="C85" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D85" s="19" t="n"/>
       <c r="E85" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F85" s="20" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="C86" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D86" s="19" t="n"/>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="F86" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 990 ₽ </t>
+          <t xml:space="preserve">8 890 ₽ </t>
         </is>
       </c>
       <c r="G86" s="19" t="n"/>
@@ -3090,18 +3090,18 @@
       </c>
       <c r="C87" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D87" s="19" t="n"/>
       <c r="E87" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F87" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G87" s="19" t="n"/>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="F88" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 235 ₽ </t>
+          <t xml:space="preserve">3 765 ₽ </t>
         </is>
       </c>
       <c r="G88" s="19" t="n"/>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="C89" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D89" s="19" t="n"/>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="F89" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G89" s="19" t="n"/>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="C90" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D90" s="19" t="n"/>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="F90" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G90" s="19" t="n"/>
@@ -3206,18 +3206,18 @@
       </c>
       <c r="C91" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D91" s="19" t="n"/>
       <c r="E91" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F91" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G91" s="19" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C92" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D92" s="19" t="n"/>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="F92" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 857 ₽ </t>
+          <t xml:space="preserve">3 290 ₽ </t>
         </is>
       </c>
       <c r="G92" s="19" t="n"/>
@@ -3270,7 +3270,7 @@
       <c r="D93" s="19" t="n"/>
       <c r="E93" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F93" s="20" t="inlineStr">
@@ -3299,12 +3299,12 @@
       <c r="D94" s="19" t="n"/>
       <c r="E94" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F94" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">12 335 ₽ </t>
+          <t xml:space="preserve">10 990 ₽ </t>
         </is>
       </c>
       <c r="G94" s="19" t="n"/>
@@ -3322,13 +3322,13 @@
       </c>
       <c r="C95" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D95" s="19" t="n"/>
       <c r="E95" s="19" t="inlineStr">
         <is>
-          <t>8 090 р.</t>
+          <t>8 089 р.</t>
         </is>
       </c>
       <c r="F95" s="20" t="inlineStr">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="F96" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G96" s="19" t="n"/>
@@ -3380,18 +3380,18 @@
       </c>
       <c r="C97" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D97" s="19" t="n"/>
       <c r="E97" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F97" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 215 ₽ </t>
+          <t xml:space="preserve">2 777 ₽ </t>
         </is>
       </c>
       <c r="G97" s="19" t="n"/>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="C98" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D98" s="19" t="n"/>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="F98" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G98" s="19" t="n"/>
@@ -3438,18 +3438,18 @@
       </c>
       <c r="C99" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D99" s="19" t="n"/>
       <c r="E99" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F99" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G99" s="19" t="n"/>
@@ -3473,12 +3473,12 @@
       <c r="D100" s="19" t="n"/>
       <c r="E100" s="19" t="inlineStr">
         <is>
-          <t>3 990 р.</t>
+          <t>4 069 р.</t>
         </is>
       </c>
       <c r="F100" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 177 ₽ </t>
+          <t xml:space="preserve">4 192 ₽ </t>
         </is>
       </c>
       <c r="G100" s="19" t="n"/>
@@ -3496,18 +3496,18 @@
       </c>
       <c r="C101" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D101" s="19" t="n"/>
       <c r="E101" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F101" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G101" s="19" t="n"/>
@@ -3525,18 +3525,18 @@
       </c>
       <c r="C102" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D102" s="19" t="n"/>
       <c r="E102" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F102" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G102" s="19" t="n"/>
@@ -3554,18 +3554,18 @@
       </c>
       <c r="C103" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D103" s="19" t="n"/>
       <c r="E103" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F103" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G103" s="19" t="n"/>
@@ -3583,18 +3583,18 @@
       </c>
       <c r="C104" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D104" s="19" t="n"/>
       <c r="E104" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F104" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G104" s="19" t="n"/>
@@ -3612,18 +3612,18 @@
       </c>
       <c r="C105" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D105" s="19" t="n"/>
       <c r="E105" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F105" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G105" s="19" t="n"/>
@@ -3641,18 +3641,18 @@
       </c>
       <c r="C106" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D106" s="19" t="n"/>
       <c r="E106" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F106" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G106" s="19" t="n"/>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C107" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D107" s="19" t="n"/>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="F107" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G107" s="19" t="n"/>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="F108" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 990 ₽ </t>
+          <t xml:space="preserve">14 645 ₽ </t>
         </is>
       </c>
       <c r="G108" s="19" t="n"/>
@@ -3728,13 +3728,13 @@
       </c>
       <c r="C109" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D109" s="19" t="n"/>
       <c r="E109" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F109" s="20" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="C110" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D110" s="19" t="n"/>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="F110" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 907 ₽ </t>
+          <t xml:space="preserve">3 885 ₽ </t>
         </is>
       </c>
       <c r="G110" s="19" t="n"/>
@@ -3792,12 +3792,12 @@
       <c r="D111" s="19" t="n"/>
       <c r="E111" s="19" t="inlineStr">
         <is>
-          <t>9 012 р.</t>
+          <t>9 010 р.</t>
         </is>
       </c>
       <c r="F111" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">13 423 ₽ </t>
+          <t xml:space="preserve">10 671 ₽ </t>
         </is>
       </c>
       <c r="G111" s="19" t="n"/>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="F112" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 676 ₽ </t>
+          <t xml:space="preserve">9 364 ₽ </t>
         </is>
       </c>
       <c r="G112" s="19" t="n"/>
@@ -3873,18 +3873,18 @@
       </c>
       <c r="C114" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D114" s="19" t="n"/>
       <c r="E114" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F114" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G114" s="19" t="n"/>
@@ -3902,18 +3902,18 @@
       </c>
       <c r="C115" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D115" s="19" t="n"/>
       <c r="E115" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F115" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G115" s="19" t="n"/>
@@ -3931,18 +3931,18 @@
       </c>
       <c r="C116" s="19" t="inlineStr">
         <is>
-          <t>2 990 ₽</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D116" s="19" t="n"/>
       <c r="E116" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F116" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G116" s="19" t="n"/>
@@ -3966,12 +3966,12 @@
       <c r="D117" s="19" t="n"/>
       <c r="E117" s="19" t="inlineStr">
         <is>
-          <t>2 862 р.</t>
+          <t>2 860 р.</t>
         </is>
       </c>
       <c r="F117" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 019 ₽ </t>
+          <t xml:space="preserve">3 990 ₽ </t>
         </is>
       </c>
       <c r="G117" s="19" t="n"/>
@@ -3995,12 +3995,12 @@
       <c r="D118" s="19" t="n"/>
       <c r="E118" s="19" t="inlineStr">
         <is>
-          <t>10 822 р.</t>
+          <t>10 652 р.</t>
         </is>
       </c>
       <c r="F118" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 822 ₽ </t>
+          <t xml:space="preserve">10 820 ₽ </t>
         </is>
       </c>
       <c r="G118" s="19" t="n"/>
@@ -4018,13 +4018,13 @@
       </c>
       <c r="C119" s="19" t="inlineStr">
         <is>
-          <t>6 550 ₽</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D119" s="19" t="n"/>
       <c r="E119" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F119" s="20" t="inlineStr">
@@ -4053,12 +4053,12 @@
       <c r="D120" s="19" t="n"/>
       <c r="E120" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F120" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G120" s="19" t="n"/>
@@ -4076,18 +4076,18 @@
       </c>
       <c r="C121" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D121" s="19" t="n"/>
       <c r="E121" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F121" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G121" s="19" t="n"/>
@@ -4111,12 +4111,12 @@
       <c r="D122" s="19" t="n"/>
       <c r="E122" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>24 592 р.</t>
         </is>
       </c>
       <c r="F122" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">23 643 ₽ </t>
+          <t xml:space="preserve">28 281 ₽ </t>
         </is>
       </c>
       <c r="G122" s="19" t="n"/>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="F123" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G123" s="19" t="n"/>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="F124" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G124" s="19" t="n"/>
@@ -4192,18 +4192,18 @@
       </c>
       <c r="C125" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D125" s="19" t="n"/>
       <c r="E125" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F125" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G125" s="19" t="n"/>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="F126" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G126" s="19" t="n"/>
@@ -4250,18 +4250,18 @@
       </c>
       <c r="C127" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D127" s="19" t="n"/>
       <c r="E127" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F127" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G127" s="19" t="n"/>
@@ -4279,18 +4279,18 @@
       </c>
       <c r="C128" s="19" t="inlineStr">
         <is>
-          <t>9 990 ₽</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D128" s="19" t="n"/>
       <c r="E128" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F128" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G128" s="19" t="n"/>
@@ -4337,18 +4337,18 @@
       </c>
       <c r="C130" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D130" s="19" t="n"/>
       <c r="E130" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F130" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G130" s="19" t="n"/>
@@ -4372,12 +4372,12 @@
       <c r="D131" s="19" t="n"/>
       <c r="E131" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F131" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G131" s="19" t="n"/>
@@ -4395,18 +4395,18 @@
       </c>
       <c r="C132" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D132" s="19" t="n"/>
       <c r="E132" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F132" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G132" s="19" t="n"/>
@@ -4424,18 +4424,18 @@
       </c>
       <c r="C133" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D133" s="19" t="n"/>
       <c r="E133" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F133" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">32 541 ₽ </t>
+          <t xml:space="preserve">36 157 ₽ </t>
         </is>
       </c>
       <c r="G133" s="19" t="n"/>
@@ -4459,12 +4459,12 @@
       <c r="D134" s="19" t="n"/>
       <c r="E134" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F134" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G134" s="19" t="n"/>
@@ -4482,18 +4482,18 @@
       </c>
       <c r="C135" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D135" s="19" t="n"/>
       <c r="E135" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F135" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G135" s="19" t="n"/>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C136" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D136" s="19" t="n"/>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="F136" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 990 ₽ </t>
+          <t xml:space="preserve">3 465 ₽ </t>
         </is>
       </c>
       <c r="G136" s="19" t="n"/>
@@ -4546,12 +4546,12 @@
       <c r="D137" s="19" t="n"/>
       <c r="E137" s="19" t="inlineStr">
         <is>
-          <t>4 990 р.</t>
+          <t>4 092 р.</t>
         </is>
       </c>
       <c r="F137" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G137" s="19" t="n"/>
@@ -4569,18 +4569,18 @@
       </c>
       <c r="C138" s="19" t="inlineStr">
         <is>
-          <t>19 990 ₽</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D138" s="19" t="n"/>
       <c r="E138" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F138" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G138" s="19" t="n"/>
@@ -4598,18 +4598,18 @@
       </c>
       <c r="C139" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D139" s="19" t="n"/>
       <c r="E139" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F139" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G139" s="19" t="n"/>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="F140" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G140" s="19" t="n"/>
@@ -4662,7 +4662,7 @@
       <c r="D141" s="19" t="n"/>
       <c r="E141" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F141" s="20" t="inlineStr">
@@ -4685,18 +4685,18 @@
       </c>
       <c r="C142" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D142" s="19" t="n"/>
       <c r="E142" s="19" t="inlineStr">
         <is>
-          <t>14 388 р.</t>
+          <t>14 990 р.</t>
         </is>
       </c>
       <c r="F142" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">14 990 ₽ </t>
+          <t xml:space="preserve">13 792 ₽ </t>
         </is>
       </c>
       <c r="G142" s="19" t="n"/>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="F143" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G143" s="19" t="n"/>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="C145" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D145" s="19" t="n"/>
@@ -4801,18 +4801,18 @@
       </c>
       <c r="C146" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D146" s="19" t="n"/>
       <c r="E146" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F146" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G146" s="19" t="n"/>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F147" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G147" s="19" t="n"/>
@@ -4865,7 +4865,7 @@
       <c r="D148" s="19" t="n"/>
       <c r="E148" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F148" s="20" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="C149" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D149" s="19" t="n"/>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="F150" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G150" s="19" t="n"/>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="C151" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D151" s="19" t="n"/>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="F151" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 321 ₽ </t>
+          <t xml:space="preserve">7 990 ₽ </t>
         </is>
       </c>
       <c r="G151" s="19" t="n"/>
@@ -4981,7 +4981,7 @@
       <c r="D152" s="19" t="n"/>
       <c r="E152" s="19" t="inlineStr">
         <is>
-          <t>7 390 р.</t>
+          <t>7 760 р.</t>
         </is>
       </c>
       <c r="F152" s="20" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="C153" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D153" s="19" t="n"/>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="F153" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G153" s="19" t="n"/>
@@ -5068,12 +5068,12 @@
       <c r="D155" s="19" t="n"/>
       <c r="E155" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F155" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G155" s="19" t="n"/>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="C156" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D156" s="19" t="n"/>
@@ -5126,12 +5126,12 @@
       <c r="D157" s="19" t="n"/>
       <c r="E157" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F157" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 151 ₽ </t>
+          <t xml:space="preserve">2 738 ₽ </t>
         </is>
       </c>
       <c r="G157" s="19" t="n"/>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="C158" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D158" s="19" t="n"/>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="F158" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G158" s="19" t="n"/>
@@ -5178,13 +5178,13 @@
       </c>
       <c r="C159" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D159" s="19" t="n"/>
       <c r="E159" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F159" s="20" t="inlineStr">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="F160" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 994 ₽ </t>
+          <t xml:space="preserve">3 211 ₽ </t>
         </is>
       </c>
       <c r="G160" s="19" t="n"/>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="C161" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D161" s="19" t="n"/>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="F161" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 397 ₽ </t>
+          <t xml:space="preserve">4 851 ₽ </t>
         </is>
       </c>
       <c r="G161" s="19" t="n"/>
@@ -5265,18 +5265,18 @@
       </c>
       <c r="C162" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D162" s="19" t="n"/>
       <c r="E162" s="19" t="inlineStr">
         <is>
-          <t>4 540 р.</t>
+          <t>4 909 р.</t>
         </is>
       </c>
       <c r="F162" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G162" s="19" t="n"/>
@@ -5329,12 +5329,12 @@
       <c r="D164" s="19" t="n"/>
       <c r="E164" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F164" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G164" s="19" t="n"/>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="C165" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D165" s="19" t="n"/>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="F165" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G165" s="19" t="n"/>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="C166" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D166" s="19" t="n"/>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="F166" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 933 ₽ </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G166" s="19" t="n"/>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="F167" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G167" s="19" t="n"/>
@@ -5439,18 +5439,18 @@
       </c>
       <c r="C168" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D168" s="19" t="n"/>
       <c r="E168" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F168" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G168" s="19" t="n"/>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="F169" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G169" s="19" t="n"/>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="C170" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D170" s="19" t="n"/>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="F170" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">17 201 ₽ </t>
+          <t xml:space="preserve">18 393 ₽ </t>
         </is>
       </c>
       <c r="G170" s="19" t="n"/>
@@ -5526,18 +5526,18 @@
       </c>
       <c r="C171" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D171" s="19" t="n"/>
       <c r="E171" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F171" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G171" s="19" t="n"/>
@@ -5555,18 +5555,18 @@
       </c>
       <c r="C172" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D172" s="19" t="n"/>
       <c r="E172" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F172" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G172" s="19" t="n"/>
@@ -5584,18 +5584,18 @@
       </c>
       <c r="C173" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D173" s="19" t="n"/>
       <c r="E173" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F173" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G173" s="19" t="n"/>
@@ -5613,13 +5613,13 @@
       </c>
       <c r="C174" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D174" s="19" t="n"/>
       <c r="E174" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F174" s="20" t="inlineStr">
@@ -5642,13 +5642,13 @@
       </c>
       <c r="C175" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D175" s="19" t="n"/>
       <c r="E175" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F175" s="20" t="inlineStr">
@@ -5671,18 +5671,18 @@
       </c>
       <c r="C176" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D176" s="19" t="n"/>
       <c r="E176" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F176" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G176" s="19" t="n"/>
@@ -5706,12 +5706,12 @@
       <c r="D177" s="19" t="n"/>
       <c r="E177" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F177" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G177" s="19" t="n"/>
@@ -5729,18 +5729,18 @@
       </c>
       <c r="C178" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D178" s="19" t="n"/>
       <c r="E178" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F178" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G178" s="19" t="n"/>
@@ -5758,18 +5758,18 @@
       </c>
       <c r="C179" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D179" s="19" t="n"/>
       <c r="E179" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F179" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G179" s="19" t="n"/>
@@ -5787,18 +5787,18 @@
       </c>
       <c r="C180" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D180" s="19" t="n"/>
       <c r="E180" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F180" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G180" s="19" t="n"/>
@@ -5816,18 +5816,18 @@
       </c>
       <c r="C181" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D181" s="19" t="n"/>
       <c r="E181" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F181" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G181" s="19" t="n"/>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="E3" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="E5" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6028,7 +6028,7 @@
       </c>
       <c r="E6" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E7" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="E10" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="E14" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="E16" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="E18" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="E20" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="E21" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="E22" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="E25" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="E26" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="E27" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="E28" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="E29" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="E31" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="E35" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="E36" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="E37" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="E39" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="E40" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7000,7 +7000,7 @@
       </c>
       <c r="E42" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7027,7 +7027,7 @@
       </c>
       <c r="E43" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="E44" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="E45" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="E47" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="E48" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="E49" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7265,12 +7265,12 @@
       </c>
       <c r="D52" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E52" s="19" t="inlineStr">
         <is>
-          <t>4 990 ₽</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="E53" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7319,12 +7319,12 @@
       </c>
       <c r="D54" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E54" s="19" t="inlineStr">
         <is>
-          <t>4 090 ₽</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="E55" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="E56" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="E57" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7432,7 +7432,7 @@
       </c>
       <c r="E58" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="E60" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="D61" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E61" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8 490 ₽</t>
         </is>
       </c>
     </row>
@@ -7567,7 +7567,7 @@
       </c>
       <c r="E63" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="E65" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7756,7 +7756,7 @@
       </c>
       <c r="E70" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7783,7 +7783,7 @@
       </c>
       <c r="E71" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="E73" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="E75" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="E76" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="E77" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="E79" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="E80" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="E85" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="E86" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="E87" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="E89" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="E90" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="E91" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="E92" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="E95" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="E97" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8512,7 +8512,7 @@
       </c>
       <c r="E98" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="E99" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8593,7 +8593,7 @@
       </c>
       <c r="E101" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
       </c>
       <c r="E102" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E103" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="E104" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="E105" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="E106" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="E107" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="E109" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="E110" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="E114" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8971,7 +8971,7 @@
       </c>
       <c r="E115" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -8993,12 +8993,12 @@
       </c>
       <c r="D116" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E116" s="19" t="inlineStr">
         <is>
-          <t>2 990 ₽</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9074,12 +9074,12 @@
       </c>
       <c r="D119" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E119" s="19" t="inlineStr">
         <is>
-          <t>6 550 ₽</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="E121" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="E125" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="E127" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9317,12 +9317,12 @@
       </c>
       <c r="D128" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E128" s="19" t="inlineStr">
         <is>
-          <t>9 990 ₽</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="E130" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9430,7 +9430,7 @@
       </c>
       <c r="E132" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="E133" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E135" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="E136" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9587,12 +9587,12 @@
       </c>
       <c r="D138" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E138" s="19" t="inlineStr">
         <is>
-          <t>19 990 ₽</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="E139" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="E142" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="E145" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="E146" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="E149" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E151" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -9997,7 +9997,7 @@
       </c>
       <c r="E153" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10078,7 +10078,7 @@
       </c>
       <c r="E156" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10132,7 +10132,7 @@
       </c>
       <c r="E158" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="E159" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10213,7 +10213,7 @@
       </c>
       <c r="E161" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="E162" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="E165" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10344,7 +10344,7 @@
       </c>
       <c r="E166" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       </c>
       <c r="E168" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="E170" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10469,7 +10469,7 @@
       </c>
       <c r="E171" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="E172" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="E173" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10544,7 +10544,7 @@
       </c>
       <c r="E174" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="E175" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10594,7 +10594,7 @@
       </c>
       <c r="E176" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="E178" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10669,7 +10669,7 @@
       </c>
       <c r="E179" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10694,7 +10694,7 @@
       </c>
       <c r="E180" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -10719,7 +10719,7 @@
       </c>
       <c r="E181" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -14192,7 +14192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -14288,7 +14288,7 @@
       </c>
       <c r="E3" s="19" t="inlineStr">
         <is>
-          <t>4 985 р.</t>
+          <t>5 142 р.</t>
         </is>
       </c>
     </row>
@@ -14369,7 +14369,7 @@
       </c>
       <c r="E6" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -14396,7 +14396,7 @@
       </c>
       <c r="E7" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -14423,7 +14423,7 @@
       </c>
       <c r="E8" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -14450,7 +14450,7 @@
       </c>
       <c r="E9" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -14585,7 +14585,7 @@
       </c>
       <c r="E14" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -14666,7 +14666,7 @@
       </c>
       <c r="E17" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -14693,7 +14693,7 @@
       </c>
       <c r="E18" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -14774,7 +14774,7 @@
       </c>
       <c r="E21" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="E22" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -14882,7 +14882,7 @@
       </c>
       <c r="E25" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -14909,7 +14909,7 @@
       </c>
       <c r="E26" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -14936,7 +14936,7 @@
       </c>
       <c r="E27" s="19" t="inlineStr">
         <is>
-          <t>8 730 р.</t>
+          <t>8 399 р.</t>
         </is>
       </c>
     </row>
@@ -14963,7 +14963,7 @@
       </c>
       <c r="E28" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -14990,7 +14990,7 @@
       </c>
       <c r="E29" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="E30" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15044,7 +15044,7 @@
       </c>
       <c r="E31" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15071,7 +15071,7 @@
       </c>
       <c r="E32" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15125,7 +15125,7 @@
       </c>
       <c r="E34" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15152,7 +15152,7 @@
       </c>
       <c r="E35" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15206,7 +15206,7 @@
       </c>
       <c r="E37" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15260,7 +15260,7 @@
       </c>
       <c r="E39" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15341,7 +15341,7 @@
       </c>
       <c r="E42" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15368,7 +15368,7 @@
       </c>
       <c r="E43" s="19" t="inlineStr">
         <is>
-          <t>5 403 р.</t>
+          <t>5 990 р.</t>
         </is>
       </c>
     </row>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="E44" s="19" t="inlineStr">
         <is>
-          <t>4 286 р.</t>
+          <t>4 490 р.</t>
         </is>
       </c>
     </row>
@@ -15422,7 +15422,7 @@
       </c>
       <c r="E45" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15449,7 +15449,7 @@
       </c>
       <c r="E46" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15503,7 +15503,7 @@
       </c>
       <c r="E48" s="19" t="inlineStr">
         <is>
-          <t>2 246 р.</t>
+          <t>2 490 р.</t>
         </is>
       </c>
     </row>
@@ -15530,7 +15530,7 @@
       </c>
       <c r="E49" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15557,7 +15557,7 @@
       </c>
       <c r="E50" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15584,7 +15584,7 @@
       </c>
       <c r="E51" s="19" t="inlineStr">
         <is>
-          <t>13 500 р.</t>
+          <t>12 836 р.</t>
         </is>
       </c>
     </row>
@@ -15611,7 +15611,7 @@
       </c>
       <c r="E52" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15692,7 +15692,7 @@
       </c>
       <c r="E55" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15746,7 +15746,7 @@
       </c>
       <c r="E57" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15773,7 +15773,7 @@
       </c>
       <c r="E58" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15800,7 +15800,7 @@
       </c>
       <c r="E59" s="19" t="inlineStr">
         <is>
-          <t>7 172 р.</t>
+          <t>7 372 р.</t>
         </is>
       </c>
     </row>
@@ -15827,7 +15827,7 @@
       </c>
       <c r="E60" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15854,7 +15854,7 @@
       </c>
       <c r="E61" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -15908,7 +15908,7 @@
       </c>
       <c r="E63" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="E70" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16124,7 +16124,7 @@
       </c>
       <c r="E71" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16151,7 +16151,7 @@
       </c>
       <c r="E72" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="E73" s="19" t="inlineStr">
         <is>
-          <t>6 552 р.</t>
+          <t>6 962 р.</t>
         </is>
       </c>
     </row>
@@ -16205,7 +16205,7 @@
       </c>
       <c r="E74" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16232,7 +16232,7 @@
       </c>
       <c r="E75" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16259,7 +16259,7 @@
       </c>
       <c r="E76" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16286,7 +16286,7 @@
       </c>
       <c r="E77" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16340,7 +16340,7 @@
       </c>
       <c r="E79" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16367,7 +16367,7 @@
       </c>
       <c r="E80" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16448,7 +16448,7 @@
       </c>
       <c r="E83" s="19" t="inlineStr">
         <is>
-          <t>14 349 р.</t>
+          <t>15 412 р.</t>
         </is>
       </c>
     </row>
@@ -16475,7 +16475,7 @@
       </c>
       <c r="E84" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16502,7 +16502,7 @@
       </c>
       <c r="E85" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16556,7 +16556,7 @@
       </c>
       <c r="E87" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16664,7 +16664,7 @@
       </c>
       <c r="E91" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16718,7 +16718,7 @@
       </c>
       <c r="E93" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16745,7 +16745,7 @@
       </c>
       <c r="E94" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16772,7 +16772,7 @@
       </c>
       <c r="E95" s="19" t="inlineStr">
         <is>
-          <t>8 090 р.</t>
+          <t>8 089 р.</t>
         </is>
       </c>
     </row>
@@ -16826,7 +16826,7 @@
       </c>
       <c r="E97" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16880,7 +16880,7 @@
       </c>
       <c r="E99" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16907,7 +16907,7 @@
       </c>
       <c r="E100" s="19" t="inlineStr">
         <is>
-          <t>3 990 р.</t>
+          <t>4 069 р.</t>
         </is>
       </c>
     </row>
@@ -16934,7 +16934,7 @@
       </c>
       <c r="E101" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16961,7 +16961,7 @@
       </c>
       <c r="E102" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -16988,7 +16988,7 @@
       </c>
       <c r="E103" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17015,7 +17015,7 @@
       </c>
       <c r="E104" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17042,7 +17042,7 @@
       </c>
       <c r="E105" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17069,7 +17069,7 @@
       </c>
       <c r="E106" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17150,7 +17150,7 @@
       </c>
       <c r="E109" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="E111" s="19" t="inlineStr">
         <is>
-          <t>9 012 р.</t>
+          <t>9 010 р.</t>
         </is>
       </c>
     </row>
@@ -17285,7 +17285,7 @@
       </c>
       <c r="E114" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17312,7 +17312,7 @@
       </c>
       <c r="E115" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17339,7 +17339,7 @@
       </c>
       <c r="E116" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17366,7 +17366,7 @@
       </c>
       <c r="E117" s="19" t="inlineStr">
         <is>
-          <t>2 862 р.</t>
+          <t>2 860 р.</t>
         </is>
       </c>
     </row>
@@ -17393,7 +17393,7 @@
       </c>
       <c r="E118" s="19" t="inlineStr">
         <is>
-          <t>10 822 р.</t>
+          <t>10 652 р.</t>
         </is>
       </c>
     </row>
@@ -17420,7 +17420,7 @@
       </c>
       <c r="E119" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17447,7 +17447,7 @@
       </c>
       <c r="E120" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17474,7 +17474,7 @@
       </c>
       <c r="E121" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17496,12 +17496,12 @@
       </c>
       <c r="D122" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E122" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>24 592 р.</t>
         </is>
       </c>
     </row>
@@ -17582,7 +17582,7 @@
       </c>
       <c r="E125" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17636,7 +17636,7 @@
       </c>
       <c r="E127" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17663,7 +17663,7 @@
       </c>
       <c r="E128" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17717,7 +17717,7 @@
       </c>
       <c r="E130" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17744,7 +17744,7 @@
       </c>
       <c r="E131" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17771,7 +17771,7 @@
       </c>
       <c r="E132" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17798,7 +17798,7 @@
       </c>
       <c r="E133" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17825,7 +17825,7 @@
       </c>
       <c r="E134" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17852,7 +17852,7 @@
       </c>
       <c r="E135" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17906,7 +17906,7 @@
       </c>
       <c r="E137" s="19" t="inlineStr">
         <is>
-          <t>4 990 р.</t>
+          <t>4 092 р.</t>
         </is>
       </c>
     </row>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="E138" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -17960,7 +17960,7 @@
       </c>
       <c r="E139" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -18014,7 +18014,7 @@
       </c>
       <c r="E141" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -18041,7 +18041,7 @@
       </c>
       <c r="E142" s="19" t="inlineStr">
         <is>
-          <t>14 388 р.</t>
+          <t>14 990 р.</t>
         </is>
       </c>
     </row>
@@ -18149,7 +18149,7 @@
       </c>
       <c r="E146" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -18203,7 +18203,7 @@
       </c>
       <c r="E148" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -18311,7 +18311,7 @@
       </c>
       <c r="E152" s="19" t="inlineStr">
         <is>
-          <t>7 390 р.</t>
+          <t>7 760 р.</t>
         </is>
       </c>
     </row>
@@ -18392,7 +18392,7 @@
       </c>
       <c r="E155" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -18446,7 +18446,7 @@
       </c>
       <c r="E157" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -18500,7 +18500,7 @@
       </c>
       <c r="E159" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -18581,7 +18581,7 @@
       </c>
       <c r="E162" s="19" t="inlineStr">
         <is>
-          <t>4 540 р.</t>
+          <t>4 909 р.</t>
         </is>
       </c>
     </row>
@@ -18635,7 +18635,7 @@
       </c>
       <c r="E164" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -18743,7 +18743,7 @@
       </c>
       <c r="E168" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -18824,7 +18824,7 @@
       </c>
       <c r="E171" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -18851,7 +18851,7 @@
       </c>
       <c r="E172" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -18878,7 +18878,7 @@
       </c>
       <c r="E173" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -18905,7 +18905,7 @@
       </c>
       <c r="E174" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -18932,7 +18932,7 @@
       </c>
       <c r="E175" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -18959,7 +18959,7 @@
       </c>
       <c r="E176" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="E177" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -19013,7 +19013,7 @@
       </c>
       <c r="E178" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -19040,7 +19040,7 @@
       </c>
       <c r="E179" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -19067,7 +19067,7 @@
       </c>
       <c r="E180" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -19094,7 +19094,7 @@
       </c>
       <c r="E181" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -19109,17 +19109,17 @@
     <cfRule type="duplicateValues" rank="0" priority="4" equalAverage="0" aboveAverage="0" dxfId="0" text="" percent="0" bottom="0"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=2948156" r:id="rId1"/>
-    <hyperlink ref="C4" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=5159347" r:id="rId2"/>
-    <hyperlink ref="C13" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=5159497" r:id="rId3"/>
-    <hyperlink ref="C42" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=5159677" r:id="rId4"/>
-    <hyperlink ref="C43" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=4732194" r:id="rId5"/>
-    <hyperlink ref="C50" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=4729608" r:id="rId6"/>
-    <hyperlink ref="C108" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=3001346" r:id="rId7"/>
-    <hyperlink ref="C114" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=3212480" r:id="rId8"/>
-    <hyperlink ref="C126" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=6864553" r:id="rId9"/>
-    <hyperlink ref="C151" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=2906504" r:id="rId10"/>
-    <hyperlink ref="C167" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=6966955" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=2948156" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=5159347" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C13" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=5159497" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C42" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=5159677" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C43" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=4732194" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C50" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=4729608" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C108" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=3001346" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C114" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=3212480" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C126" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=6864553" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C151" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=2906504" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C167" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=6966955" r:id="rId11"/>
   </hyperlinks>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="E2" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">12 158 ₽ </t>
+          <t xml:space="preserve">8 878 ₽ </t>
         </is>
       </c>
     </row>
@@ -19220,7 +19220,7 @@
       </c>
       <c r="E3" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 142 ₽ </t>
+          <t xml:space="preserve">5 103 ₽ </t>
         </is>
       </c>
     </row>
@@ -19245,7 +19245,7 @@
       </c>
       <c r="E4" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">12 990 ₽ </t>
+          <t xml:space="preserve">10 951 ₽ </t>
         </is>
       </c>
     </row>
@@ -19295,7 +19295,7 @@
       </c>
       <c r="E6" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -19320,7 +19320,7 @@
       </c>
       <c r="E7" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -19370,7 +19370,7 @@
       </c>
       <c r="E9" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">29 990 ₽ </t>
+          <t xml:space="preserve">36 128 ₽ </t>
         </is>
       </c>
     </row>
@@ -19395,7 +19395,7 @@
       </c>
       <c r="E10" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 990 ₽ </t>
+          <t xml:space="preserve">6 325 ₽ </t>
         </is>
       </c>
     </row>
@@ -19495,7 +19495,7 @@
       </c>
       <c r="E14" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -19545,7 +19545,7 @@
       </c>
       <c r="E16" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -19595,7 +19595,7 @@
       </c>
       <c r="E18" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -19620,7 +19620,7 @@
       </c>
       <c r="E19" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 539 ₽ </t>
+          <t xml:space="preserve">2 751 ₽ </t>
         </is>
       </c>
     </row>
@@ -19670,7 +19670,7 @@
       </c>
       <c r="E21" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 515 ₽ </t>
+          <t xml:space="preserve">3 496 ₽ </t>
         </is>
       </c>
     </row>
@@ -19695,7 +19695,7 @@
       </c>
       <c r="E22" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -19745,7 +19745,7 @@
       </c>
       <c r="E24" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -19770,7 +19770,7 @@
       </c>
       <c r="E25" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 990 ₽ </t>
+          <t xml:space="preserve">4 851 ₽ </t>
         </is>
       </c>
     </row>
@@ -19820,7 +19820,7 @@
       </c>
       <c r="E27" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 730 ₽ </t>
+          <t xml:space="preserve">8 028 ₽ </t>
         </is>
       </c>
     </row>
@@ -19845,7 +19845,7 @@
       </c>
       <c r="E28" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -19895,7 +19895,7 @@
       </c>
       <c r="E30" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -19920,7 +19920,7 @@
       </c>
       <c r="E31" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -19945,7 +19945,7 @@
       </c>
       <c r="E32" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -19970,7 +19970,7 @@
       </c>
       <c r="E33" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 983 ₽ </t>
+          <t xml:space="preserve">9 990 ₽ </t>
         </is>
       </c>
     </row>
@@ -20070,7 +20070,7 @@
       </c>
       <c r="E37" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -20145,7 +20145,7 @@
       </c>
       <c r="E40" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -20170,7 +20170,7 @@
       </c>
       <c r="E41" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 056 ₽ </t>
+          <t xml:space="preserve">4 111 ₽ </t>
         </is>
       </c>
     </row>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="E42" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -20270,7 +20270,7 @@
       </c>
       <c r="E45" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -20295,7 +20295,7 @@
       </c>
       <c r="E46" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -20345,7 +20345,7 @@
       </c>
       <c r="E48" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 490 ₽ </t>
+          <t xml:space="preserve">2 290 ₽ </t>
         </is>
       </c>
     </row>
@@ -20370,7 +20370,7 @@
       </c>
       <c r="E49" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="E50" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -20420,7 +20420,7 @@
       </c>
       <c r="E51" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">16 990 ₽ </t>
+          <t xml:space="preserve">21 004 ₽ </t>
         </is>
       </c>
     </row>
@@ -20445,7 +20445,7 @@
       </c>
       <c r="E52" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -20470,7 +20470,7 @@
       </c>
       <c r="E53" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 014 ₽ </t>
+          <t xml:space="preserve">5 256 ₽ </t>
         </is>
       </c>
     </row>
@@ -20520,7 +20520,7 @@
       </c>
       <c r="E55" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 264 ₽ </t>
+          <t xml:space="preserve">1 347 ₽ </t>
         </is>
       </c>
     </row>
@@ -20570,7 +20570,7 @@
       </c>
       <c r="E57" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="E58" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -20620,7 +20620,7 @@
       </c>
       <c r="E59" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 280 ₽ </t>
+          <t xml:space="preserve">10 981 ₽ </t>
         </is>
       </c>
     </row>
@@ -20645,7 +20645,7 @@
       </c>
       <c r="E60" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -20695,7 +20695,7 @@
       </c>
       <c r="E62" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 985 ₽ </t>
+          <t xml:space="preserve">2 691 ₽ </t>
         </is>
       </c>
     </row>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="E64" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -20920,7 +20920,7 @@
       </c>
       <c r="E71" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -20945,7 +20945,7 @@
       </c>
       <c r="E72" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -20995,7 +20995,7 @@
       </c>
       <c r="E74" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21045,7 +21045,7 @@
       </c>
       <c r="E76" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21095,7 +21095,7 @@
       </c>
       <c r="E78" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 796 ₽ </t>
+          <t xml:space="preserve">5 490 ₽ </t>
         </is>
       </c>
     </row>
@@ -21120,7 +21120,7 @@
       </c>
       <c r="E79" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21170,7 +21170,7 @@
       </c>
       <c r="E81" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 707 ₽ </t>
+          <t xml:space="preserve">3 165 ₽ </t>
         </is>
       </c>
     </row>
@@ -21220,7 +21220,7 @@
       </c>
       <c r="E83" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 074 ₽ </t>
+          <t xml:space="preserve">15 243 ₽ </t>
         </is>
       </c>
     </row>
@@ -21245,7 +21245,7 @@
       </c>
       <c r="E84" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21295,7 +21295,7 @@
       </c>
       <c r="E86" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 990 ₽ </t>
+          <t xml:space="preserve">8 890 ₽ </t>
         </is>
       </c>
     </row>
@@ -21320,7 +21320,7 @@
       </c>
       <c r="E87" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21345,7 +21345,7 @@
       </c>
       <c r="E88" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 235 ₽ </t>
+          <t xml:space="preserve">3 765 ₽ </t>
         </is>
       </c>
     </row>
@@ -21370,7 +21370,7 @@
       </c>
       <c r="E89" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="E90" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21420,7 +21420,7 @@
       </c>
       <c r="E91" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21445,7 +21445,7 @@
       </c>
       <c r="E92" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 857 ₽ </t>
+          <t xml:space="preserve">3 290 ₽ </t>
         </is>
       </c>
     </row>
@@ -21495,7 +21495,7 @@
       </c>
       <c r="E94" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">12 335 ₽ </t>
+          <t xml:space="preserve">10 990 ₽ </t>
         </is>
       </c>
     </row>
@@ -21545,7 +21545,7 @@
       </c>
       <c r="E96" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21570,7 +21570,7 @@
       </c>
       <c r="E97" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 215 ₽ </t>
+          <t xml:space="preserve">2 777 ₽ </t>
         </is>
       </c>
     </row>
@@ -21595,7 +21595,7 @@
       </c>
       <c r="E98" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21620,7 +21620,7 @@
       </c>
       <c r="E99" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21645,7 +21645,7 @@
       </c>
       <c r="E100" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 177 ₽ </t>
+          <t xml:space="preserve">4 192 ₽ </t>
         </is>
       </c>
     </row>
@@ -21670,7 +21670,7 @@
       </c>
       <c r="E101" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21695,7 +21695,7 @@
       </c>
       <c r="E102" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21720,7 +21720,7 @@
       </c>
       <c r="E103" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21745,7 +21745,7 @@
       </c>
       <c r="E104" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21770,7 +21770,7 @@
       </c>
       <c r="E105" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="E106" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21820,7 +21820,7 @@
       </c>
       <c r="E107" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -21845,7 +21845,7 @@
       </c>
       <c r="E108" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 990 ₽ </t>
+          <t xml:space="preserve">14 645 ₽ </t>
         </is>
       </c>
     </row>
@@ -21895,7 +21895,7 @@
       </c>
       <c r="E110" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 907 ₽ </t>
+          <t xml:space="preserve">3 885 ₽ </t>
         </is>
       </c>
     </row>
@@ -21920,7 +21920,7 @@
       </c>
       <c r="E111" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">13 423 ₽ </t>
+          <t xml:space="preserve">10 671 ₽ </t>
         </is>
       </c>
     </row>
@@ -21945,7 +21945,7 @@
       </c>
       <c r="E112" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 676 ₽ </t>
+          <t xml:space="preserve">9 364 ₽ </t>
         </is>
       </c>
     </row>
@@ -21995,7 +21995,7 @@
       </c>
       <c r="E114" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="E115" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22045,7 +22045,7 @@
       </c>
       <c r="E116" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22070,7 +22070,7 @@
       </c>
       <c r="E117" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 019 ₽ </t>
+          <t xml:space="preserve">3 990 ₽ </t>
         </is>
       </c>
     </row>
@@ -22095,7 +22095,7 @@
       </c>
       <c r="E118" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 822 ₽ </t>
+          <t xml:space="preserve">10 820 ₽ </t>
         </is>
       </c>
     </row>
@@ -22145,7 +22145,7 @@
       </c>
       <c r="E120" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="E121" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="E122" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">23 643 ₽ </t>
+          <t xml:space="preserve">28 281 ₽ </t>
         </is>
       </c>
     </row>
@@ -22220,7 +22220,7 @@
       </c>
       <c r="E123" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22245,7 +22245,7 @@
       </c>
       <c r="E124" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22270,7 +22270,7 @@
       </c>
       <c r="E125" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       </c>
       <c r="E126" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22320,7 +22320,7 @@
       </c>
       <c r="E127" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22345,7 +22345,7 @@
       </c>
       <c r="E128" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22395,7 +22395,7 @@
       </c>
       <c r="E130" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22420,7 +22420,7 @@
       </c>
       <c r="E131" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22445,7 +22445,7 @@
       </c>
       <c r="E132" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22470,7 +22470,7 @@
       </c>
       <c r="E133" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">32 541 ₽ </t>
+          <t xml:space="preserve">36 157 ₽ </t>
         </is>
       </c>
     </row>
@@ -22495,7 +22495,7 @@
       </c>
       <c r="E134" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22520,7 +22520,7 @@
       </c>
       <c r="E135" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22545,7 +22545,7 @@
       </c>
       <c r="E136" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 990 ₽ </t>
+          <t xml:space="preserve">3 465 ₽ </t>
         </is>
       </c>
     </row>
@@ -22570,7 +22570,7 @@
       </c>
       <c r="E137" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="E138" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22620,7 +22620,7 @@
       </c>
       <c r="E139" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22645,7 +22645,7 @@
       </c>
       <c r="E140" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22695,7 +22695,7 @@
       </c>
       <c r="E142" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">14 990 ₽ </t>
+          <t xml:space="preserve">13 792 ₽ </t>
         </is>
       </c>
     </row>
@@ -22720,7 +22720,7 @@
       </c>
       <c r="E143" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22795,7 +22795,7 @@
       </c>
       <c r="E146" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22820,7 +22820,7 @@
       </c>
       <c r="E147" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22895,7 +22895,7 @@
       </c>
       <c r="E150" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -22920,7 +22920,7 @@
       </c>
       <c r="E151" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 321 ₽ </t>
+          <t xml:space="preserve">7 990 ₽ </t>
         </is>
       </c>
     </row>
@@ -22970,7 +22970,7 @@
       </c>
       <c r="E153" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23020,7 +23020,7 @@
       </c>
       <c r="E155" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23070,7 +23070,7 @@
       </c>
       <c r="E157" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 151 ₽ </t>
+          <t xml:space="preserve">2 738 ₽ </t>
         </is>
       </c>
     </row>
@@ -23095,7 +23095,7 @@
       </c>
       <c r="E158" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23145,7 +23145,7 @@
       </c>
       <c r="E160" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 994 ₽ </t>
+          <t xml:space="preserve">3 211 ₽ </t>
         </is>
       </c>
     </row>
@@ -23170,7 +23170,7 @@
       </c>
       <c r="E161" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 397 ₽ </t>
+          <t xml:space="preserve">4 851 ₽ </t>
         </is>
       </c>
     </row>
@@ -23195,7 +23195,7 @@
       </c>
       <c r="E162" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23245,7 +23245,7 @@
       </c>
       <c r="E164" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23270,7 +23270,7 @@
       </c>
       <c r="E165" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23290,12 +23290,12 @@
       </c>
       <c r="D166" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E166" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 933 ₽ </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23320,7 +23320,7 @@
       </c>
       <c r="E167" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23345,7 +23345,7 @@
       </c>
       <c r="E168" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23370,7 +23370,7 @@
       </c>
       <c r="E169" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="E170" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">17 201 ₽ </t>
+          <t xml:space="preserve">18 393 ₽ </t>
         </is>
       </c>
     </row>
@@ -23420,7 +23420,7 @@
       </c>
       <c r="E171" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23445,7 +23445,7 @@
       </c>
       <c r="E172" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23470,7 +23470,7 @@
       </c>
       <c r="E173" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="E176" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23570,7 +23570,7 @@
       </c>
       <c r="E177" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23595,7 +23595,7 @@
       </c>
       <c r="E178" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23620,7 +23620,7 @@
       </c>
       <c r="E179" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23645,7 +23645,7 @@
       </c>
       <c r="E180" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -23670,7 +23670,7 @@
       </c>
       <c r="E181" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>

--- a/attachments/pars_result.xlsx
+++ b/attachments/pars_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mvideo" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="eldorado" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="vse_instrumenti" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ozon" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wb" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="all" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mvideo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="eldorado" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="vse_instrumenti" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ozon" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="wb" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -631,12 +631,12 @@
       <c r="D2" s="19" t="n"/>
       <c r="E2" s="19" t="inlineStr">
         <is>
-          <t>10 990 р.</t>
+          <t>8 990 р.</t>
         </is>
       </c>
       <c r="F2" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 878 ₽ </t>
+          <t>11 990 ₽</t>
         </is>
       </c>
       <c r="G2" s="19" t="n"/>
@@ -654,18 +654,18 @@
       </c>
       <c r="C3" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D3" s="19" t="n"/>
       <c r="E3" s="19" t="inlineStr">
         <is>
-          <t>5 142 р.</t>
+          <t>5 590 р.</t>
         </is>
       </c>
       <c r="F3" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 103 ₽ </t>
+          <t>5 590 ₽</t>
         </is>
       </c>
       <c r="G3" s="19" t="n"/>
@@ -689,12 +689,12 @@
       <c r="D4" s="19" t="n"/>
       <c r="E4" s="19" t="inlineStr">
         <is>
-          <t>11 990 р.</t>
+          <t>12 990 р.</t>
         </is>
       </c>
       <c r="F4" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 951 ₽ </t>
+          <t>12 990 ₽</t>
         </is>
       </c>
       <c r="G4" s="19" t="n"/>
@@ -712,7 +712,7 @@
       </c>
       <c r="C5" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D5" s="19" t="n"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="F5" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 290 ₽ </t>
+          <t>1 390 ₽</t>
         </is>
       </c>
       <c r="G5" s="19" t="n"/>
@@ -741,18 +741,18 @@
       </c>
       <c r="C6" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D6" s="19" t="n"/>
       <c r="E6" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F6" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G6" s="19" t="n"/>
@@ -770,18 +770,18 @@
       </c>
       <c r="C7" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D7" s="19" t="n"/>
       <c r="E7" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>14 990 р.</t>
         </is>
       </c>
       <c r="F7" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G7" s="19" t="n"/>
@@ -805,12 +805,12 @@
       <c r="D8" s="19" t="n"/>
       <c r="E8" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F8" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 338 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G8" s="19" t="n"/>
@@ -834,12 +834,12 @@
       <c r="D9" s="19" t="n"/>
       <c r="E9" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F9" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">36 128 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G9" s="19" t="n"/>
@@ -857,18 +857,18 @@
       </c>
       <c r="C10" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D10" s="19" t="n"/>
       <c r="E10" s="19" t="inlineStr">
         <is>
-          <t>6 446 р.</t>
+          <t>6 533 р.</t>
         </is>
       </c>
       <c r="F10" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 325 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G10" s="19" t="n"/>
@@ -886,7 +886,7 @@
       </c>
       <c r="C11" s="19" t="inlineStr">
         <is>
-          <t>4 500 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D11" s="19" t="n"/>
@@ -897,7 +897,7 @@
       </c>
       <c r="F11" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 286 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G11" s="19" t="n"/>
@@ -926,7 +926,7 @@
       </c>
       <c r="F12" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 699 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G12" s="19" t="n"/>
@@ -955,7 +955,7 @@
       </c>
       <c r="F13" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G13" s="19" t="n"/>
@@ -973,18 +973,18 @@
       </c>
       <c r="C14" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D14" s="19" t="n"/>
       <c r="E14" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F14" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G14" s="19" t="n"/>
@@ -1008,12 +1008,12 @@
       <c r="D15" s="19" t="n"/>
       <c r="E15" s="19" t="inlineStr">
         <is>
-          <t>9 896 р.</t>
+          <t>10 652 р.</t>
         </is>
       </c>
       <c r="F15" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 896 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G15" s="19" t="n"/>
@@ -1031,18 +1031,18 @@
       </c>
       <c r="C16" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D16" s="19" t="n"/>
       <c r="E16" s="19" t="inlineStr">
         <is>
-          <t>9 490 р.</t>
+          <t>8 990 р.</t>
         </is>
       </c>
       <c r="F16" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G16" s="19" t="n"/>
@@ -1060,18 +1060,18 @@
       </c>
       <c r="C17" s="19" t="inlineStr">
         <is>
-          <t>2 990 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D17" s="19" t="n"/>
       <c r="E17" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F17" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 921 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G17" s="19" t="n"/>
@@ -1089,18 +1089,18 @@
       </c>
       <c r="C18" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D18" s="19" t="n"/>
       <c r="E18" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F18" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G18" s="19" t="n"/>
@@ -1124,12 +1124,12 @@
       <c r="D19" s="19" t="n"/>
       <c r="E19" s="19" t="inlineStr">
         <is>
-          <t>2 990 р.</t>
+          <t>2 763 р.</t>
         </is>
       </c>
       <c r="F19" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 751 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G19" s="19" t="n"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C20" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D20" s="19" t="n"/>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="F20" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 199 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G20" s="19" t="n"/>
@@ -1176,18 +1176,18 @@
       </c>
       <c r="C21" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D21" s="19" t="n"/>
       <c r="E21" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3 990 р.</t>
         </is>
       </c>
       <c r="F21" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 496 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G21" s="19" t="n"/>
@@ -1205,18 +1205,18 @@
       </c>
       <c r="C22" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D22" s="19" t="n"/>
       <c r="E22" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F22" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G22" s="19" t="n"/>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="F23" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 102 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G23" s="19" t="n"/>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="F24" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G24" s="19" t="n"/>
@@ -1292,18 +1292,18 @@
       </c>
       <c r="C25" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D25" s="19" t="n"/>
       <c r="E25" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F25" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 851 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G25" s="19" t="n"/>
@@ -1321,18 +1321,18 @@
       </c>
       <c r="C26" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D26" s="19" t="n"/>
       <c r="E26" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F26" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 490 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G26" s="19" t="n"/>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="C27" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D27" s="19" t="n"/>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F27" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 028 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G27" s="19" t="n"/>
@@ -1379,18 +1379,18 @@
       </c>
       <c r="C28" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D28" s="19" t="n"/>
       <c r="E28" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F28" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G28" s="19" t="n"/>
@@ -1408,18 +1408,18 @@
       </c>
       <c r="C29" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D29" s="19" t="n"/>
       <c r="E29" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F29" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 989 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G29" s="19" t="n"/>
@@ -1437,18 +1437,18 @@
       </c>
       <c r="C30" s="19" t="inlineStr">
         <is>
-          <t>4 910 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D30" s="19" t="n"/>
       <c r="E30" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F30" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G30" s="19" t="n"/>
@@ -1466,18 +1466,18 @@
       </c>
       <c r="C31" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D31" s="19" t="n"/>
       <c r="E31" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F31" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G31" s="19" t="n"/>
@@ -1495,18 +1495,18 @@
       </c>
       <c r="C32" s="19" t="inlineStr">
         <is>
-          <t>1 490 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D32" s="19" t="n"/>
       <c r="E32" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F32" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G32" s="19" t="n"/>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="F33" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G33" s="19" t="n"/>
@@ -1559,12 +1559,12 @@
       <c r="D34" s="19" t="n"/>
       <c r="E34" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F34" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 757 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G34" s="19" t="n"/>
@@ -1582,18 +1582,18 @@
       </c>
       <c r="C35" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D35" s="19" t="n"/>
       <c r="E35" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F35" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G35" s="19" t="n"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C36" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D36" s="19" t="n"/>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="F36" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G36" s="19" t="n"/>
@@ -1640,18 +1640,18 @@
       </c>
       <c r="C37" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D37" s="19" t="n"/>
       <c r="E37" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F37" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G37" s="19" t="n"/>
@@ -1675,12 +1675,12 @@
       <c r="D38" s="19" t="n"/>
       <c r="E38" s="19" t="inlineStr">
         <is>
-          <t>3 272 р.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F38" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 675 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G38" s="19" t="n"/>
@@ -1698,18 +1698,18 @@
       </c>
       <c r="C39" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D39" s="19" t="n"/>
       <c r="E39" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F39" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 584 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G39" s="19" t="n"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="C40" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D40" s="19" t="n"/>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="F40" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G40" s="19" t="n"/>
@@ -1762,12 +1762,12 @@
       <c r="D41" s="19" t="n"/>
       <c r="E41" s="19" t="inlineStr">
         <is>
-          <t>4 990 р.</t>
+          <t>4 092 р.</t>
         </is>
       </c>
       <c r="F41" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 111 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G41" s="19" t="n"/>
@@ -1785,18 +1785,18 @@
       </c>
       <c r="C42" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D42" s="19" t="n"/>
       <c r="E42" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F42" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G42" s="19" t="n"/>
@@ -1814,18 +1814,18 @@
       </c>
       <c r="C43" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D43" s="19" t="n"/>
       <c r="E43" s="19" t="inlineStr">
         <is>
-          <t>5 990 р.</t>
+          <t>6 490 р.</t>
         </is>
       </c>
       <c r="F43" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G43" s="19" t="n"/>
@@ -1843,18 +1843,18 @@
       </c>
       <c r="C44" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D44" s="19" t="n"/>
       <c r="E44" s="19" t="inlineStr">
         <is>
-          <t>4 490 р.</t>
+          <t>4 248 р.</t>
         </is>
       </c>
       <c r="F44" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 130 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G44" s="19" t="n"/>
@@ -1872,18 +1872,18 @@
       </c>
       <c r="C45" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D45" s="19" t="n"/>
       <c r="E45" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F45" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G45" s="19" t="n"/>
@@ -1907,12 +1907,12 @@
       <c r="D46" s="19" t="n"/>
       <c r="E46" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3 990 р.</t>
         </is>
       </c>
       <c r="F46" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G46" s="19" t="n"/>
@@ -1930,18 +1930,18 @@
       </c>
       <c r="C47" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>5 490 ₽</t>
         </is>
       </c>
       <c r="D47" s="19" t="n"/>
       <c r="E47" s="19" t="inlineStr">
         <is>
-          <t>4 990 р.</t>
+          <t>4 499 р.</t>
         </is>
       </c>
       <c r="F47" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 111 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G47" s="19" t="n"/>
@@ -1959,18 +1959,18 @@
       </c>
       <c r="C48" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D48" s="19" t="n"/>
       <c r="E48" s="19" t="inlineStr">
         <is>
-          <t>2 490 р.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F48" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 290 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G48" s="19" t="n"/>
@@ -1988,18 +1988,18 @@
       </c>
       <c r="C49" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D49" s="19" t="n"/>
       <c r="E49" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F49" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G49" s="19" t="n"/>
@@ -2023,12 +2023,12 @@
       <c r="D50" s="19" t="n"/>
       <c r="E50" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F50" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G50" s="19" t="n"/>
@@ -2046,18 +2046,18 @@
       </c>
       <c r="C51" s="19" t="inlineStr">
         <is>
-          <t>16 990 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D51" s="19" t="n"/>
       <c r="E51" s="19" t="inlineStr">
         <is>
-          <t>12 836 р.</t>
+          <t>12 905 р.</t>
         </is>
       </c>
       <c r="F51" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">21 004 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G51" s="19" t="n"/>
@@ -2075,18 +2075,18 @@
       </c>
       <c r="C52" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D52" s="19" t="n"/>
       <c r="E52" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F52" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G52" s="19" t="n"/>
@@ -2104,18 +2104,18 @@
       </c>
       <c r="C53" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D53" s="19" t="n"/>
       <c r="E53" s="19" t="inlineStr">
         <is>
-          <t>6 490 р.</t>
+          <t>5 322 р.</t>
         </is>
       </c>
       <c r="F53" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 256 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G53" s="19" t="n"/>
@@ -2133,18 +2133,18 @@
       </c>
       <c r="C54" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D54" s="19" t="n"/>
       <c r="E54" s="19" t="inlineStr">
         <is>
-          <t>3 934 р.</t>
+          <t>4 092 р.</t>
         </is>
       </c>
       <c r="F54" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 934 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G54" s="19" t="n"/>
@@ -2162,18 +2162,18 @@
       </c>
       <c r="C55" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D55" s="19" t="n"/>
       <c r="E55" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F55" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 347 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G55" s="19" t="n"/>
@@ -2191,18 +2191,18 @@
       </c>
       <c r="C56" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D56" s="19" t="n"/>
       <c r="E56" s="19" t="inlineStr">
         <is>
-          <t>15 389 р.</t>
+          <t>15 990 р.</t>
         </is>
       </c>
       <c r="F56" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">15 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G56" s="19" t="n"/>
@@ -2220,18 +2220,18 @@
       </c>
       <c r="C57" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D57" s="19" t="n"/>
       <c r="E57" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F57" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G57" s="19" t="n"/>
@@ -2249,18 +2249,18 @@
       </c>
       <c r="C58" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D58" s="19" t="n"/>
       <c r="E58" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F58" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G58" s="19" t="n"/>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="F59" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 981 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G59" s="19" t="n"/>
@@ -2307,18 +2307,18 @@
       </c>
       <c r="C60" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D60" s="19" t="n"/>
       <c r="E60" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F60" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G60" s="19" t="n"/>
@@ -2336,18 +2336,18 @@
       </c>
       <c r="C61" s="19" t="inlineStr">
         <is>
-          <t>8 490 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D61" s="19" t="n"/>
       <c r="E61" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F61" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 191 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G61" s="19" t="n"/>
@@ -2365,18 +2365,18 @@
       </c>
       <c r="C62" s="19" t="inlineStr">
         <is>
-          <t>2 790 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D62" s="19" t="n"/>
       <c r="E62" s="19" t="inlineStr">
         <is>
-          <t>2 790 р.</t>
+          <t>3 290 р.</t>
         </is>
       </c>
       <c r="F62" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 691 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G62" s="19" t="n"/>
@@ -2394,18 +2394,18 @@
       </c>
       <c r="C63" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D63" s="19" t="n"/>
       <c r="E63" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F63" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 490 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G63" s="19" t="n"/>
@@ -2429,12 +2429,12 @@
       <c r="D64" s="19" t="n"/>
       <c r="E64" s="19" t="inlineStr">
         <is>
-          <t>5 990 р.</t>
+          <t>6 490 р.</t>
         </is>
       </c>
       <c r="F64" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G64" s="19" t="n"/>
@@ -2452,18 +2452,18 @@
       </c>
       <c r="C65" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D65" s="19" t="n"/>
       <c r="E65" s="19" t="inlineStr">
         <is>
-          <t>2 990 р.</t>
+          <t>2 590 р.</t>
         </is>
       </c>
       <c r="F65" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 493 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G65" s="19" t="n"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="F66" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 200 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G66" s="19" t="n"/>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C67" s="19" t="inlineStr">
         <is>
-          <t>10 990 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D67" s="19" t="n"/>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="F67" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G67" s="19" t="n"/>
@@ -2545,12 +2545,12 @@
       <c r="D68" s="19" t="n"/>
       <c r="E68" s="19" t="inlineStr">
         <is>
-          <t>10 492 р.</t>
+          <t>11 472 р.</t>
         </is>
       </c>
       <c r="F68" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 492 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G68" s="19" t="n"/>
@@ -2574,12 +2574,12 @@
       <c r="D69" s="19" t="n"/>
       <c r="E69" s="19" t="inlineStr">
         <is>
-          <t>8 990 р.</t>
+          <t>7 372 р.</t>
         </is>
       </c>
       <c r="F69" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 648 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G69" s="19" t="n"/>
@@ -2597,18 +2597,18 @@
       </c>
       <c r="C70" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D70" s="19" t="n"/>
       <c r="E70" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F70" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 477 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G70" s="19" t="n"/>
@@ -2626,18 +2626,18 @@
       </c>
       <c r="C71" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D71" s="19" t="n"/>
       <c r="E71" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F71" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G71" s="19" t="n"/>
@@ -2655,18 +2655,18 @@
       </c>
       <c r="C72" s="19" t="inlineStr">
         <is>
-          <t>3 990 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D72" s="19" t="n"/>
       <c r="E72" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F72" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G72" s="19" t="n"/>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="C73" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D73" s="19" t="n"/>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="F73" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 836 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G73" s="19" t="n"/>
@@ -2719,12 +2719,12 @@
       <c r="D74" s="19" t="n"/>
       <c r="E74" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F74" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G74" s="19" t="n"/>
@@ -2742,18 +2742,18 @@
       </c>
       <c r="C75" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D75" s="19" t="n"/>
       <c r="E75" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F75" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 716 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G75" s="19" t="n"/>
@@ -2771,18 +2771,18 @@
       </c>
       <c r="C76" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D76" s="19" t="n"/>
       <c r="E76" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F76" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G76" s="19" t="n"/>
@@ -2800,18 +2800,18 @@
       </c>
       <c r="C77" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D77" s="19" t="n"/>
       <c r="E77" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F77" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 147 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G77" s="19" t="n"/>
@@ -2835,12 +2835,12 @@
       <c r="D78" s="19" t="n"/>
       <c r="E78" s="19" t="inlineStr">
         <is>
-          <t>4 502 р.</t>
+          <t>3 990 р.</t>
         </is>
       </c>
       <c r="F78" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 490 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G78" s="19" t="n"/>
@@ -2858,18 +2858,18 @@
       </c>
       <c r="C79" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D79" s="19" t="n"/>
       <c r="E79" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F79" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G79" s="19" t="n"/>
@@ -2887,18 +2887,18 @@
       </c>
       <c r="C80" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D80" s="19" t="n"/>
       <c r="E80" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F80" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 406 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G80" s="19" t="n"/>
@@ -2922,12 +2922,12 @@
       <c r="D81" s="19" t="n"/>
       <c r="E81" s="19" t="inlineStr">
         <is>
-          <t>3 590 р.</t>
+          <t>3 990 р.</t>
         </is>
       </c>
       <c r="F81" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 165 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G81" s="19" t="n"/>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="F82" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 465 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G82" s="19" t="n"/>
@@ -2980,12 +2980,12 @@
       <c r="D83" s="19" t="n"/>
       <c r="E83" s="19" t="inlineStr">
         <is>
-          <t>15 412 р.</t>
+          <t>17 990 р.</t>
         </is>
       </c>
       <c r="F83" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">15 243 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G83" s="19" t="n"/>
@@ -3009,12 +3009,12 @@
       <c r="D84" s="19" t="n"/>
       <c r="E84" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F84" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G84" s="19" t="n"/>
@@ -3032,18 +3032,18 @@
       </c>
       <c r="C85" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D85" s="19" t="n"/>
       <c r="E85" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F85" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 191 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G85" s="19" t="n"/>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="C86" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D86" s="19" t="n"/>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="F86" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 890 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G86" s="19" t="n"/>
@@ -3090,18 +3090,18 @@
       </c>
       <c r="C87" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D87" s="19" t="n"/>
       <c r="E87" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F87" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G87" s="19" t="n"/>
@@ -3125,12 +3125,12 @@
       <c r="D88" s="19" t="n"/>
       <c r="E88" s="19" t="inlineStr">
         <is>
-          <t>3 099 р.</t>
+          <t>2 695 р.</t>
         </is>
       </c>
       <c r="F88" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 765 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G88" s="19" t="n"/>
@@ -3148,18 +3148,18 @@
       </c>
       <c r="C89" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D89" s="19" t="n"/>
       <c r="E89" s="19" t="inlineStr">
         <is>
-          <t>7 990 р.</t>
+          <t>7 490 р.</t>
         </is>
       </c>
       <c r="F89" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G89" s="19" t="n"/>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="C90" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D90" s="19" t="n"/>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="F90" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G90" s="19" t="n"/>
@@ -3206,18 +3206,18 @@
       </c>
       <c r="C91" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D91" s="19" t="n"/>
       <c r="E91" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F91" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G91" s="19" t="n"/>
@@ -3235,18 +3235,18 @@
       </c>
       <c r="C92" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D92" s="19" t="n"/>
       <c r="E92" s="19" t="inlineStr">
         <is>
-          <t>2 698 р.</t>
+          <t>2 690 р.</t>
         </is>
       </c>
       <c r="F92" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 290 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G92" s="19" t="n"/>
@@ -3270,12 +3270,12 @@
       <c r="D93" s="19" t="n"/>
       <c r="E93" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F93" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 282 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G93" s="19" t="n"/>
@@ -3299,12 +3299,12 @@
       <c r="D94" s="19" t="n"/>
       <c r="E94" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F94" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G94" s="19" t="n"/>
@@ -3322,18 +3322,18 @@
       </c>
       <c r="C95" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D95" s="19" t="n"/>
       <c r="E95" s="19" t="inlineStr">
         <is>
-          <t>8 089 р.</t>
+          <t>8 192 р.</t>
         </is>
       </c>
       <c r="F95" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 090 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G95" s="19" t="n"/>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="F96" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G96" s="19" t="n"/>
@@ -3380,18 +3380,18 @@
       </c>
       <c r="C97" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2 990 ₽</t>
         </is>
       </c>
       <c r="D97" s="19" t="n"/>
       <c r="E97" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F97" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 777 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G97" s="19" t="n"/>
@@ -3409,18 +3409,18 @@
       </c>
       <c r="C98" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D98" s="19" t="n"/>
       <c r="E98" s="19" t="inlineStr">
         <is>
-          <t>1 290 р.</t>
+          <t>1 590 р.</t>
         </is>
       </c>
       <c r="F98" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G98" s="19" t="n"/>
@@ -3438,18 +3438,18 @@
       </c>
       <c r="C99" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D99" s="19" t="n"/>
       <c r="E99" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>7 990 р.</t>
         </is>
       </c>
       <c r="F99" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G99" s="19" t="n"/>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="F100" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 192 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G100" s="19" t="n"/>
@@ -3496,18 +3496,18 @@
       </c>
       <c r="C101" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D101" s="19" t="n"/>
       <c r="E101" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F101" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G101" s="19" t="n"/>
@@ -3525,18 +3525,18 @@
       </c>
       <c r="C102" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D102" s="19" t="n"/>
       <c r="E102" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F102" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G102" s="19" t="n"/>
@@ -3554,18 +3554,18 @@
       </c>
       <c r="C103" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D103" s="19" t="n"/>
       <c r="E103" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F103" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G103" s="19" t="n"/>
@@ -3583,18 +3583,18 @@
       </c>
       <c r="C104" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D104" s="19" t="n"/>
       <c r="E104" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F104" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G104" s="19" t="n"/>
@@ -3612,18 +3612,18 @@
       </c>
       <c r="C105" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D105" s="19" t="n"/>
       <c r="E105" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F105" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G105" s="19" t="n"/>
@@ -3641,18 +3641,18 @@
       </c>
       <c r="C106" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D106" s="19" t="n"/>
       <c r="E106" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F106" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G106" s="19" t="n"/>
@@ -3670,18 +3670,18 @@
       </c>
       <c r="C107" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D107" s="19" t="n"/>
       <c r="E107" s="19" t="inlineStr">
         <is>
-          <t>2 490 р.</t>
+          <t>2 590 р.</t>
         </is>
       </c>
       <c r="F107" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G107" s="19" t="n"/>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="F108" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">14 645 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G108" s="19" t="n"/>
@@ -3728,18 +3728,18 @@
       </c>
       <c r="C109" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D109" s="19" t="n"/>
       <c r="E109" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F109" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 671 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G109" s="19" t="n"/>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="C110" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D110" s="19" t="n"/>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="F110" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 885 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G110" s="19" t="n"/>
@@ -3792,12 +3792,12 @@
       <c r="D111" s="19" t="n"/>
       <c r="E111" s="19" t="inlineStr">
         <is>
-          <t>9 010 р.</t>
+          <t>11 735 р.</t>
         </is>
       </c>
       <c r="F111" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 671 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G111" s="19" t="n"/>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="F112" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 364 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G112" s="19" t="n"/>
@@ -3850,12 +3850,12 @@
       <c r="D113" s="19" t="n"/>
       <c r="E113" s="19" t="inlineStr">
         <is>
-          <t>14 340 р.</t>
+          <t>14 752 р.</t>
         </is>
       </c>
       <c r="F113" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">14 388 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G113" s="19" t="n"/>
@@ -3873,18 +3873,18 @@
       </c>
       <c r="C114" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D114" s="19" t="n"/>
       <c r="E114" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F114" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G114" s="19" t="n"/>
@@ -3902,18 +3902,18 @@
       </c>
       <c r="C115" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D115" s="19" t="n"/>
       <c r="E115" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F115" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G115" s="19" t="n"/>
@@ -3931,18 +3931,18 @@
       </c>
       <c r="C116" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D116" s="19" t="n"/>
       <c r="E116" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F116" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G116" s="19" t="n"/>
@@ -3966,12 +3966,12 @@
       <c r="D117" s="19" t="n"/>
       <c r="E117" s="19" t="inlineStr">
         <is>
-          <t>2 860 р.</t>
+          <t>2 862 р.</t>
         </is>
       </c>
       <c r="F117" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G117" s="19" t="n"/>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="F118" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 820 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G118" s="19" t="n"/>
@@ -4018,18 +4018,18 @@
       </c>
       <c r="C119" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D119" s="19" t="n"/>
       <c r="E119" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F119" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 374 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G119" s="19" t="n"/>
@@ -4053,12 +4053,12 @@
       <c r="D120" s="19" t="n"/>
       <c r="E120" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>29 990 р.</t>
         </is>
       </c>
       <c r="F120" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G120" s="19" t="n"/>
@@ -4076,18 +4076,18 @@
       </c>
       <c r="C121" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D121" s="19" t="n"/>
       <c r="E121" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F121" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G121" s="19" t="n"/>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="F122" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 281 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G122" s="19" t="n"/>
@@ -4140,12 +4140,12 @@
       <c r="D123" s="19" t="n"/>
       <c r="E123" s="19" t="inlineStr">
         <is>
-          <t>40 911 р.</t>
+          <t>42 990 р.</t>
         </is>
       </c>
       <c r="F123" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G123" s="19" t="n"/>
@@ -4169,12 +4169,12 @@
       <c r="D124" s="19" t="n"/>
       <c r="E124" s="19" t="inlineStr">
         <is>
-          <t>19 990 р.</t>
+          <t>16 392 р.</t>
         </is>
       </c>
       <c r="F124" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G124" s="19" t="n"/>
@@ -4192,18 +4192,18 @@
       </c>
       <c r="C125" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D125" s="19" t="n"/>
       <c r="E125" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F125" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G125" s="19" t="n"/>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="F126" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G126" s="19" t="n"/>
@@ -4250,18 +4250,18 @@
       </c>
       <c r="C127" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D127" s="19" t="n"/>
       <c r="E127" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F127" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G127" s="19" t="n"/>
@@ -4279,18 +4279,18 @@
       </c>
       <c r="C128" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D128" s="19" t="n"/>
       <c r="E128" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F128" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G128" s="19" t="n"/>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="F129" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 490 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G129" s="19" t="n"/>
@@ -4337,18 +4337,18 @@
       </c>
       <c r="C130" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D130" s="19" t="n"/>
       <c r="E130" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F130" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G130" s="19" t="n"/>
@@ -4372,12 +4372,12 @@
       <c r="D131" s="19" t="n"/>
       <c r="E131" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F131" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G131" s="19" t="n"/>
@@ -4395,18 +4395,18 @@
       </c>
       <c r="C132" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D132" s="19" t="n"/>
       <c r="E132" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F132" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G132" s="19" t="n"/>
@@ -4424,18 +4424,18 @@
       </c>
       <c r="C133" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D133" s="19" t="n"/>
       <c r="E133" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F133" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">36 157 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G133" s="19" t="n"/>
@@ -4459,12 +4459,12 @@
       <c r="D134" s="19" t="n"/>
       <c r="E134" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F134" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G134" s="19" t="n"/>
@@ -4482,18 +4482,18 @@
       </c>
       <c r="C135" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D135" s="19" t="n"/>
       <c r="E135" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F135" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G135" s="19" t="n"/>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C136" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D136" s="19" t="n"/>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="F136" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 465 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G136" s="19" t="n"/>
@@ -4546,12 +4546,12 @@
       <c r="D137" s="19" t="n"/>
       <c r="E137" s="19" t="inlineStr">
         <is>
-          <t>4 092 р.</t>
+          <t>4 990 р.</t>
         </is>
       </c>
       <c r="F137" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G137" s="19" t="n"/>
@@ -4569,18 +4569,18 @@
       </c>
       <c r="C138" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D138" s="19" t="n"/>
       <c r="E138" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F138" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G138" s="19" t="n"/>
@@ -4598,18 +4598,18 @@
       </c>
       <c r="C139" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D139" s="19" t="n"/>
       <c r="E139" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F139" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G139" s="19" t="n"/>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="F140" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G140" s="19" t="n"/>
@@ -4662,12 +4662,12 @@
       <c r="D141" s="19" t="n"/>
       <c r="E141" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F141" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 576 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G141" s="19" t="n"/>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="C142" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D142" s="19" t="n"/>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="F142" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">13 792 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G142" s="19" t="n"/>
@@ -4720,12 +4720,12 @@
       <c r="D143" s="19" t="n"/>
       <c r="E143" s="19" t="inlineStr">
         <is>
-          <t>2 390 р.</t>
+          <t>3 290 р.</t>
         </is>
       </c>
       <c r="F143" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G143" s="19" t="n"/>
@@ -4749,12 +4749,12 @@
       <c r="D144" s="19" t="n"/>
       <c r="E144" s="19" t="inlineStr">
         <is>
-          <t>2 490 р.</t>
+          <t>1 890 р.</t>
         </is>
       </c>
       <c r="F144" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 490 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G144" s="19" t="n"/>
@@ -4772,18 +4772,18 @@
       </c>
       <c r="C145" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D145" s="19" t="n"/>
       <c r="E145" s="19" t="inlineStr">
         <is>
-          <t>5 990 р.</t>
+          <t>4 912 р.</t>
         </is>
       </c>
       <c r="F145" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G145" s="19" t="n"/>
@@ -4801,18 +4801,18 @@
       </c>
       <c r="C146" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D146" s="19" t="n"/>
       <c r="E146" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3 290 р.</t>
         </is>
       </c>
       <c r="F146" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G146" s="19" t="n"/>
@@ -4830,18 +4830,18 @@
       </c>
       <c r="C147" s="19" t="inlineStr">
         <is>
-          <t>3 490 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D147" s="19" t="n"/>
       <c r="E147" s="19" t="inlineStr">
         <is>
-          <t>3 490 р.</t>
+          <t>2 862 р.</t>
         </is>
       </c>
       <c r="F147" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G147" s="19" t="n"/>
@@ -4859,18 +4859,18 @@
       </c>
       <c r="C148" s="19" t="inlineStr">
         <is>
-          <t>3 600 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D148" s="19" t="n"/>
       <c r="E148" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3 600 р.</t>
         </is>
       </c>
       <c r="F148" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 411 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G148" s="19" t="n"/>
@@ -4888,18 +4888,18 @@
       </c>
       <c r="C149" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D149" s="19" t="n"/>
       <c r="E149" s="19" t="inlineStr">
         <is>
-          <t>2 990 р.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F149" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 921 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G149" s="19" t="n"/>
@@ -4923,12 +4923,12 @@
       <c r="D150" s="19" t="n"/>
       <c r="E150" s="19" t="inlineStr">
         <is>
-          <t>31 491 р.</t>
+          <t>32 990 р.</t>
         </is>
       </c>
       <c r="F150" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G150" s="19" t="n"/>
@@ -4946,18 +4946,18 @@
       </c>
       <c r="C151" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D151" s="19" t="n"/>
       <c r="E151" s="19" t="inlineStr">
         <is>
-          <t>5 771 р.</t>
+          <t>6 100 р.</t>
         </is>
       </c>
       <c r="F151" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G151" s="19" t="n"/>
@@ -4975,18 +4975,18 @@
       </c>
       <c r="C152" s="19" t="inlineStr">
         <is>
-          <t>8 990 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D152" s="19" t="n"/>
       <c r="E152" s="19" t="inlineStr">
         <is>
-          <t>7 760 р.</t>
+          <t>8 800 р.</t>
         </is>
       </c>
       <c r="F152" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G152" s="19" t="n"/>
@@ -5004,18 +5004,18 @@
       </c>
       <c r="C153" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D153" s="19" t="n"/>
       <c r="E153" s="19" t="inlineStr">
         <is>
-          <t>8 090 р.</t>
+          <t>8 654 р.</t>
         </is>
       </c>
       <c r="F153" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G153" s="19" t="n"/>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="F154" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 897 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G154" s="19" t="n"/>
@@ -5062,18 +5062,18 @@
       </c>
       <c r="C155" s="19" t="inlineStr">
         <is>
-          <t>6 550 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D155" s="19" t="n"/>
       <c r="E155" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F155" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G155" s="19" t="n"/>
@@ -5091,18 +5091,18 @@
       </c>
       <c r="C156" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D156" s="19" t="n"/>
       <c r="E156" s="19" t="inlineStr">
         <is>
-          <t>2 990 р.</t>
+          <t>2 452 р.</t>
         </is>
       </c>
       <c r="F156" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 199 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G156" s="19" t="n"/>
@@ -5126,12 +5126,12 @@
       <c r="D157" s="19" t="n"/>
       <c r="E157" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F157" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 738 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G157" s="19" t="n"/>
@@ -5149,18 +5149,18 @@
       </c>
       <c r="C158" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D158" s="19" t="n"/>
       <c r="E158" s="19" t="inlineStr">
         <is>
-          <t>1 290 р.</t>
+          <t>1 390 р.</t>
         </is>
       </c>
       <c r="F158" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G158" s="19" t="n"/>
@@ -5178,18 +5178,18 @@
       </c>
       <c r="C159" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D159" s="19" t="n"/>
       <c r="E159" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F159" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 790 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G159" s="19" t="n"/>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="F160" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 211 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G160" s="19" t="n"/>
@@ -5236,18 +5236,18 @@
       </c>
       <c r="C161" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D161" s="19" t="n"/>
       <c r="E161" s="19" t="inlineStr">
         <is>
-          <t>5 990 р.</t>
+          <t>4 990 р.</t>
         </is>
       </c>
       <c r="F161" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 851 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G161" s="19" t="n"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="C162" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D162" s="19" t="n"/>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="F162" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G162" s="19" t="n"/>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="F163" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 290 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G163" s="19" t="n"/>
@@ -5329,12 +5329,12 @@
       <c r="D164" s="19" t="n"/>
       <c r="E164" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F164" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G164" s="19" t="n"/>
@@ -5352,18 +5352,18 @@
       </c>
       <c r="C165" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D165" s="19" t="n"/>
       <c r="E165" s="19" t="inlineStr">
         <is>
-          <t>1 490 р.</t>
+          <t>1 690 р.</t>
         </is>
       </c>
       <c r="F165" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G165" s="19" t="n"/>
@@ -5381,18 +5381,18 @@
       </c>
       <c r="C166" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D166" s="19" t="n"/>
       <c r="E166" s="19" t="inlineStr">
         <is>
-          <t>2 990 р.</t>
+          <t>3 290 р.</t>
         </is>
       </c>
       <c r="F166" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G166" s="19" t="n"/>
@@ -5416,12 +5416,12 @@
       <c r="D167" s="19" t="n"/>
       <c r="E167" s="19" t="inlineStr">
         <is>
-          <t>10 990 р.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F167" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G167" s="19" t="n"/>
@@ -5439,18 +5439,18 @@
       </c>
       <c r="C168" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D168" s="19" t="n"/>
       <c r="E168" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F168" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G168" s="19" t="n"/>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="F169" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G169" s="19" t="n"/>
@@ -5497,18 +5497,18 @@
       </c>
       <c r="C170" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D170" s="19" t="n"/>
       <c r="E170" s="19" t="inlineStr">
         <is>
-          <t>18 921 р.</t>
+          <t>19 990 р.</t>
         </is>
       </c>
       <c r="F170" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 393 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G170" s="19" t="n"/>
@@ -5526,18 +5526,18 @@
       </c>
       <c r="C171" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D171" s="19" t="n"/>
       <c r="E171" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F171" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G171" s="19" t="n"/>
@@ -5555,18 +5555,18 @@
       </c>
       <c r="C172" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D172" s="19" t="n"/>
       <c r="E172" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F172" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G172" s="19" t="n"/>
@@ -5584,18 +5584,18 @@
       </c>
       <c r="C173" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D173" s="19" t="n"/>
       <c r="E173" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F173" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G173" s="19" t="n"/>
@@ -5613,18 +5613,18 @@
       </c>
       <c r="C174" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D174" s="19" t="n"/>
       <c r="E174" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F174" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 801 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G174" s="19" t="n"/>
@@ -5642,18 +5642,18 @@
       </c>
       <c r="C175" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D175" s="19" t="n"/>
       <c r="E175" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F175" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 899 ₽ </t>
+          <t> </t>
         </is>
       </c>
       <c r="G175" s="19" t="n"/>
@@ -5671,18 +5671,18 @@
       </c>
       <c r="C176" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D176" s="19" t="n"/>
       <c r="E176" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F176" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G176" s="19" t="n"/>
@@ -5700,18 +5700,18 @@
       </c>
       <c r="C177" s="19" t="inlineStr">
         <is>
-          <t>4 890 ₽</t>
+          <t>4 895 ₽</t>
         </is>
       </c>
       <c r="D177" s="19" t="n"/>
       <c r="E177" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F177" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G177" s="19" t="n"/>
@@ -5729,18 +5729,18 @@
       </c>
       <c r="C178" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D178" s="19" t="n"/>
       <c r="E178" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F178" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G178" s="19" t="n"/>
@@ -5758,18 +5758,18 @@
       </c>
       <c r="C179" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D179" s="19" t="n"/>
       <c r="E179" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F179" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G179" s="19" t="n"/>
@@ -5787,18 +5787,18 @@
       </c>
       <c r="C180" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D180" s="19" t="n"/>
       <c r="E180" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F180" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G180" s="19" t="n"/>
@@ -5816,18 +5816,18 @@
       </c>
       <c r="C181" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D181" s="19" t="n"/>
       <c r="E181" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F181" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G181" s="19" t="n"/>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="E3" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="E5" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6028,7 +6028,7 @@
       </c>
       <c r="E6" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E7" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="E10" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6158,12 +6158,12 @@
       </c>
       <c r="D11" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E11" s="19" t="inlineStr">
         <is>
-          <t>4 500 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="E14" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="E16" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6320,12 +6320,12 @@
       </c>
       <c r="D17" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E17" s="19" t="inlineStr">
         <is>
-          <t>2 990 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="E18" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="E20" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="E21" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="E22" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="E25" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="E26" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="E27" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="E28" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="E29" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6671,12 +6671,12 @@
       </c>
       <c r="D30" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E30" s="19" t="inlineStr">
         <is>
-          <t>4 910 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="E31" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6725,12 +6725,12 @@
       </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E32" s="19" t="inlineStr">
         <is>
-          <t>1 490 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="E35" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="E36" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="E37" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="E39" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="E40" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7000,7 +7000,7 @@
       </c>
       <c r="E42" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7027,7 +7027,7 @@
       </c>
       <c r="E43" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="E44" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="E45" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7130,12 +7130,12 @@
       </c>
       <c r="D47" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E47" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>5 490 ₽</t>
         </is>
       </c>
     </row>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="E48" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="E49" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7238,12 +7238,12 @@
       </c>
       <c r="D51" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E51" s="19" t="inlineStr">
         <is>
-          <t>16 990 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="E52" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="E53" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="E54" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="E55" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7378,7 +7378,7 @@
       </c>
       <c r="E56" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="E57" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7432,7 +7432,7 @@
       </c>
       <c r="E58" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="E60" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="D61" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E61" s="19" t="inlineStr">
         <is>
-          <t>8 490 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7535,12 +7535,12 @@
       </c>
       <c r="D62" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E62" s="19" t="inlineStr">
         <is>
-          <t>2 790 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7567,7 +7567,7 @@
       </c>
       <c r="E63" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="E65" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7670,12 +7670,12 @@
       </c>
       <c r="D67" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E67" s="19" t="inlineStr">
         <is>
-          <t>10 990 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7756,7 +7756,7 @@
       </c>
       <c r="E70" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7783,7 +7783,7 @@
       </c>
       <c r="E71" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7805,12 +7805,12 @@
       </c>
       <c r="D72" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E72" s="19" t="inlineStr">
         <is>
-          <t>3 990 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="E73" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="E75" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="E76" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="E77" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="E79" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="E80" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="E85" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="E86" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       </c>
       <c r="E87" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="E89" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="E90" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="E91" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="E92" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="E95" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8480,12 +8480,12 @@
       </c>
       <c r="D97" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E97" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2 990 ₽</t>
         </is>
       </c>
     </row>
@@ -8512,7 +8512,7 @@
       </c>
       <c r="E98" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="E99" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8593,7 +8593,7 @@
       </c>
       <c r="E101" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
       </c>
       <c r="E102" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E103" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="E104" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="E105" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="E106" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="E107" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="E109" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="E110" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="E114" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8971,7 +8971,7 @@
       </c>
       <c r="E115" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8998,7 +8998,7 @@
       </c>
       <c r="E116" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E119" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="E121" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="E125" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="E127" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9322,7 +9322,7 @@
       </c>
       <c r="E128" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="E130" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9430,7 +9430,7 @@
       </c>
       <c r="E132" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="E133" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="E135" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="E136" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
       </c>
       <c r="E138" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="E139" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="E142" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="E145" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="E146" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9830,12 +9830,12 @@
       </c>
       <c r="D147" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E147" s="19" t="inlineStr">
         <is>
-          <t>3 490 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9857,12 +9857,12 @@
       </c>
       <c r="D148" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E148" s="19" t="inlineStr">
         <is>
-          <t>3 600 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="E149" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E151" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9965,12 +9965,12 @@
       </c>
       <c r="D152" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E152" s="19" t="inlineStr">
         <is>
-          <t>8 990 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9997,7 +9997,7 @@
       </c>
       <c r="E153" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10046,12 +10046,12 @@
       </c>
       <c r="D155" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E155" s="19" t="inlineStr">
         <is>
-          <t>6 550 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10078,7 +10078,7 @@
       </c>
       <c r="E156" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10132,7 +10132,7 @@
       </c>
       <c r="E158" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="E159" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10213,7 +10213,7 @@
       </c>
       <c r="E161" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="E162" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="E165" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10344,7 +10344,7 @@
       </c>
       <c r="E166" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       </c>
       <c r="E168" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="E170" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10469,7 +10469,7 @@
       </c>
       <c r="E171" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="E172" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="E173" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10544,7 +10544,7 @@
       </c>
       <c r="E174" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="E175" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10594,7 +10594,7 @@
       </c>
       <c r="E176" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="E177" s="19" t="inlineStr">
         <is>
-          <t>4 890 ₽</t>
+          <t>4 895 ₽</t>
         </is>
       </c>
     </row>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="E178" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10669,7 +10669,7 @@
       </c>
       <c r="E179" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10694,7 +10694,7 @@
       </c>
       <c r="E180" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -10719,7 +10719,7 @@
       </c>
       <c r="E181" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -14192,7 +14192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -14261,7 +14261,7 @@
       </c>
       <c r="E2" s="19" t="inlineStr">
         <is>
-          <t>10 990 р.</t>
+          <t>8 990 р.</t>
         </is>
       </c>
     </row>
@@ -14288,7 +14288,7 @@
       </c>
       <c r="E3" s="19" t="inlineStr">
         <is>
-          <t>5 142 р.</t>
+          <t>5 590 р.</t>
         </is>
       </c>
     </row>
@@ -14315,7 +14315,7 @@
       </c>
       <c r="E4" s="19" t="inlineStr">
         <is>
-          <t>11 990 р.</t>
+          <t>12 990 р.</t>
         </is>
       </c>
     </row>
@@ -14369,7 +14369,7 @@
       </c>
       <c r="E6" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -14391,12 +14391,12 @@
       </c>
       <c r="D7" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E7" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>14 990 р.</t>
         </is>
       </c>
     </row>
@@ -14423,7 +14423,7 @@
       </c>
       <c r="E8" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -14450,7 +14450,7 @@
       </c>
       <c r="E9" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -14477,7 +14477,7 @@
       </c>
       <c r="E10" s="19" t="inlineStr">
         <is>
-          <t>6 446 р.</t>
+          <t>6 533 р.</t>
         </is>
       </c>
     </row>
@@ -14585,7 +14585,7 @@
       </c>
       <c r="E14" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -14612,7 +14612,7 @@
       </c>
       <c r="E15" s="19" t="inlineStr">
         <is>
-          <t>9 896 р.</t>
+          <t>10 652 р.</t>
         </is>
       </c>
     </row>
@@ -14639,7 +14639,7 @@
       </c>
       <c r="E16" s="19" t="inlineStr">
         <is>
-          <t>9 490 р.</t>
+          <t>8 990 р.</t>
         </is>
       </c>
     </row>
@@ -14666,7 +14666,7 @@
       </c>
       <c r="E17" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -14693,7 +14693,7 @@
       </c>
       <c r="E18" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -14720,7 +14720,7 @@
       </c>
       <c r="E19" s="19" t="inlineStr">
         <is>
-          <t>2 990 р.</t>
+          <t>2 763 р.</t>
         </is>
       </c>
     </row>
@@ -14769,12 +14769,12 @@
       </c>
       <c r="D21" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E21" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3 990 р.</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="E22" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -14882,7 +14882,7 @@
       </c>
       <c r="E25" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -14909,7 +14909,7 @@
       </c>
       <c r="E26" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -14963,7 +14963,7 @@
       </c>
       <c r="E28" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -14990,7 +14990,7 @@
       </c>
       <c r="E29" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="E30" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15044,7 +15044,7 @@
       </c>
       <c r="E31" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15071,7 +15071,7 @@
       </c>
       <c r="E32" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15125,7 +15125,7 @@
       </c>
       <c r="E34" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15152,7 +15152,7 @@
       </c>
       <c r="E35" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15206,7 +15206,7 @@
       </c>
       <c r="E37" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15228,12 +15228,12 @@
       </c>
       <c r="D38" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E38" s="19" t="inlineStr">
         <is>
-          <t>3 272 р.</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15260,7 +15260,7 @@
       </c>
       <c r="E39" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="E41" s="19" t="inlineStr">
         <is>
-          <t>4 990 р.</t>
+          <t>4 092 р.</t>
         </is>
       </c>
     </row>
@@ -15341,7 +15341,7 @@
       </c>
       <c r="E42" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15368,7 +15368,7 @@
       </c>
       <c r="E43" s="19" t="inlineStr">
         <is>
-          <t>5 990 р.</t>
+          <t>6 490 р.</t>
         </is>
       </c>
     </row>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="E44" s="19" t="inlineStr">
         <is>
-          <t>4 490 р.</t>
+          <t>4 248 р.</t>
         </is>
       </c>
     </row>
@@ -15422,7 +15422,7 @@
       </c>
       <c r="E45" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15444,12 +15444,12 @@
       </c>
       <c r="D46" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E46" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3 990 р.</t>
         </is>
       </c>
     </row>
@@ -15476,7 +15476,7 @@
       </c>
       <c r="E47" s="19" t="inlineStr">
         <is>
-          <t>4 990 р.</t>
+          <t>4 499 р.</t>
         </is>
       </c>
     </row>
@@ -15498,12 +15498,12 @@
       </c>
       <c r="D48" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E48" s="19" t="inlineStr">
         <is>
-          <t>2 490 р.</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15530,7 +15530,7 @@
       </c>
       <c r="E49" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15557,7 +15557,7 @@
       </c>
       <c r="E50" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15584,7 +15584,7 @@
       </c>
       <c r="E51" s="19" t="inlineStr">
         <is>
-          <t>12 836 р.</t>
+          <t>12 905 р.</t>
         </is>
       </c>
     </row>
@@ -15611,7 +15611,7 @@
       </c>
       <c r="E52" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15638,7 +15638,7 @@
       </c>
       <c r="E53" s="19" t="inlineStr">
         <is>
-          <t>6 490 р.</t>
+          <t>5 322 р.</t>
         </is>
       </c>
     </row>
@@ -15665,7 +15665,7 @@
       </c>
       <c r="E54" s="19" t="inlineStr">
         <is>
-          <t>3 934 р.</t>
+          <t>4 092 р.</t>
         </is>
       </c>
     </row>
@@ -15692,7 +15692,7 @@
       </c>
       <c r="E55" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="E56" s="19" t="inlineStr">
         <is>
-          <t>15 389 р.</t>
+          <t>15 990 р.</t>
         </is>
       </c>
     </row>
@@ -15746,7 +15746,7 @@
       </c>
       <c r="E57" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15773,7 +15773,7 @@
       </c>
       <c r="E58" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15827,7 +15827,7 @@
       </c>
       <c r="E60" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15854,7 +15854,7 @@
       </c>
       <c r="E61" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15881,7 +15881,7 @@
       </c>
       <c r="E62" s="19" t="inlineStr">
         <is>
-          <t>2 790 р.</t>
+          <t>3 290 р.</t>
         </is>
       </c>
     </row>
@@ -15908,7 +15908,7 @@
       </c>
       <c r="E63" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15935,7 +15935,7 @@
       </c>
       <c r="E64" s="19" t="inlineStr">
         <is>
-          <t>5 990 р.</t>
+          <t>6 490 р.</t>
         </is>
       </c>
     </row>
@@ -15962,7 +15962,7 @@
       </c>
       <c r="E65" s="19" t="inlineStr">
         <is>
-          <t>2 990 р.</t>
+          <t>2 590 р.</t>
         </is>
       </c>
     </row>
@@ -16043,7 +16043,7 @@
       </c>
       <c r="E68" s="19" t="inlineStr">
         <is>
-          <t>10 492 р.</t>
+          <t>11 472 р.</t>
         </is>
       </c>
     </row>
@@ -16070,7 +16070,7 @@
       </c>
       <c r="E69" s="19" t="inlineStr">
         <is>
-          <t>8 990 р.</t>
+          <t>7 372 р.</t>
         </is>
       </c>
     </row>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="E70" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16124,7 +16124,7 @@
       </c>
       <c r="E71" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16151,7 +16151,7 @@
       </c>
       <c r="E72" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16205,7 +16205,7 @@
       </c>
       <c r="E74" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16232,7 +16232,7 @@
       </c>
       <c r="E75" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16259,7 +16259,7 @@
       </c>
       <c r="E76" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16286,7 +16286,7 @@
       </c>
       <c r="E77" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16313,7 +16313,7 @@
       </c>
       <c r="E78" s="19" t="inlineStr">
         <is>
-          <t>4 502 р.</t>
+          <t>3 990 р.</t>
         </is>
       </c>
     </row>
@@ -16340,7 +16340,7 @@
       </c>
       <c r="E79" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16367,7 +16367,7 @@
       </c>
       <c r="E80" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16394,7 +16394,7 @@
       </c>
       <c r="E81" s="19" t="inlineStr">
         <is>
-          <t>3 590 р.</t>
+          <t>3 990 р.</t>
         </is>
       </c>
     </row>
@@ -16448,7 +16448,7 @@
       </c>
       <c r="E83" s="19" t="inlineStr">
         <is>
-          <t>15 412 р.</t>
+          <t>17 990 р.</t>
         </is>
       </c>
     </row>
@@ -16475,7 +16475,7 @@
       </c>
       <c r="E84" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16502,7 +16502,7 @@
       </c>
       <c r="E85" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16556,7 +16556,7 @@
       </c>
       <c r="E87" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16583,7 +16583,7 @@
       </c>
       <c r="E88" s="19" t="inlineStr">
         <is>
-          <t>3 099 р.</t>
+          <t>2 695 р.</t>
         </is>
       </c>
     </row>
@@ -16610,7 +16610,7 @@
       </c>
       <c r="E89" s="19" t="inlineStr">
         <is>
-          <t>7 990 р.</t>
+          <t>7 490 р.</t>
         </is>
       </c>
     </row>
@@ -16664,7 +16664,7 @@
       </c>
       <c r="E91" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16691,7 +16691,7 @@
       </c>
       <c r="E92" s="19" t="inlineStr">
         <is>
-          <t>2 698 р.</t>
+          <t>2 690 р.</t>
         </is>
       </c>
     </row>
@@ -16718,7 +16718,7 @@
       </c>
       <c r="E93" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16745,7 +16745,7 @@
       </c>
       <c r="E94" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16772,7 +16772,7 @@
       </c>
       <c r="E95" s="19" t="inlineStr">
         <is>
-          <t>8 089 р.</t>
+          <t>8 192 р.</t>
         </is>
       </c>
     </row>
@@ -16826,7 +16826,7 @@
       </c>
       <c r="E97" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16853,7 +16853,7 @@
       </c>
       <c r="E98" s="19" t="inlineStr">
         <is>
-          <t>1 290 р.</t>
+          <t>1 590 р.</t>
         </is>
       </c>
     </row>
@@ -16875,12 +16875,12 @@
       </c>
       <c r="D99" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E99" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>7 990 р.</t>
         </is>
       </c>
     </row>
@@ -16934,7 +16934,7 @@
       </c>
       <c r="E101" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16961,7 +16961,7 @@
       </c>
       <c r="E102" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16988,7 +16988,7 @@
       </c>
       <c r="E103" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17015,7 +17015,7 @@
       </c>
       <c r="E104" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17042,7 +17042,7 @@
       </c>
       <c r="E105" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17069,7 +17069,7 @@
       </c>
       <c r="E106" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17096,7 +17096,7 @@
       </c>
       <c r="E107" s="19" t="inlineStr">
         <is>
-          <t>2 490 р.</t>
+          <t>2 590 р.</t>
         </is>
       </c>
     </row>
@@ -17150,7 +17150,7 @@
       </c>
       <c r="E109" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="E111" s="19" t="inlineStr">
         <is>
-          <t>9 010 р.</t>
+          <t>11 735 р.</t>
         </is>
       </c>
     </row>
@@ -17258,7 +17258,7 @@
       </c>
       <c r="E113" s="19" t="inlineStr">
         <is>
-          <t>14 340 р.</t>
+          <t>14 752 р.</t>
         </is>
       </c>
     </row>
@@ -17285,7 +17285,7 @@
       </c>
       <c r="E114" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17312,7 +17312,7 @@
       </c>
       <c r="E115" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17339,7 +17339,7 @@
       </c>
       <c r="E116" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17366,7 +17366,7 @@
       </c>
       <c r="E117" s="19" t="inlineStr">
         <is>
-          <t>2 860 р.</t>
+          <t>2 862 р.</t>
         </is>
       </c>
     </row>
@@ -17420,7 +17420,7 @@
       </c>
       <c r="E119" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17442,12 +17442,12 @@
       </c>
       <c r="D120" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E120" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>29 990 р.</t>
         </is>
       </c>
     </row>
@@ -17474,7 +17474,7 @@
       </c>
       <c r="E121" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17528,7 +17528,7 @@
       </c>
       <c r="E123" s="19" t="inlineStr">
         <is>
-          <t>40 911 р.</t>
+          <t>42 990 р.</t>
         </is>
       </c>
     </row>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="E124" s="19" t="inlineStr">
         <is>
-          <t>19 990 р.</t>
+          <t>16 392 р.</t>
         </is>
       </c>
     </row>
@@ -17582,7 +17582,7 @@
       </c>
       <c r="E125" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17636,7 +17636,7 @@
       </c>
       <c r="E127" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17663,7 +17663,7 @@
       </c>
       <c r="E128" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17717,7 +17717,7 @@
       </c>
       <c r="E130" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17744,7 +17744,7 @@
       </c>
       <c r="E131" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17771,7 +17771,7 @@
       </c>
       <c r="E132" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17798,7 +17798,7 @@
       </c>
       <c r="E133" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17825,7 +17825,7 @@
       </c>
       <c r="E134" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17852,7 +17852,7 @@
       </c>
       <c r="E135" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17906,7 +17906,7 @@
       </c>
       <c r="E137" s="19" t="inlineStr">
         <is>
-          <t>4 092 р.</t>
+          <t>4 990 р.</t>
         </is>
       </c>
     </row>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="E138" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17960,7 +17960,7 @@
       </c>
       <c r="E139" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18014,7 +18014,7 @@
       </c>
       <c r="E141" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18068,7 +18068,7 @@
       </c>
       <c r="E143" s="19" t="inlineStr">
         <is>
-          <t>2 390 р.</t>
+          <t>3 290 р.</t>
         </is>
       </c>
     </row>
@@ -18095,7 +18095,7 @@
       </c>
       <c r="E144" s="19" t="inlineStr">
         <is>
-          <t>2 490 р.</t>
+          <t>1 890 р.</t>
         </is>
       </c>
     </row>
@@ -18122,7 +18122,7 @@
       </c>
       <c r="E145" s="19" t="inlineStr">
         <is>
-          <t>5 990 р.</t>
+          <t>4 912 р.</t>
         </is>
       </c>
     </row>
@@ -18144,12 +18144,12 @@
       </c>
       <c r="D146" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E146" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3 290 р.</t>
         </is>
       </c>
     </row>
@@ -18176,7 +18176,7 @@
       </c>
       <c r="E147" s="19" t="inlineStr">
         <is>
-          <t>3 490 р.</t>
+          <t>2 862 р.</t>
         </is>
       </c>
     </row>
@@ -18198,12 +18198,12 @@
       </c>
       <c r="D148" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E148" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3 600 р.</t>
         </is>
       </c>
     </row>
@@ -18225,12 +18225,12 @@
       </c>
       <c r="D149" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E149" s="19" t="inlineStr">
         <is>
-          <t>2 990 р.</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18257,7 +18257,7 @@
       </c>
       <c r="E150" s="19" t="inlineStr">
         <is>
-          <t>31 491 р.</t>
+          <t>32 990 р.</t>
         </is>
       </c>
     </row>
@@ -18284,7 +18284,7 @@
       </c>
       <c r="E151" s="19" t="inlineStr">
         <is>
-          <t>5 771 р.</t>
+          <t>6 100 р.</t>
         </is>
       </c>
     </row>
@@ -18311,7 +18311,7 @@
       </c>
       <c r="E152" s="19" t="inlineStr">
         <is>
-          <t>7 760 р.</t>
+          <t>8 800 р.</t>
         </is>
       </c>
     </row>
@@ -18338,7 +18338,7 @@
       </c>
       <c r="E153" s="19" t="inlineStr">
         <is>
-          <t>8 090 р.</t>
+          <t>8 654 р.</t>
         </is>
       </c>
     </row>
@@ -18392,7 +18392,7 @@
       </c>
       <c r="E155" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18419,7 +18419,7 @@
       </c>
       <c r="E156" s="19" t="inlineStr">
         <is>
-          <t>2 990 р.</t>
+          <t>2 452 р.</t>
         </is>
       </c>
     </row>
@@ -18446,7 +18446,7 @@
       </c>
       <c r="E157" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18473,7 +18473,7 @@
       </c>
       <c r="E158" s="19" t="inlineStr">
         <is>
-          <t>1 290 р.</t>
+          <t>1 390 р.</t>
         </is>
       </c>
     </row>
@@ -18500,7 +18500,7 @@
       </c>
       <c r="E159" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18554,7 +18554,7 @@
       </c>
       <c r="E161" s="19" t="inlineStr">
         <is>
-          <t>5 990 р.</t>
+          <t>4 990 р.</t>
         </is>
       </c>
     </row>
@@ -18635,7 +18635,7 @@
       </c>
       <c r="E164" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18662,7 +18662,7 @@
       </c>
       <c r="E165" s="19" t="inlineStr">
         <is>
-          <t>1 490 р.</t>
+          <t>1 690 р.</t>
         </is>
       </c>
     </row>
@@ -18689,7 +18689,7 @@
       </c>
       <c r="E166" s="19" t="inlineStr">
         <is>
-          <t>2 990 р.</t>
+          <t>3 290 р.</t>
         </is>
       </c>
     </row>
@@ -18711,12 +18711,12 @@
       </c>
       <c r="D167" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E167" s="19" t="inlineStr">
         <is>
-          <t>10 990 р.</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18743,7 +18743,7 @@
       </c>
       <c r="E168" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18797,7 +18797,7 @@
       </c>
       <c r="E170" s="19" t="inlineStr">
         <is>
-          <t>18 921 р.</t>
+          <t>19 990 р.</t>
         </is>
       </c>
     </row>
@@ -18824,7 +18824,7 @@
       </c>
       <c r="E171" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18851,7 +18851,7 @@
       </c>
       <c r="E172" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18878,7 +18878,7 @@
       </c>
       <c r="E173" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18905,7 +18905,7 @@
       </c>
       <c r="E174" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18932,7 +18932,7 @@
       </c>
       <c r="E175" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18959,7 +18959,7 @@
       </c>
       <c r="E176" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="E177" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19013,7 +19013,7 @@
       </c>
       <c r="E178" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19040,7 +19040,7 @@
       </c>
       <c r="E179" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19067,7 +19067,7 @@
       </c>
       <c r="E180" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19094,7 +19094,7 @@
       </c>
       <c r="E181" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19109,17 +19109,17 @@
     <cfRule type="duplicateValues" rank="0" priority="4" equalAverage="0" aboveAverage="0" dxfId="0" text="" percent="0" bottom="0"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=2948156" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=5159347" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C13" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=5159497" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C42" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=5159677" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C43" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=4732194" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C50" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=4729608" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C108" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=3001346" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C114" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=3212480" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C126" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=6864553" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C151" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=2906504" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C167" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=6966955" r:id="rId11"/>
+    <hyperlink ref="C2" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=2948156" r:id="rId1"/>
+    <hyperlink ref="C4" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=5159347" r:id="rId2"/>
+    <hyperlink ref="C13" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=5159497" r:id="rId3"/>
+    <hyperlink ref="C42" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=5159677" r:id="rId4"/>
+    <hyperlink ref="C43" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=4732194" r:id="rId5"/>
+    <hyperlink ref="C50" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=4729608" r:id="rId6"/>
+    <hyperlink ref="C108" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=3001346" r:id="rId7"/>
+    <hyperlink ref="C114" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=3212480" r:id="rId8"/>
+    <hyperlink ref="C126" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=6864553" r:id="rId9"/>
+    <hyperlink ref="C151" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=2906504" r:id="rId10"/>
+    <hyperlink ref="C167" display="https://www.vseinstrumenti.ru/view_goods_by_id_redirect.php?id=6966955" r:id="rId11"/>
   </hyperlinks>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="E2" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 878 ₽ </t>
+          <t>11 990 ₽</t>
         </is>
       </c>
     </row>
@@ -19220,7 +19220,7 @@
       </c>
       <c r="E3" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 103 ₽ </t>
+          <t>5 590 ₽</t>
         </is>
       </c>
     </row>
@@ -19245,7 +19245,7 @@
       </c>
       <c r="E4" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 951 ₽ </t>
+          <t>12 990 ₽</t>
         </is>
       </c>
     </row>
@@ -19270,7 +19270,7 @@
       </c>
       <c r="E5" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 290 ₽ </t>
+          <t>1 390 ₽</t>
         </is>
       </c>
     </row>
@@ -19295,7 +19295,7 @@
       </c>
       <c r="E6" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19320,7 +19320,7 @@
       </c>
       <c r="E7" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19340,12 +19340,12 @@
       </c>
       <c r="D8" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E8" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 338 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19365,12 +19365,12 @@
       </c>
       <c r="D9" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E9" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">36 128 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19390,12 +19390,12 @@
       </c>
       <c r="D10" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E10" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 325 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19415,12 +19415,12 @@
       </c>
       <c r="D11" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E11" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 286 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19440,12 +19440,12 @@
       </c>
       <c r="D12" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E12" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 699 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19465,12 +19465,12 @@
       </c>
       <c r="D13" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E13" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19495,7 +19495,7 @@
       </c>
       <c r="E14" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19515,12 +19515,12 @@
       </c>
       <c r="D15" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E15" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 896 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19545,7 +19545,7 @@
       </c>
       <c r="E16" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19565,12 +19565,12 @@
       </c>
       <c r="D17" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E17" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 921 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19595,7 +19595,7 @@
       </c>
       <c r="E18" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19615,12 +19615,12 @@
       </c>
       <c r="D19" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E19" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 751 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19640,12 +19640,12 @@
       </c>
       <c r="D20" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E20" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 199 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19665,12 +19665,12 @@
       </c>
       <c r="D21" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E21" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 496 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19695,7 +19695,7 @@
       </c>
       <c r="E22" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19715,12 +19715,12 @@
       </c>
       <c r="D23" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E23" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 102 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19745,7 +19745,7 @@
       </c>
       <c r="E24" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19765,12 +19765,12 @@
       </c>
       <c r="D25" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E25" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 851 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19790,12 +19790,12 @@
       </c>
       <c r="D26" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E26" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 490 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19815,12 +19815,12 @@
       </c>
       <c r="D27" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E27" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 028 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19845,7 +19845,7 @@
       </c>
       <c r="E28" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19865,12 +19865,12 @@
       </c>
       <c r="D29" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E29" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 989 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19895,7 +19895,7 @@
       </c>
       <c r="E30" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19920,7 +19920,7 @@
       </c>
       <c r="E31" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19945,7 +19945,7 @@
       </c>
       <c r="E32" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19965,12 +19965,12 @@
       </c>
       <c r="D33" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E33" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -19990,12 +19990,12 @@
       </c>
       <c r="D34" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E34" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 757 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20015,12 +20015,12 @@
       </c>
       <c r="D35" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E35" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20040,12 +20040,12 @@
       </c>
       <c r="D36" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E36" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20070,7 +20070,7 @@
       </c>
       <c r="E37" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20090,12 +20090,12 @@
       </c>
       <c r="D38" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E38" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 675 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20115,12 +20115,12 @@
       </c>
       <c r="D39" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E39" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 584 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20145,7 +20145,7 @@
       </c>
       <c r="E40" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20165,12 +20165,12 @@
       </c>
       <c r="D41" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E41" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 111 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="E42" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20215,12 +20215,12 @@
       </c>
       <c r="D43" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E43" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20240,12 +20240,12 @@
       </c>
       <c r="D44" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E44" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 130 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20270,7 +20270,7 @@
       </c>
       <c r="E45" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20295,7 +20295,7 @@
       </c>
       <c r="E46" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20315,12 +20315,12 @@
       </c>
       <c r="D47" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E47" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 111 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20340,12 +20340,12 @@
       </c>
       <c r="D48" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E48" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 290 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20370,7 +20370,7 @@
       </c>
       <c r="E49" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="E50" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20415,12 +20415,12 @@
       </c>
       <c r="D51" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E51" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">21 004 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20445,7 +20445,7 @@
       </c>
       <c r="E52" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20465,12 +20465,12 @@
       </c>
       <c r="D53" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E53" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 256 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20490,12 +20490,12 @@
       </c>
       <c r="D54" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E54" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 934 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20515,12 +20515,12 @@
       </c>
       <c r="D55" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E55" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 347 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20540,12 +20540,12 @@
       </c>
       <c r="D56" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E56" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">15 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20570,7 +20570,7 @@
       </c>
       <c r="E57" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="E58" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20615,12 +20615,12 @@
       </c>
       <c r="D59" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E59" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 981 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20645,7 +20645,7 @@
       </c>
       <c r="E60" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20665,12 +20665,12 @@
       </c>
       <c r="D61" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E61" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 191 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20690,12 +20690,12 @@
       </c>
       <c r="D62" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E62" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 691 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20715,12 +20715,12 @@
       </c>
       <c r="D63" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E63" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 490 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="E64" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20765,12 +20765,12 @@
       </c>
       <c r="D65" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E65" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 493 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20790,12 +20790,12 @@
       </c>
       <c r="D66" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E66" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 200 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20815,12 +20815,12 @@
       </c>
       <c r="D67" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E67" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20840,12 +20840,12 @@
       </c>
       <c r="D68" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E68" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 492 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20865,12 +20865,12 @@
       </c>
       <c r="D69" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E69" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 648 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20890,12 +20890,12 @@
       </c>
       <c r="D70" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E70" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 477 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20920,7 +20920,7 @@
       </c>
       <c r="E71" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20945,7 +20945,7 @@
       </c>
       <c r="E72" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20965,12 +20965,12 @@
       </c>
       <c r="D73" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E73" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 836 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20995,7 +20995,7 @@
       </c>
       <c r="E74" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21015,12 +21015,12 @@
       </c>
       <c r="D75" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E75" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 716 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21045,7 +21045,7 @@
       </c>
       <c r="E76" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21065,12 +21065,12 @@
       </c>
       <c r="D77" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E77" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 147 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21090,12 +21090,12 @@
       </c>
       <c r="D78" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E78" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 490 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21120,7 +21120,7 @@
       </c>
       <c r="E79" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="D80" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E80" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 406 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21165,12 +21165,12 @@
       </c>
       <c r="D81" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E81" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 165 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21190,12 +21190,12 @@
       </c>
       <c r="D82" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E82" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 465 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21215,12 +21215,12 @@
       </c>
       <c r="D83" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E83" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">15 243 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21245,7 +21245,7 @@
       </c>
       <c r="E84" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21265,12 +21265,12 @@
       </c>
       <c r="D85" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E85" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 191 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21290,12 +21290,12 @@
       </c>
       <c r="D86" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E86" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 890 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21320,7 +21320,7 @@
       </c>
       <c r="E87" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21340,12 +21340,12 @@
       </c>
       <c r="D88" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E88" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 765 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21370,7 +21370,7 @@
       </c>
       <c r="E89" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="E90" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21420,7 +21420,7 @@
       </c>
       <c r="E91" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21440,12 +21440,12 @@
       </c>
       <c r="D92" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E92" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 290 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21465,12 +21465,12 @@
       </c>
       <c r="D93" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E93" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 282 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21490,12 +21490,12 @@
       </c>
       <c r="D94" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E94" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21515,12 +21515,12 @@
       </c>
       <c r="D95" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E95" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 090 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21545,7 +21545,7 @@
       </c>
       <c r="E96" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21565,12 +21565,12 @@
       </c>
       <c r="D97" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E97" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 777 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21595,7 +21595,7 @@
       </c>
       <c r="E98" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21620,7 +21620,7 @@
       </c>
       <c r="E99" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21640,12 +21640,12 @@
       </c>
       <c r="D100" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E100" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 192 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21670,7 +21670,7 @@
       </c>
       <c r="E101" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21695,7 +21695,7 @@
       </c>
       <c r="E102" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21720,7 +21720,7 @@
       </c>
       <c r="E103" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21745,7 +21745,7 @@
       </c>
       <c r="E104" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21770,7 +21770,7 @@
       </c>
       <c r="E105" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="E106" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21820,7 +21820,7 @@
       </c>
       <c r="E107" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21840,12 +21840,12 @@
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E108" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">14 645 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21865,12 +21865,12 @@
       </c>
       <c r="D109" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E109" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 671 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21890,12 +21890,12 @@
       </c>
       <c r="D110" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E110" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 885 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21915,12 +21915,12 @@
       </c>
       <c r="D111" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E111" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 671 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21940,12 +21940,12 @@
       </c>
       <c r="D112" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E112" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 364 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21965,12 +21965,12 @@
       </c>
       <c r="D113" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E113" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">14 388 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -21995,7 +21995,7 @@
       </c>
       <c r="E114" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="E115" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22045,7 +22045,7 @@
       </c>
       <c r="E116" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22065,12 +22065,12 @@
       </c>
       <c r="D117" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E117" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22090,12 +22090,12 @@
       </c>
       <c r="D118" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E118" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 820 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22115,12 +22115,12 @@
       </c>
       <c r="D119" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E119" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 374 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22145,7 +22145,7 @@
       </c>
       <c r="E120" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="E121" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22190,12 +22190,12 @@
       </c>
       <c r="D122" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E122" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 281 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22220,7 +22220,7 @@
       </c>
       <c r="E123" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22245,7 +22245,7 @@
       </c>
       <c r="E124" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22270,7 +22270,7 @@
       </c>
       <c r="E125" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       </c>
       <c r="E126" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22320,7 +22320,7 @@
       </c>
       <c r="E127" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22345,7 +22345,7 @@
       </c>
       <c r="E128" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22365,12 +22365,12 @@
       </c>
       <c r="D129" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E129" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 490 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22395,7 +22395,7 @@
       </c>
       <c r="E130" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22420,7 +22420,7 @@
       </c>
       <c r="E131" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22445,7 +22445,7 @@
       </c>
       <c r="E132" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22465,12 +22465,12 @@
       </c>
       <c r="D133" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E133" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">36 157 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22495,7 +22495,7 @@
       </c>
       <c r="E134" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22520,7 +22520,7 @@
       </c>
       <c r="E135" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22540,12 +22540,12 @@
       </c>
       <c r="D136" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E136" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 465 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22570,7 +22570,7 @@
       </c>
       <c r="E137" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="E138" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22620,7 +22620,7 @@
       </c>
       <c r="E139" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22645,7 +22645,7 @@
       </c>
       <c r="E140" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22665,12 +22665,12 @@
       </c>
       <c r="D141" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E141" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 576 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22690,12 +22690,12 @@
       </c>
       <c r="D142" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E142" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">13 792 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22720,7 +22720,7 @@
       </c>
       <c r="E143" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22740,12 +22740,12 @@
       </c>
       <c r="D144" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E144" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 490 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22765,12 +22765,12 @@
       </c>
       <c r="D145" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E145" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22795,7 +22795,7 @@
       </c>
       <c r="E146" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22820,7 +22820,7 @@
       </c>
       <c r="E147" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22840,12 +22840,12 @@
       </c>
       <c r="D148" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E148" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 411 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22865,12 +22865,12 @@
       </c>
       <c r="D149" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E149" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 921 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22895,7 +22895,7 @@
       </c>
       <c r="E150" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22915,12 +22915,12 @@
       </c>
       <c r="D151" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E151" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22940,12 +22940,12 @@
       </c>
       <c r="D152" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E152" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 990 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22970,7 +22970,7 @@
       </c>
       <c r="E153" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -22990,12 +22990,12 @@
       </c>
       <c r="D154" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E154" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 897 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23020,7 +23020,7 @@
       </c>
       <c r="E155" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23040,12 +23040,12 @@
       </c>
       <c r="D156" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E156" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 199 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23065,12 +23065,12 @@
       </c>
       <c r="D157" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E157" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 738 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23095,7 +23095,7 @@
       </c>
       <c r="E158" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23115,12 +23115,12 @@
       </c>
       <c r="D159" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E159" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 790 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23140,12 +23140,12 @@
       </c>
       <c r="D160" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E160" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 211 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23165,12 +23165,12 @@
       </c>
       <c r="D161" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E161" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 851 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23195,7 +23195,7 @@
       </c>
       <c r="E162" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23215,12 +23215,12 @@
       </c>
       <c r="D163" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E163" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 290 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23245,7 +23245,7 @@
       </c>
       <c r="E164" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23270,7 +23270,7 @@
       </c>
       <c r="E165" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23295,7 +23295,7 @@
       </c>
       <c r="E166" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23320,7 +23320,7 @@
       </c>
       <c r="E167" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23345,7 +23345,7 @@
       </c>
       <c r="E168" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23370,7 +23370,7 @@
       </c>
       <c r="E169" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23390,12 +23390,12 @@
       </c>
       <c r="D170" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E170" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 393 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23420,7 +23420,7 @@
       </c>
       <c r="E171" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23445,7 +23445,7 @@
       </c>
       <c r="E172" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23470,7 +23470,7 @@
       </c>
       <c r="E173" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23490,12 +23490,12 @@
       </c>
       <c r="D174" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E174" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 801 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23515,12 +23515,12 @@
       </c>
       <c r="D175" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E175" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 899 ₽ </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="E176" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23570,7 +23570,7 @@
       </c>
       <c r="E177" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23595,7 +23595,7 @@
       </c>
       <c r="E178" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23620,7 +23620,7 @@
       </c>
       <c r="E179" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23645,7 +23645,7 @@
       </c>
       <c r="E180" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23670,7 +23670,7 @@
       </c>
       <c r="E181" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>

--- a/attachments/pars_result.xlsx
+++ b/attachments/pars_result.xlsx
@@ -1013,7 +1013,7 @@
       </c>
       <c r="F15" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>12 990 ₽</t>
         </is>
       </c>
       <c r="G15" s="19" t="n"/>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="F17" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 590 ₽</t>
         </is>
       </c>
       <c r="G17" s="19" t="n"/>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="F23" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>7 390 ₽</t>
         </is>
       </c>
       <c r="G23" s="19" t="n"/>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="F25" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 990 ₽</t>
         </is>
       </c>
       <c r="G25" s="19" t="n"/>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F27" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>9 490 ₽</t>
         </is>
       </c>
       <c r="G27" s="19" t="n"/>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="F33" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>9 990 ₽</t>
         </is>
       </c>
       <c r="G33" s="19" t="n"/>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="F34" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>1 990 ₽</t>
         </is>
       </c>
       <c r="G34" s="19" t="n"/>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="F35" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>11 714 ₽</t>
         </is>
       </c>
       <c r="G35" s="19" t="n"/>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="F36" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 190 ₽</t>
         </is>
       </c>
       <c r="G36" s="19" t="n"/>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="F38" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 524 ₽</t>
         </is>
       </c>
       <c r="G38" s="19" t="n"/>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="F41" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>4 990 ₽</t>
         </is>
       </c>
       <c r="G41" s="19" t="n"/>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F43" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 990 ₽</t>
         </is>
       </c>
       <c r="G43" s="19" t="n"/>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="F44" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>4 490 ₽</t>
         </is>
       </c>
       <c r="G44" s="19" t="n"/>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="F47" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 490 ₽</t>
         </is>
       </c>
       <c r="G47" s="19" t="n"/>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="F48" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 490 ₽</t>
         </is>
       </c>
       <c r="G48" s="19" t="n"/>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="F51" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>16 990 ₽</t>
         </is>
       </c>
       <c r="G51" s="19" t="n"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="F53" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>6 490 ₽</t>
         </is>
       </c>
       <c r="G53" s="19" t="n"/>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="F54" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>4 990 ₽</t>
         </is>
       </c>
       <c r="G54" s="19" t="n"/>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="F55" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>1 380 ₽</t>
         </is>
       </c>
       <c r="G55" s="19" t="n"/>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="F59" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>7 641 ₽</t>
         </is>
       </c>
       <c r="G59" s="19" t="n"/>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="F61" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8 490 ₽</t>
         </is>
       </c>
       <c r="G61" s="19" t="n"/>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="F65" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 541 ₽</t>
         </is>
       </c>
       <c r="G65" s="19" t="n"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="F66" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 318 ₽</t>
         </is>
       </c>
       <c r="G66" s="19" t="n"/>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="F67" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10 990 ₽</t>
         </is>
       </c>
       <c r="G67" s="19" t="n"/>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="F68" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>12 533 ₽</t>
         </is>
       </c>
       <c r="G68" s="19" t="n"/>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="F69" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>9 990 ₽</t>
         </is>
       </c>
       <c r="G69" s="19" t="n"/>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="F78" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>4 849 ₽</t>
         </is>
       </c>
       <c r="G78" s="19" t="n"/>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="F80" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 590 ₽</t>
         </is>
       </c>
       <c r="G80" s="19" t="n"/>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="F81" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 990 ₽</t>
         </is>
       </c>
       <c r="G81" s="19" t="n"/>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="F82" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 990 ₽</t>
         </is>
       </c>
       <c r="G82" s="19" t="n"/>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="F83" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>17 990 ₽</t>
         </is>
       </c>
       <c r="G83" s="19" t="n"/>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="F85" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8 490 ₽</t>
         </is>
       </c>
       <c r="G85" s="19" t="n"/>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="F88" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 490 ₽</t>
         </is>
       </c>
       <c r="G88" s="19" t="n"/>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="F92" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 212 ₽</t>
         </is>
       </c>
       <c r="G92" s="19" t="n"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="F94" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10 990 ₽</t>
         </is>
       </c>
       <c r="G94" s="19" t="n"/>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F95" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>9 240 ₽</t>
         </is>
       </c>
       <c r="G95" s="19" t="n"/>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="F100" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 990 ₽</t>
         </is>
       </c>
       <c r="G100" s="19" t="n"/>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="F108" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>11 990 ₽</t>
         </is>
       </c>
       <c r="G108" s="19" t="n"/>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="F109" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 990 ₽</t>
         </is>
       </c>
       <c r="G109" s="19" t="n"/>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="F111" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>12 490 ₽</t>
         </is>
       </c>
       <c r="G111" s="19" t="n"/>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="F112" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>9 990 ₽</t>
         </is>
       </c>
       <c r="G112" s="19" t="n"/>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="F113" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>17 990 ₽</t>
         </is>
       </c>
       <c r="G113" s="19" t="n"/>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="F117" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 990 ₽</t>
         </is>
       </c>
       <c r="G117" s="19" t="n"/>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="F118" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14 990 ₽</t>
         </is>
       </c>
       <c r="G118" s="19" t="n"/>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="F119" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>7 990 ₽</t>
         </is>
       </c>
       <c r="G119" s="19" t="n"/>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="F122" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>29 990 ₽</t>
         </is>
       </c>
       <c r="G122" s="19" t="n"/>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="F129" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 614 ₽</t>
         </is>
       </c>
       <c r="G129" s="19" t="n"/>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="F136" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 974 ₽</t>
         </is>
       </c>
       <c r="G136" s="19" t="n"/>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="F141" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>6 990 ₽</t>
         </is>
       </c>
       <c r="G141" s="19" t="n"/>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="F144" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 490 ₽</t>
         </is>
       </c>
       <c r="G144" s="19" t="n"/>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="F145" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 990 ₽</t>
         </is>
       </c>
       <c r="G145" s="19" t="n"/>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="F148" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>4 060 ₽</t>
         </is>
       </c>
       <c r="G148" s="19" t="n"/>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="F151" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>7 990 ₽</t>
         </is>
       </c>
       <c r="G151" s="19" t="n"/>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="F152" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8 990 ₽</t>
         </is>
       </c>
       <c r="G152" s="19" t="n"/>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="F154" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14 769 ₽</t>
         </is>
       </c>
       <c r="G154" s="19" t="n"/>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="F157" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 990 ₽</t>
         </is>
       </c>
       <c r="G157" s="19" t="n"/>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="F160" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 490 ₽</t>
         </is>
       </c>
       <c r="G160" s="19" t="n"/>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="F163" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>1 218 ₽</t>
         </is>
       </c>
       <c r="G163" s="19" t="n"/>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="F174" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 990 ₽</t>
         </is>
       </c>
       <c r="G174" s="19" t="n"/>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="F175" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 590 ₽</t>
         </is>
       </c>
       <c r="G175" s="19" t="n"/>
@@ -19515,12 +19515,12 @@
       </c>
       <c r="D15" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E15" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>12 990 ₽</t>
         </is>
       </c>
     </row>
@@ -19565,12 +19565,12 @@
       </c>
       <c r="D17" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E17" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 590 ₽</t>
         </is>
       </c>
     </row>
@@ -19715,12 +19715,12 @@
       </c>
       <c r="D23" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E23" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>7 390 ₽</t>
         </is>
       </c>
     </row>
@@ -19765,12 +19765,12 @@
       </c>
       <c r="D25" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E25" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 990 ₽</t>
         </is>
       </c>
     </row>
@@ -19815,12 +19815,12 @@
       </c>
       <c r="D27" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E27" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>9 490 ₽</t>
         </is>
       </c>
     </row>
@@ -19965,12 +19965,12 @@
       </c>
       <c r="D33" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E33" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>9 990 ₽</t>
         </is>
       </c>
     </row>
@@ -19990,12 +19990,12 @@
       </c>
       <c r="D34" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E34" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>1 990 ₽</t>
         </is>
       </c>
     </row>
@@ -20015,12 +20015,12 @@
       </c>
       <c r="D35" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E35" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>11 714 ₽</t>
         </is>
       </c>
     </row>
@@ -20040,12 +20040,12 @@
       </c>
       <c r="D36" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E36" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 190 ₽</t>
         </is>
       </c>
     </row>
@@ -20090,12 +20090,12 @@
       </c>
       <c r="D38" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E38" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 524 ₽</t>
         </is>
       </c>
     </row>
@@ -20165,12 +20165,12 @@
       </c>
       <c r="D41" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E41" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>4 990 ₽</t>
         </is>
       </c>
     </row>
@@ -20215,12 +20215,12 @@
       </c>
       <c r="D43" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E43" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 990 ₽</t>
         </is>
       </c>
     </row>
@@ -20240,12 +20240,12 @@
       </c>
       <c r="D44" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E44" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>4 490 ₽</t>
         </is>
       </c>
     </row>
@@ -20315,12 +20315,12 @@
       </c>
       <c r="D47" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E47" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 490 ₽</t>
         </is>
       </c>
     </row>
@@ -20340,12 +20340,12 @@
       </c>
       <c r="D48" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E48" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 490 ₽</t>
         </is>
       </c>
     </row>
@@ -20415,12 +20415,12 @@
       </c>
       <c r="D51" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E51" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>16 990 ₽</t>
         </is>
       </c>
     </row>
@@ -20465,12 +20465,12 @@
       </c>
       <c r="D53" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E53" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>6 490 ₽</t>
         </is>
       </c>
     </row>
@@ -20490,12 +20490,12 @@
       </c>
       <c r="D54" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E54" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>4 990 ₽</t>
         </is>
       </c>
     </row>
@@ -20515,12 +20515,12 @@
       </c>
       <c r="D55" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E55" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>1 380 ₽</t>
         </is>
       </c>
     </row>
@@ -20615,12 +20615,12 @@
       </c>
       <c r="D59" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E59" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>7 641 ₽</t>
         </is>
       </c>
     </row>
@@ -20665,12 +20665,12 @@
       </c>
       <c r="D61" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E61" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8 490 ₽</t>
         </is>
       </c>
     </row>
@@ -20765,12 +20765,12 @@
       </c>
       <c r="D65" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E65" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 541 ₽</t>
         </is>
       </c>
     </row>
@@ -20790,12 +20790,12 @@
       </c>
       <c r="D66" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E66" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 318 ₽</t>
         </is>
       </c>
     </row>
@@ -20815,12 +20815,12 @@
       </c>
       <c r="D67" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E67" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10 990 ₽</t>
         </is>
       </c>
     </row>
@@ -20840,12 +20840,12 @@
       </c>
       <c r="D68" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E68" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>12 533 ₽</t>
         </is>
       </c>
     </row>
@@ -20865,12 +20865,12 @@
       </c>
       <c r="D69" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E69" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>9 990 ₽</t>
         </is>
       </c>
     </row>
@@ -21090,12 +21090,12 @@
       </c>
       <c r="D78" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E78" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>4 849 ₽</t>
         </is>
       </c>
     </row>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="D80" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E80" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 590 ₽</t>
         </is>
       </c>
     </row>
@@ -21165,12 +21165,12 @@
       </c>
       <c r="D81" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E81" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 990 ₽</t>
         </is>
       </c>
     </row>
@@ -21190,12 +21190,12 @@
       </c>
       <c r="D82" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E82" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 990 ₽</t>
         </is>
       </c>
     </row>
@@ -21215,12 +21215,12 @@
       </c>
       <c r="D83" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E83" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>17 990 ₽</t>
         </is>
       </c>
     </row>
@@ -21265,12 +21265,12 @@
       </c>
       <c r="D85" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E85" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8 490 ₽</t>
         </is>
       </c>
     </row>
@@ -21340,12 +21340,12 @@
       </c>
       <c r="D88" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E88" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 490 ₽</t>
         </is>
       </c>
     </row>
@@ -21440,12 +21440,12 @@
       </c>
       <c r="D92" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E92" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 212 ₽</t>
         </is>
       </c>
     </row>
@@ -21490,12 +21490,12 @@
       </c>
       <c r="D94" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E94" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10 990 ₽</t>
         </is>
       </c>
     </row>
@@ -21515,12 +21515,12 @@
       </c>
       <c r="D95" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E95" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>9 240 ₽</t>
         </is>
       </c>
     </row>
@@ -21640,12 +21640,12 @@
       </c>
       <c r="D100" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E100" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 990 ₽</t>
         </is>
       </c>
     </row>
@@ -21840,12 +21840,12 @@
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E108" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>11 990 ₽</t>
         </is>
       </c>
     </row>
@@ -21865,12 +21865,12 @@
       </c>
       <c r="D109" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E109" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 990 ₽</t>
         </is>
       </c>
     </row>
@@ -21915,12 +21915,12 @@
       </c>
       <c r="D111" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E111" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>12 490 ₽</t>
         </is>
       </c>
     </row>
@@ -21940,12 +21940,12 @@
       </c>
       <c r="D112" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E112" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>9 990 ₽</t>
         </is>
       </c>
     </row>
@@ -21965,12 +21965,12 @@
       </c>
       <c r="D113" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E113" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>17 990 ₽</t>
         </is>
       </c>
     </row>
@@ -22065,12 +22065,12 @@
       </c>
       <c r="D117" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E117" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 990 ₽</t>
         </is>
       </c>
     </row>
@@ -22090,12 +22090,12 @@
       </c>
       <c r="D118" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E118" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14 990 ₽</t>
         </is>
       </c>
     </row>
@@ -22115,12 +22115,12 @@
       </c>
       <c r="D119" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E119" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>7 990 ₽</t>
         </is>
       </c>
     </row>
@@ -22190,12 +22190,12 @@
       </c>
       <c r="D122" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E122" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>29 990 ₽</t>
         </is>
       </c>
     </row>
@@ -22365,12 +22365,12 @@
       </c>
       <c r="D129" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E129" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 614 ₽</t>
         </is>
       </c>
     </row>
@@ -22540,12 +22540,12 @@
       </c>
       <c r="D136" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E136" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 974 ₽</t>
         </is>
       </c>
     </row>
@@ -22665,12 +22665,12 @@
       </c>
       <c r="D141" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E141" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>6 990 ₽</t>
         </is>
       </c>
     </row>
@@ -22740,12 +22740,12 @@
       </c>
       <c r="D144" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E144" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 490 ₽</t>
         </is>
       </c>
     </row>
@@ -22765,12 +22765,12 @@
       </c>
       <c r="D145" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E145" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 990 ₽</t>
         </is>
       </c>
     </row>
@@ -22840,12 +22840,12 @@
       </c>
       <c r="D148" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E148" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>4 060 ₽</t>
         </is>
       </c>
     </row>
@@ -22915,12 +22915,12 @@
       </c>
       <c r="D151" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E151" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>7 990 ₽</t>
         </is>
       </c>
     </row>
@@ -22940,12 +22940,12 @@
       </c>
       <c r="D152" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E152" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8 990 ₽</t>
         </is>
       </c>
     </row>
@@ -22990,12 +22990,12 @@
       </c>
       <c r="D154" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E154" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14 769 ₽</t>
         </is>
       </c>
     </row>
@@ -23065,12 +23065,12 @@
       </c>
       <c r="D157" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E157" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 990 ₽</t>
         </is>
       </c>
     </row>
@@ -23140,12 +23140,12 @@
       </c>
       <c r="D160" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E160" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 490 ₽</t>
         </is>
       </c>
     </row>
@@ -23215,12 +23215,12 @@
       </c>
       <c r="D163" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E163" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>1 218 ₽</t>
         </is>
       </c>
     </row>
@@ -23490,12 +23490,12 @@
       </c>
       <c r="D174" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E174" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 990 ₽</t>
         </is>
       </c>
     </row>
@@ -23515,12 +23515,12 @@
       </c>
       <c r="D175" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E175" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 590 ₽</t>
         </is>
       </c>
     </row>

--- a/attachments/pars_result.xlsx
+++ b/attachments/pars_result.xlsx
@@ -631,7 +631,7 @@
       <c r="D2" s="19" t="n"/>
       <c r="E2" s="19" t="inlineStr">
         <is>
-          <t>8 990 р.</t>
+          <t>11 032 р.</t>
         </is>
       </c>
       <c r="F2" s="20" t="inlineStr">
@@ -660,7 +660,7 @@
       <c r="D3" s="19" t="n"/>
       <c r="E3" s="19" t="inlineStr">
         <is>
-          <t>5 590 р.</t>
+          <t>5 074 р.</t>
         </is>
       </c>
       <c r="F3" s="20" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="F4" s="20" t="inlineStr">
         <is>
-          <t>12 990 ₽</t>
+          <t>11 791 ₽</t>
         </is>
       </c>
       <c r="G4" s="19" t="n"/>
@@ -770,7 +770,7 @@
       </c>
       <c r="C7" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14 990 ₽</t>
         </is>
       </c>
       <c r="D7" s="19" t="n"/>
@@ -810,7 +810,7 @@
       </c>
       <c r="F8" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 202 ₽</t>
         </is>
       </c>
       <c r="G8" s="19" t="n"/>
@@ -839,7 +839,7 @@
       </c>
       <c r="F9" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>25 249 ₽</t>
         </is>
       </c>
       <c r="G9" s="19" t="n"/>
@@ -863,12 +863,12 @@
       <c r="D10" s="19" t="n"/>
       <c r="E10" s="19" t="inlineStr">
         <is>
-          <t>6 533 р.</t>
+          <t>6 280 р.</t>
         </is>
       </c>
       <c r="F10" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>7 490 ₽</t>
         </is>
       </c>
       <c r="G10" s="19" t="n"/>
@@ -886,18 +886,18 @@
       </c>
       <c r="C11" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>4 500 ₽</t>
         </is>
       </c>
       <c r="D11" s="19" t="n"/>
       <c r="E11" s="19" t="inlineStr">
         <is>
-          <t>4 502 р.</t>
+          <t>4 239 р.</t>
         </is>
       </c>
       <c r="F11" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 854 ₽</t>
         </is>
       </c>
       <c r="G11" s="19" t="n"/>
@@ -921,12 +921,12 @@
       <c r="D12" s="19" t="n"/>
       <c r="E12" s="19" t="inlineStr">
         <is>
-          <t>3 682 р.</t>
+          <t>3 060 р.</t>
         </is>
       </c>
       <c r="F12" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 060 ₽</t>
         </is>
       </c>
       <c r="G12" s="19" t="n"/>
@@ -955,7 +955,7 @@
       </c>
       <c r="F13" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10 118 ₽</t>
         </is>
       </c>
       <c r="G13" s="19" t="n"/>
@@ -979,7 +979,7 @@
       <c r="D14" s="19" t="n"/>
       <c r="E14" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>9 990 р.</t>
         </is>
       </c>
       <c r="F14" s="20" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="F15" s="20" t="inlineStr">
         <is>
-          <t>12 990 ₽</t>
+          <t>9 800 ₽</t>
         </is>
       </c>
       <c r="G15" s="19" t="n"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C16" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>9 490 ₽</t>
         </is>
       </c>
       <c r="D16" s="19" t="n"/>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="C17" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 990 ₽</t>
         </is>
       </c>
       <c r="D17" s="19" t="n"/>
@@ -1124,12 +1124,12 @@
       <c r="D19" s="19" t="n"/>
       <c r="E19" s="19" t="inlineStr">
         <is>
-          <t>2 763 р.</t>
+          <t>2 751 р.</t>
         </is>
       </c>
       <c r="F19" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 751 ₽</t>
         </is>
       </c>
       <c r="G19" s="19" t="n"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C20" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 390 ₽</t>
         </is>
       </c>
       <c r="D20" s="19" t="n"/>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C21" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 590 ₽</t>
         </is>
       </c>
       <c r="D21" s="19" t="n"/>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F21" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 990 ₽</t>
         </is>
       </c>
       <c r="G21" s="19" t="n"/>
@@ -1240,12 +1240,12 @@
       <c r="D23" s="19" t="n"/>
       <c r="E23" s="19" t="inlineStr">
         <is>
-          <t>6 552 р.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F23" s="20" t="inlineStr">
         <is>
-          <t>7 390 ₽</t>
+          <t>6 026 ₽</t>
         </is>
       </c>
       <c r="G23" s="19" t="n"/>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C25" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 990 ₽</t>
         </is>
       </c>
       <c r="D25" s="19" t="n"/>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="F25" s="20" t="inlineStr">
         <is>
-          <t>5 990 ₽</t>
+          <t>5 042 ₽</t>
         </is>
       </c>
       <c r="G25" s="19" t="n"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C26" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 490 ₽</t>
         </is>
       </c>
       <c r="D26" s="19" t="n"/>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="F26" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 210 ₽</t>
         </is>
       </c>
       <c r="G26" s="19" t="n"/>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F27" s="20" t="inlineStr">
         <is>
-          <t>9 490 ₽</t>
+          <t>8 730 ₽</t>
         </is>
       </c>
       <c r="G27" s="19" t="n"/>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="F29" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8 272 ₽</t>
         </is>
       </c>
       <c r="G29" s="19" t="n"/>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C30" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>4 910 ₽</t>
         </is>
       </c>
       <c r="D30" s="19" t="n"/>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="F34" s="20" t="inlineStr">
         <is>
-          <t>1 990 ₽</t>
+          <t>1 830 ₽</t>
         </is>
       </c>
       <c r="G34" s="19" t="n"/>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="F35" s="20" t="inlineStr">
         <is>
-          <t>11 714 ₽</t>
+          <t>9 590 ₽</t>
         </is>
       </c>
       <c r="G35" s="19" t="n"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C36" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>1 990 ₽</t>
         </is>
       </c>
       <c r="D36" s="19" t="n"/>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="F38" s="20" t="inlineStr">
         <is>
-          <t>3 524 ₽</t>
+          <t>3 011 ₽</t>
         </is>
       </c>
       <c r="G38" s="19" t="n"/>
@@ -1727,13 +1727,13 @@
       </c>
       <c r="C40" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>19 990 ₽</t>
         </is>
       </c>
       <c r="D40" s="19" t="n"/>
       <c r="E40" s="19" t="inlineStr">
         <is>
-          <t>19 990 р.</t>
+          <t>18 391 р.</t>
         </is>
       </c>
       <c r="F40" s="20" t="inlineStr">
@@ -1762,12 +1762,12 @@
       <c r="D41" s="19" t="n"/>
       <c r="E41" s="19" t="inlineStr">
         <is>
-          <t>4 092 р.</t>
+          <t>4 990 р.</t>
         </is>
       </c>
       <c r="F41" s="20" t="inlineStr">
         <is>
-          <t>4 990 ₽</t>
+          <t>5 490 ₽</t>
         </is>
       </c>
       <c r="G41" s="19" t="n"/>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F43" s="20" t="inlineStr">
         <is>
-          <t>5 990 ₽</t>
+          <t>6 490 ₽</t>
         </is>
       </c>
       <c r="G43" s="19" t="n"/>
@@ -1849,7 +1849,7 @@
       <c r="D44" s="19" t="n"/>
       <c r="E44" s="19" t="inlineStr">
         <is>
-          <t>4 248 р.</t>
+          <t>4 490 р.</t>
         </is>
       </c>
       <c r="F44" s="20" t="inlineStr">
@@ -1872,13 +1872,13 @@
       </c>
       <c r="C45" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>25 990 ₽</t>
         </is>
       </c>
       <c r="D45" s="19" t="n"/>
       <c r="E45" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>25 990 р.</t>
         </is>
       </c>
       <c r="F45" s="20" t="inlineStr">
@@ -1907,7 +1907,7 @@
       <c r="D46" s="19" t="n"/>
       <c r="E46" s="19" t="inlineStr">
         <is>
-          <t>3 990 р.</t>
+          <t>3 272 р.</t>
         </is>
       </c>
       <c r="F46" s="20" t="inlineStr">
@@ -1936,7 +1936,7 @@
       <c r="D47" s="19" t="n"/>
       <c r="E47" s="19" t="inlineStr">
         <is>
-          <t>4 499 р.</t>
+          <t>4 502 р.</t>
         </is>
       </c>
       <c r="F47" s="20" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="F48" s="20" t="inlineStr">
         <is>
-          <t>2 490 ₽</t>
+          <t>2 489 ₽</t>
         </is>
       </c>
       <c r="G48" s="19" t="n"/>
@@ -2046,13 +2046,13 @@
       </c>
       <c r="C51" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>16 990 ₽</t>
         </is>
       </c>
       <c r="D51" s="19" t="n"/>
       <c r="E51" s="19" t="inlineStr">
         <is>
-          <t>12 905 р.</t>
+          <t>14 272 р.</t>
         </is>
       </c>
       <c r="F51" s="20" t="inlineStr">
@@ -2110,12 +2110,12 @@
       <c r="D53" s="19" t="n"/>
       <c r="E53" s="19" t="inlineStr">
         <is>
-          <t>5 322 р.</t>
+          <t>6 358 р.</t>
         </is>
       </c>
       <c r="F53" s="20" t="inlineStr">
         <is>
-          <t>6 490 ₽</t>
+          <t>5 780 ₽</t>
         </is>
       </c>
       <c r="G53" s="19" t="n"/>
@@ -2139,12 +2139,12 @@
       <c r="D54" s="19" t="n"/>
       <c r="E54" s="19" t="inlineStr">
         <is>
-          <t>4 092 р.</t>
+          <t>3 743 р.</t>
         </is>
       </c>
       <c r="F54" s="20" t="inlineStr">
         <is>
-          <t>4 990 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="G54" s="19" t="n"/>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="F55" s="20" t="inlineStr">
         <is>
-          <t>1 380 ₽</t>
+          <t>1 206 ₽</t>
         </is>
       </c>
       <c r="G55" s="19" t="n"/>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="C56" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>15 990 ₽</t>
         </is>
       </c>
       <c r="D56" s="19" t="n"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="F56" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14 711 ₽</t>
         </is>
       </c>
       <c r="G56" s="19" t="n"/>
@@ -2284,12 +2284,12 @@
       <c r="D59" s="19" t="n"/>
       <c r="E59" s="19" t="inlineStr">
         <is>
-          <t>7 372 р.</t>
+          <t>6 635 р.</t>
         </is>
       </c>
       <c r="F59" s="20" t="inlineStr">
         <is>
-          <t>7 641 ₽</t>
+          <t>6 781 ₽</t>
         </is>
       </c>
       <c r="G59" s="19" t="n"/>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="F61" s="20" t="inlineStr">
         <is>
-          <t>8 490 ₽</t>
+          <t>7 812 ₽</t>
         </is>
       </c>
       <c r="G61" s="19" t="n"/>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="F62" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 290 ₽</t>
         </is>
       </c>
       <c r="G62" s="19" t="n"/>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="F63" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 489 ₽</t>
         </is>
       </c>
       <c r="G63" s="19" t="n"/>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C65" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 990 ₽</t>
         </is>
       </c>
       <c r="D65" s="19" t="n"/>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="F65" s="20" t="inlineStr">
         <is>
-          <t>2 541 ₽</t>
+          <t>2 332 ₽</t>
         </is>
       </c>
       <c r="G65" s="19" t="n"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="F66" s="20" t="inlineStr">
         <is>
-          <t>2 318 ₽</t>
+          <t>1 803 ₽</t>
         </is>
       </c>
       <c r="G66" s="19" t="n"/>
@@ -2510,18 +2510,18 @@
       </c>
       <c r="C67" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10 990 ₽</t>
         </is>
       </c>
       <c r="D67" s="19" t="n"/>
       <c r="E67" s="19" t="inlineStr">
         <is>
-          <t>10 990 р.</t>
+          <t>9 976 р.</t>
         </is>
       </c>
       <c r="F67" s="20" t="inlineStr">
         <is>
-          <t>10 990 ₽</t>
+          <t>9 976 ₽</t>
         </is>
       </c>
       <c r="G67" s="19" t="n"/>
@@ -2545,12 +2545,12 @@
       <c r="D68" s="19" t="n"/>
       <c r="E68" s="19" t="inlineStr">
         <is>
-          <t>11 472 р.</t>
+          <t>10 555 р.</t>
         </is>
       </c>
       <c r="F68" s="20" t="inlineStr">
         <is>
-          <t>12 533 ₽</t>
+          <t>10 555 ₽</t>
         </is>
       </c>
       <c r="G68" s="19" t="n"/>
@@ -2574,12 +2574,12 @@
       <c r="D69" s="19" t="n"/>
       <c r="E69" s="19" t="inlineStr">
         <is>
-          <t>7 372 р.</t>
+          <t>9 990 р.</t>
         </is>
       </c>
       <c r="F69" s="20" t="inlineStr">
         <is>
-          <t>9 990 ₽</t>
+          <t>8 516 ₽</t>
         </is>
       </c>
       <c r="G69" s="19" t="n"/>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="C71" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>16 990 ₽</t>
         </is>
       </c>
       <c r="D71" s="19" t="n"/>
@@ -2690,12 +2690,12 @@
       <c r="D73" s="19" t="n"/>
       <c r="E73" s="19" t="inlineStr">
         <is>
-          <t>6 962 р.</t>
+          <t>6 944 р.</t>
         </is>
       </c>
       <c r="F73" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>6 404 ₽</t>
         </is>
       </c>
       <c r="G73" s="19" t="n"/>
@@ -2719,7 +2719,7 @@
       <c r="D74" s="19" t="n"/>
       <c r="E74" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>7 490 р.</t>
         </is>
       </c>
       <c r="F74" s="20" t="inlineStr">
@@ -2742,13 +2742,13 @@
       </c>
       <c r="C75" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>1 990 ₽</t>
         </is>
       </c>
       <c r="D75" s="19" t="n"/>
       <c r="E75" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>1 990 р.</t>
         </is>
       </c>
       <c r="F75" s="20" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="F78" s="20" t="inlineStr">
         <is>
-          <t>4 849 ₽</t>
+          <t>4 140 ₽</t>
         </is>
       </c>
       <c r="G78" s="19" t="n"/>
@@ -2893,12 +2893,12 @@
       <c r="D80" s="19" t="n"/>
       <c r="E80" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 404 р.</t>
         </is>
       </c>
       <c r="F80" s="20" t="inlineStr">
         <is>
-          <t>3 590 ₽</t>
+          <t>3 404 ₽</t>
         </is>
       </c>
       <c r="G80" s="19" t="n"/>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C82" s="19" t="inlineStr">
         <is>
-          <t>2 450 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D82" s="19" t="n"/>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="F82" s="20" t="inlineStr">
         <is>
-          <t>2 990 ₽</t>
+          <t>2 254 ₽</t>
         </is>
       </c>
       <c r="G82" s="19" t="n"/>
@@ -2980,7 +2980,7 @@
       <c r="D83" s="19" t="n"/>
       <c r="E83" s="19" t="inlineStr">
         <is>
-          <t>17 990 р.</t>
+          <t>15 234 р.</t>
         </is>
       </c>
       <c r="F83" s="20" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="C84" s="19" t="inlineStr">
         <is>
-          <t>6 490 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D84" s="19" t="n"/>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="F85" s="20" t="inlineStr">
         <is>
-          <t>8 490 ₽</t>
+          <t>7 812 ₽</t>
         </is>
       </c>
       <c r="G85" s="19" t="n"/>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="C86" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8 990 ₽</t>
         </is>
       </c>
       <c r="D86" s="19" t="n"/>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="F86" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8 990 ₽</t>
         </is>
       </c>
       <c r="G86" s="19" t="n"/>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="F88" s="20" t="inlineStr">
         <is>
-          <t>3 490 ₽</t>
+          <t>3 210 ₽</t>
         </is>
       </c>
       <c r="G88" s="19" t="n"/>
@@ -3154,7 +3154,7 @@
       <c r="D89" s="19" t="n"/>
       <c r="E89" s="19" t="inlineStr">
         <is>
-          <t>7 490 р.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F89" s="20" t="inlineStr">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="C90" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>24 590 ₽</t>
         </is>
       </c>
       <c r="D90" s="19" t="n"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C92" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 700 ₽</t>
         </is>
       </c>
       <c r="D92" s="19" t="n"/>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="F92" s="20" t="inlineStr">
         <is>
-          <t>3 212 ₽</t>
+          <t>2 482 ₽</t>
         </is>
       </c>
       <c r="G92" s="19" t="n"/>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="C93" s="19" t="inlineStr">
         <is>
-          <t>7 990 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D93" s="19" t="n"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="F93" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>6 768 ₽</t>
         </is>
       </c>
       <c r="G93" s="19" t="n"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="F94" s="20" t="inlineStr">
         <is>
-          <t>10 990 ₽</t>
+          <t>10 991 ₽</t>
         </is>
       </c>
       <c r="G94" s="19" t="n"/>
@@ -3328,12 +3328,12 @@
       <c r="D95" s="19" t="n"/>
       <c r="E95" s="19" t="inlineStr">
         <is>
-          <t>8 192 р.</t>
+          <t>7 537 р.</t>
         </is>
       </c>
       <c r="F95" s="20" t="inlineStr">
         <is>
-          <t>9 240 ₽</t>
+          <t>7 537 ₽</t>
         </is>
       </c>
       <c r="G95" s="19" t="n"/>
@@ -3415,7 +3415,7 @@
       <c r="D98" s="19" t="n"/>
       <c r="E98" s="19" t="inlineStr">
         <is>
-          <t>1 590 р.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F98" s="20" t="inlineStr">
@@ -3444,7 +3444,7 @@
       <c r="D99" s="19" t="n"/>
       <c r="E99" s="19" t="inlineStr">
         <is>
-          <t>7 990 р.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F99" s="20" t="inlineStr">
@@ -3473,12 +3473,12 @@
       <c r="D100" s="19" t="n"/>
       <c r="E100" s="19" t="inlineStr">
         <is>
-          <t>4 069 р.</t>
+          <t>4 495 р.</t>
         </is>
       </c>
       <c r="F100" s="20" t="inlineStr">
         <is>
-          <t>5 990 ₽</t>
+          <t>4 086 ₽</t>
         </is>
       </c>
       <c r="G100" s="19" t="n"/>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C107" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 490 ₽</t>
         </is>
       </c>
       <c r="D107" s="19" t="n"/>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="F107" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 331 ₽</t>
         </is>
       </c>
       <c r="G107" s="19" t="n"/>
@@ -3705,7 +3705,7 @@
       <c r="D108" s="19" t="n"/>
       <c r="E108" s="19" t="inlineStr">
         <is>
-          <t>11 990 р.</t>
+          <t>11 130 р.</t>
         </is>
       </c>
       <c r="F108" s="20" t="inlineStr">
@@ -3734,7 +3734,7 @@
       <c r="D109" s="19" t="n"/>
       <c r="E109" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 990 р.</t>
         </is>
       </c>
       <c r="F109" s="20" t="inlineStr">
@@ -3792,7 +3792,7 @@
       <c r="D111" s="19" t="n"/>
       <c r="E111" s="19" t="inlineStr">
         <is>
-          <t>11 735 р.</t>
+          <t>12 490 р.</t>
         </is>
       </c>
       <c r="F111" s="20" t="inlineStr">
@@ -3821,7 +3821,7 @@
       <c r="D112" s="19" t="n"/>
       <c r="E112" s="19" t="inlineStr">
         <is>
-          <t>8 560 р.</t>
+          <t>7 589 р.</t>
         </is>
       </c>
       <c r="F112" s="20" t="inlineStr">
@@ -3850,12 +3850,12 @@
       <c r="D113" s="19" t="n"/>
       <c r="E113" s="19" t="inlineStr">
         <is>
-          <t>14 752 р.</t>
+          <t>13 572 р.</t>
         </is>
       </c>
       <c r="F113" s="20" t="inlineStr">
         <is>
-          <t>17 990 ₽</t>
+          <t>13 572 ₽</t>
         </is>
       </c>
       <c r="G113" s="19" t="n"/>
@@ -3937,7 +3937,7 @@
       <c r="D116" s="19" t="n"/>
       <c r="E116" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 390 р.</t>
         </is>
       </c>
       <c r="F116" s="20" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="F118" s="20" t="inlineStr">
         <is>
-          <t>14 990 ₽</t>
+          <t>12 290 ₽</t>
         </is>
       </c>
       <c r="G118" s="19" t="n"/>
@@ -4018,18 +4018,18 @@
       </c>
       <c r="C119" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>6 550 ₽</t>
         </is>
       </c>
       <c r="D119" s="19" t="n"/>
       <c r="E119" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>6 028 р.</t>
         </is>
       </c>
       <c r="F119" s="20" t="inlineStr">
         <is>
-          <t>7 990 ₽</t>
+          <t>6 028 ₽</t>
         </is>
       </c>
       <c r="G119" s="19" t="n"/>
@@ -4053,7 +4053,7 @@
       <c r="D120" s="19" t="n"/>
       <c r="E120" s="19" t="inlineStr">
         <is>
-          <t>29 990 р.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F120" s="20" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="F122" s="20" t="inlineStr">
         <is>
-          <t>29 990 ₽</t>
+          <t>22 625 ₽</t>
         </is>
       </c>
       <c r="G122" s="19" t="n"/>
@@ -4169,7 +4169,7 @@
       <c r="D124" s="19" t="n"/>
       <c r="E124" s="19" t="inlineStr">
         <is>
-          <t>16 392 р.</t>
+          <t>15 081 р.</t>
         </is>
       </c>
       <c r="F124" s="20" t="inlineStr">
@@ -4256,7 +4256,7 @@
       <c r="D127" s="19" t="n"/>
       <c r="E127" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 452 р.</t>
         </is>
       </c>
       <c r="F127" s="20" t="inlineStr">
@@ -4285,7 +4285,7 @@
       <c r="D128" s="19" t="n"/>
       <c r="E128" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>9 990 р.</t>
         </is>
       </c>
       <c r="F128" s="20" t="inlineStr">
@@ -4314,12 +4314,12 @@
       <c r="D129" s="19" t="n"/>
       <c r="E129" s="19" t="inlineStr">
         <is>
-          <t>4 912 р.</t>
+          <t>4 790 р.</t>
         </is>
       </c>
       <c r="F129" s="20" t="inlineStr">
         <is>
-          <t>5 614 ₽</t>
+          <t>4 897 ₽</t>
         </is>
       </c>
       <c r="G129" s="19" t="n"/>
@@ -4430,12 +4430,12 @@
       <c r="D133" s="19" t="n"/>
       <c r="E133" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>35 990 р.</t>
         </is>
       </c>
       <c r="F133" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>32 081 ₽</t>
         </is>
       </c>
       <c r="G133" s="19" t="n"/>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C136" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 270 ₽</t>
         </is>
       </c>
       <c r="D136" s="19" t="n"/>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="F136" s="20" t="inlineStr">
         <is>
-          <t>3 974 ₽</t>
+          <t>3 008 ₽</t>
         </is>
       </c>
       <c r="G136" s="19" t="n"/>
@@ -4540,13 +4540,13 @@
       </c>
       <c r="C137" s="19" t="inlineStr">
         <is>
-          <t>4 990 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D137" s="19" t="n"/>
       <c r="E137" s="19" t="inlineStr">
         <is>
-          <t>4 990 р.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F137" s="20" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="F141" s="20" t="inlineStr">
         <is>
-          <t>6 990 ₽</t>
+          <t>5 274 ₽</t>
         </is>
       </c>
       <c r="G141" s="19" t="n"/>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="C142" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14 990 ₽</t>
         </is>
       </c>
       <c r="D142" s="19" t="n"/>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="F142" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14 990 ₽</t>
         </is>
       </c>
       <c r="G142" s="19" t="n"/>
@@ -4749,12 +4749,12 @@
       <c r="D144" s="19" t="n"/>
       <c r="E144" s="19" t="inlineStr">
         <is>
-          <t>1 890 р.</t>
+          <t>2 490 р.</t>
         </is>
       </c>
       <c r="F144" s="20" t="inlineStr">
         <is>
-          <t>2 490 ₽</t>
+          <t>2 492 ₽</t>
         </is>
       </c>
       <c r="G144" s="19" t="n"/>
@@ -4778,12 +4778,12 @@
       <c r="D145" s="19" t="n"/>
       <c r="E145" s="19" t="inlineStr">
         <is>
-          <t>4 912 р.</t>
+          <t>6 139 р.</t>
         </is>
       </c>
       <c r="F145" s="20" t="inlineStr">
         <is>
-          <t>5 990 ₽</t>
+          <t>6 990 ₽</t>
         </is>
       </c>
       <c r="G145" s="19" t="n"/>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="C146" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 290 ₽</t>
         </is>
       </c>
       <c r="D146" s="19" t="n"/>
@@ -4830,7 +4830,7 @@
       </c>
       <c r="C147" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 490 ₽</t>
         </is>
       </c>
       <c r="D147" s="19" t="n"/>
@@ -4859,18 +4859,18 @@
       </c>
       <c r="C148" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 600 ₽</t>
         </is>
       </c>
       <c r="D148" s="19" t="n"/>
       <c r="E148" s="19" t="inlineStr">
         <is>
-          <t>3 600 р.</t>
+          <t>3 505 р.</t>
         </is>
       </c>
       <c r="F148" s="20" t="inlineStr">
         <is>
-          <t>4 060 ₽</t>
+          <t>3 186 ₽</t>
         </is>
       </c>
       <c r="G148" s="19" t="n"/>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="F149" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 990 ₽</t>
         </is>
       </c>
       <c r="G149" s="19" t="n"/>
@@ -4952,7 +4952,7 @@
       <c r="D151" s="19" t="n"/>
       <c r="E151" s="19" t="inlineStr">
         <is>
-          <t>6 100 р.</t>
+          <t>6 190 р.</t>
         </is>
       </c>
       <c r="F151" s="20" t="inlineStr">
@@ -4981,12 +4981,12 @@
       <c r="D152" s="19" t="n"/>
       <c r="E152" s="19" t="inlineStr">
         <is>
-          <t>8 800 р.</t>
+          <t>8 270 р.</t>
         </is>
       </c>
       <c r="F152" s="20" t="inlineStr">
         <is>
-          <t>8 990 ₽</t>
+          <t>8 270 ₽</t>
         </is>
       </c>
       <c r="G152" s="19" t="n"/>
@@ -5010,7 +5010,7 @@
       <c r="D153" s="19" t="n"/>
       <c r="E153" s="19" t="inlineStr">
         <is>
-          <t>8 654 р.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F153" s="20" t="inlineStr">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="F154" s="20" t="inlineStr">
         <is>
-          <t>14 769 ₽</t>
+          <t>11 310 ₽</t>
         </is>
       </c>
       <c r="G154" s="19" t="n"/>
@@ -5102,7 +5102,7 @@
       </c>
       <c r="F156" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 990 ₽</t>
         </is>
       </c>
       <c r="G156" s="19" t="n"/>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="F159" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>4 790 ₽</t>
         </is>
       </c>
       <c r="G159" s="19" t="n"/>
@@ -5213,12 +5213,12 @@
       <c r="D160" s="19" t="n"/>
       <c r="E160" s="19" t="inlineStr">
         <is>
-          <t>2 862 р.</t>
+          <t>3 490 р.</t>
         </is>
       </c>
       <c r="F160" s="20" t="inlineStr">
         <is>
-          <t>3 490 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="G160" s="19" t="n"/>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="F161" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 991 ₽</t>
         </is>
       </c>
       <c r="G161" s="19" t="n"/>
@@ -5271,12 +5271,12 @@
       <c r="D162" s="19" t="n"/>
       <c r="E162" s="19" t="inlineStr">
         <is>
-          <t>4 909 р.</t>
+          <t>5 273 р.</t>
         </is>
       </c>
       <c r="F162" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>6 622 ₽</t>
         </is>
       </c>
       <c r="G162" s="19" t="n"/>
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C163" s="19" t="inlineStr">
         <is>
-          <t>1 060 ₽</t>
+          <t> </t>
         </is>
       </c>
       <c r="D163" s="19" t="n"/>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="F163" s="20" t="inlineStr">
         <is>
-          <t>1 218 ₽</t>
+          <t>972 ₽</t>
         </is>
       </c>
       <c r="G163" s="19" t="n"/>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="F170" s="20" t="inlineStr">
         <is>
-          <t> </t>
+          <t>19 990 ₽</t>
         </is>
       </c>
       <c r="G170" s="19" t="n"/>
@@ -5561,7 +5561,7 @@
       <c r="D172" s="19" t="n"/>
       <c r="E172" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 061 р.</t>
         </is>
       </c>
       <c r="F172" s="20" t="inlineStr">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="F174" s="20" t="inlineStr">
         <is>
-          <t>2 990 ₽</t>
+          <t>3 890 ₽</t>
         </is>
       </c>
       <c r="G174" s="19" t="n"/>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="F175" s="20" t="inlineStr">
         <is>
-          <t>3 590 ₽</t>
+          <t>3 404 ₽</t>
         </is>
       </c>
       <c r="G175" s="19" t="n"/>
@@ -6050,12 +6050,12 @@
       </c>
       <c r="D7" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E7" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14 990 ₽</t>
         </is>
       </c>
     </row>
@@ -6158,12 +6158,12 @@
       </c>
       <c r="D11" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E11" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>4 500 ₽</t>
         </is>
       </c>
     </row>
@@ -6293,12 +6293,12 @@
       </c>
       <c r="D16" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E16" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>9 490 ₽</t>
         </is>
       </c>
     </row>
@@ -6320,12 +6320,12 @@
       </c>
       <c r="D17" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E17" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 990 ₽</t>
         </is>
       </c>
     </row>
@@ -6401,12 +6401,12 @@
       </c>
       <c r="D20" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E20" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 390 ₽</t>
         </is>
       </c>
     </row>
@@ -6428,12 +6428,12 @@
       </c>
       <c r="D21" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E21" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 590 ₽</t>
         </is>
       </c>
     </row>
@@ -6536,12 +6536,12 @@
       </c>
       <c r="D25" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E25" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 990 ₽</t>
         </is>
       </c>
     </row>
@@ -6563,12 +6563,12 @@
       </c>
       <c r="D26" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E26" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 490 ₽</t>
         </is>
       </c>
     </row>
@@ -6671,12 +6671,12 @@
       </c>
       <c r="D30" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E30" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>4 910 ₽</t>
         </is>
       </c>
     </row>
@@ -6833,12 +6833,12 @@
       </c>
       <c r="D36" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E36" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>1 990 ₽</t>
         </is>
       </c>
     </row>
@@ -6941,12 +6941,12 @@
       </c>
       <c r="D40" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E40" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>19 990 ₽</t>
         </is>
       </c>
     </row>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="D45" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E45" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>25 990 ₽</t>
         </is>
       </c>
     </row>
@@ -7238,12 +7238,12 @@
       </c>
       <c r="D51" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E51" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>16 990 ₽</t>
         </is>
       </c>
     </row>
@@ -7373,12 +7373,12 @@
       </c>
       <c r="D56" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E56" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>15 990 ₽</t>
         </is>
       </c>
     </row>
@@ -7616,12 +7616,12 @@
       </c>
       <c r="D65" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E65" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 990 ₽</t>
         </is>
       </c>
     </row>
@@ -7670,12 +7670,12 @@
       </c>
       <c r="D67" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E67" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10 990 ₽</t>
         </is>
       </c>
     </row>
@@ -7778,12 +7778,12 @@
       </c>
       <c r="D71" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E71" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>16 990 ₽</t>
         </is>
       </c>
     </row>
@@ -7886,12 +7886,12 @@
       </c>
       <c r="D75" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E75" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>1 990 ₽</t>
         </is>
       </c>
     </row>
@@ -8075,12 +8075,12 @@
       </c>
       <c r="D82" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E82" s="19" t="inlineStr">
         <is>
-          <t>2 450 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8129,12 +8129,12 @@
       </c>
       <c r="D84" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E84" s="19" t="inlineStr">
         <is>
-          <t>6 490 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8183,12 +8183,12 @@
       </c>
       <c r="D86" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E86" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8 990 ₽</t>
         </is>
       </c>
     </row>
@@ -8291,12 +8291,12 @@
       </c>
       <c r="D90" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E90" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>24 590 ₽</t>
         </is>
       </c>
     </row>
@@ -8345,12 +8345,12 @@
       </c>
       <c r="D92" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E92" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 700 ₽</t>
         </is>
       </c>
     </row>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="D93" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E93" s="19" t="inlineStr">
         <is>
-          <t>7 990 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8750,12 +8750,12 @@
       </c>
       <c r="D107" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E107" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 490 ₽</t>
         </is>
       </c>
     </row>
@@ -9074,12 +9074,12 @@
       </c>
       <c r="D119" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E119" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>6 550 ₽</t>
         </is>
       </c>
     </row>
@@ -9533,12 +9533,12 @@
       </c>
       <c r="D136" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E136" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 270 ₽</t>
         </is>
       </c>
     </row>
@@ -9560,12 +9560,12 @@
       </c>
       <c r="D137" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E137" s="19" t="inlineStr">
         <is>
-          <t>4 990 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -9695,12 +9695,12 @@
       </c>
       <c r="D142" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E142" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14 990 ₽</t>
         </is>
       </c>
     </row>
@@ -9803,12 +9803,12 @@
       </c>
       <c r="D146" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E146" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 290 ₽</t>
         </is>
       </c>
     </row>
@@ -9830,12 +9830,12 @@
       </c>
       <c r="D147" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E147" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 490 ₽</t>
         </is>
       </c>
     </row>
@@ -9857,12 +9857,12 @@
       </c>
       <c r="D148" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E148" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 600 ₽</t>
         </is>
       </c>
     </row>
@@ -10262,12 +10262,12 @@
       </c>
       <c r="D163" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E163" s="19" t="inlineStr">
         <is>
-          <t>1 060 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -14261,7 +14261,7 @@
       </c>
       <c r="E2" s="19" t="inlineStr">
         <is>
-          <t>8 990 р.</t>
+          <t>11 032 р.</t>
         </is>
       </c>
     </row>
@@ -14288,7 +14288,7 @@
       </c>
       <c r="E3" s="19" t="inlineStr">
         <is>
-          <t>5 590 р.</t>
+          <t>5 074 р.</t>
         </is>
       </c>
     </row>
@@ -14477,7 +14477,7 @@
       </c>
       <c r="E10" s="19" t="inlineStr">
         <is>
-          <t>6 533 р.</t>
+          <t>6 280 р.</t>
         </is>
       </c>
     </row>
@@ -14504,7 +14504,7 @@
       </c>
       <c r="E11" s="19" t="inlineStr">
         <is>
-          <t>4 502 р.</t>
+          <t>4 239 р.</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="E12" s="19" t="inlineStr">
         <is>
-          <t>3 682 р.</t>
+          <t>3 060 р.</t>
         </is>
       </c>
     </row>
@@ -14580,12 +14580,12 @@
       </c>
       <c r="D14" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E14" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>9 990 р.</t>
         </is>
       </c>
     </row>
@@ -14720,7 +14720,7 @@
       </c>
       <c r="E19" s="19" t="inlineStr">
         <is>
-          <t>2 763 р.</t>
+          <t>2 751 р.</t>
         </is>
       </c>
     </row>
@@ -14823,12 +14823,12 @@
       </c>
       <c r="D23" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E23" s="19" t="inlineStr">
         <is>
-          <t>6 552 р.</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -15287,7 +15287,7 @@
       </c>
       <c r="E40" s="19" t="inlineStr">
         <is>
-          <t>19 990 р.</t>
+          <t>18 391 р.</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="E41" s="19" t="inlineStr">
         <is>
-          <t>4 092 р.</t>
+          <t>4 990 р.</t>
         </is>
       </c>
     </row>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="E44" s="19" t="inlineStr">
         <is>
-          <t>4 248 р.</t>
+          <t>4 490 р.</t>
         </is>
       </c>
     </row>
@@ -15417,12 +15417,12 @@
       </c>
       <c r="D45" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E45" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>25 990 р.</t>
         </is>
       </c>
     </row>
@@ -15449,7 +15449,7 @@
       </c>
       <c r="E46" s="19" t="inlineStr">
         <is>
-          <t>3 990 р.</t>
+          <t>3 272 р.</t>
         </is>
       </c>
     </row>
@@ -15476,7 +15476,7 @@
       </c>
       <c r="E47" s="19" t="inlineStr">
         <is>
-          <t>4 499 р.</t>
+          <t>4 502 р.</t>
         </is>
       </c>
     </row>
@@ -15584,7 +15584,7 @@
       </c>
       <c r="E51" s="19" t="inlineStr">
         <is>
-          <t>12 905 р.</t>
+          <t>14 272 р.</t>
         </is>
       </c>
     </row>
@@ -15638,7 +15638,7 @@
       </c>
       <c r="E53" s="19" t="inlineStr">
         <is>
-          <t>5 322 р.</t>
+          <t>6 358 р.</t>
         </is>
       </c>
     </row>
@@ -15665,7 +15665,7 @@
       </c>
       <c r="E54" s="19" t="inlineStr">
         <is>
-          <t>4 092 р.</t>
+          <t>3 743 р.</t>
         </is>
       </c>
     </row>
@@ -15800,7 +15800,7 @@
       </c>
       <c r="E59" s="19" t="inlineStr">
         <is>
-          <t>7 372 р.</t>
+          <t>6 635 р.</t>
         </is>
       </c>
     </row>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="E67" s="19" t="inlineStr">
         <is>
-          <t>10 990 р.</t>
+          <t>9 976 р.</t>
         </is>
       </c>
     </row>
@@ -16043,7 +16043,7 @@
       </c>
       <c r="E68" s="19" t="inlineStr">
         <is>
-          <t>11 472 р.</t>
+          <t>10 555 р.</t>
         </is>
       </c>
     </row>
@@ -16070,7 +16070,7 @@
       </c>
       <c r="E69" s="19" t="inlineStr">
         <is>
-          <t>7 372 р.</t>
+          <t>9 990 р.</t>
         </is>
       </c>
     </row>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="E73" s="19" t="inlineStr">
         <is>
-          <t>6 962 р.</t>
+          <t>6 944 р.</t>
         </is>
       </c>
     </row>
@@ -16200,12 +16200,12 @@
       </c>
       <c r="D74" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E74" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>7 490 р.</t>
         </is>
       </c>
     </row>
@@ -16227,12 +16227,12 @@
       </c>
       <c r="D75" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E75" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>1 990 р.</t>
         </is>
       </c>
     </row>
@@ -16362,12 +16362,12 @@
       </c>
       <c r="D80" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E80" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 404 р.</t>
         </is>
       </c>
     </row>
@@ -16448,7 +16448,7 @@
       </c>
       <c r="E83" s="19" t="inlineStr">
         <is>
-          <t>17 990 р.</t>
+          <t>15 234 р.</t>
         </is>
       </c>
     </row>
@@ -16605,12 +16605,12 @@
       </c>
       <c r="D89" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E89" s="19" t="inlineStr">
         <is>
-          <t>7 490 р.</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16772,7 +16772,7 @@
       </c>
       <c r="E95" s="19" t="inlineStr">
         <is>
-          <t>8 192 р.</t>
+          <t>7 537 р.</t>
         </is>
       </c>
     </row>
@@ -16848,12 +16848,12 @@
       </c>
       <c r="D98" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E98" s="19" t="inlineStr">
         <is>
-          <t>1 590 р.</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16875,12 +16875,12 @@
       </c>
       <c r="D99" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E99" s="19" t="inlineStr">
         <is>
-          <t>7 990 р.</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -16907,7 +16907,7 @@
       </c>
       <c r="E100" s="19" t="inlineStr">
         <is>
-          <t>4 069 р.</t>
+          <t>4 495 р.</t>
         </is>
       </c>
     </row>
@@ -17123,7 +17123,7 @@
       </c>
       <c r="E108" s="19" t="inlineStr">
         <is>
-          <t>11 990 р.</t>
+          <t>11 130 р.</t>
         </is>
       </c>
     </row>
@@ -17145,12 +17145,12 @@
       </c>
       <c r="D109" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E109" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 990 р.</t>
         </is>
       </c>
     </row>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="E111" s="19" t="inlineStr">
         <is>
-          <t>11 735 р.</t>
+          <t>12 490 р.</t>
         </is>
       </c>
     </row>
@@ -17231,7 +17231,7 @@
       </c>
       <c r="E112" s="19" t="inlineStr">
         <is>
-          <t>8 560 р.</t>
+          <t>7 589 р.</t>
         </is>
       </c>
     </row>
@@ -17258,7 +17258,7 @@
       </c>
       <c r="E113" s="19" t="inlineStr">
         <is>
-          <t>14 752 р.</t>
+          <t>13 572 р.</t>
         </is>
       </c>
     </row>
@@ -17334,12 +17334,12 @@
       </c>
       <c r="D116" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E116" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 390 р.</t>
         </is>
       </c>
     </row>
@@ -17415,12 +17415,12 @@
       </c>
       <c r="D119" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E119" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>6 028 р.</t>
         </is>
       </c>
     </row>
@@ -17442,12 +17442,12 @@
       </c>
       <c r="D120" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E120" s="19" t="inlineStr">
         <is>
-          <t>29 990 р.</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="E124" s="19" t="inlineStr">
         <is>
-          <t>16 392 р.</t>
+          <t>15 081 р.</t>
         </is>
       </c>
     </row>
@@ -17631,12 +17631,12 @@
       </c>
       <c r="D127" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E127" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 452 р.</t>
         </is>
       </c>
     </row>
@@ -17658,12 +17658,12 @@
       </c>
       <c r="D128" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E128" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>9 990 р.</t>
         </is>
       </c>
     </row>
@@ -17690,7 +17690,7 @@
       </c>
       <c r="E129" s="19" t="inlineStr">
         <is>
-          <t>4 912 р.</t>
+          <t>4 790 р.</t>
         </is>
       </c>
     </row>
@@ -17793,12 +17793,12 @@
       </c>
       <c r="D133" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E133" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>35 990 р.</t>
         </is>
       </c>
     </row>
@@ -17901,12 +17901,12 @@
       </c>
       <c r="D137" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E137" s="19" t="inlineStr">
         <is>
-          <t>4 990 р.</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18095,7 +18095,7 @@
       </c>
       <c r="E144" s="19" t="inlineStr">
         <is>
-          <t>1 890 р.</t>
+          <t>2 490 р.</t>
         </is>
       </c>
     </row>
@@ -18122,7 +18122,7 @@
       </c>
       <c r="E145" s="19" t="inlineStr">
         <is>
-          <t>4 912 р.</t>
+          <t>6 139 р.</t>
         </is>
       </c>
     </row>
@@ -18203,7 +18203,7 @@
       </c>
       <c r="E148" s="19" t="inlineStr">
         <is>
-          <t>3 600 р.</t>
+          <t>3 505 р.</t>
         </is>
       </c>
     </row>
@@ -18284,7 +18284,7 @@
       </c>
       <c r="E151" s="19" t="inlineStr">
         <is>
-          <t>6 100 р.</t>
+          <t>6 190 р.</t>
         </is>
       </c>
     </row>
@@ -18311,7 +18311,7 @@
       </c>
       <c r="E152" s="19" t="inlineStr">
         <is>
-          <t>8 800 р.</t>
+          <t>8 270 р.</t>
         </is>
       </c>
     </row>
@@ -18333,12 +18333,12 @@
       </c>
       <c r="D153" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E153" s="19" t="inlineStr">
         <is>
-          <t>8 654 р.</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -18527,7 +18527,7 @@
       </c>
       <c r="E160" s="19" t="inlineStr">
         <is>
-          <t>2 862 р.</t>
+          <t>3 490 р.</t>
         </is>
       </c>
     </row>
@@ -18581,7 +18581,7 @@
       </c>
       <c r="E162" s="19" t="inlineStr">
         <is>
-          <t>4 909 р.</t>
+          <t>5 273 р.</t>
         </is>
       </c>
     </row>
@@ -18846,12 +18846,12 @@
       </c>
       <c r="D172" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E172" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 061 р.</t>
         </is>
       </c>
     </row>
@@ -19245,7 +19245,7 @@
       </c>
       <c r="E4" s="19" t="inlineStr">
         <is>
-          <t>12 990 ₽</t>
+          <t>11 791 ₽</t>
         </is>
       </c>
     </row>
@@ -19340,12 +19340,12 @@
       </c>
       <c r="D8" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E8" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 202 ₽</t>
         </is>
       </c>
     </row>
@@ -19365,12 +19365,12 @@
       </c>
       <c r="D9" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E9" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>25 249 ₽</t>
         </is>
       </c>
     </row>
@@ -19390,12 +19390,12 @@
       </c>
       <c r="D10" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E10" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>7 490 ₽</t>
         </is>
       </c>
     </row>
@@ -19415,12 +19415,12 @@
       </c>
       <c r="D11" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E11" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 854 ₽</t>
         </is>
       </c>
     </row>
@@ -19440,12 +19440,12 @@
       </c>
       <c r="D12" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E12" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 060 ₽</t>
         </is>
       </c>
     </row>
@@ -19465,12 +19465,12 @@
       </c>
       <c r="D13" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E13" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>10 118 ₽</t>
         </is>
       </c>
     </row>
@@ -19520,7 +19520,7 @@
       </c>
       <c r="E15" s="19" t="inlineStr">
         <is>
-          <t>12 990 ₽</t>
+          <t>9 800 ₽</t>
         </is>
       </c>
     </row>
@@ -19615,12 +19615,12 @@
       </c>
       <c r="D19" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E19" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 751 ₽</t>
         </is>
       </c>
     </row>
@@ -19665,12 +19665,12 @@
       </c>
       <c r="D21" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E21" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 990 ₽</t>
         </is>
       </c>
     </row>
@@ -19720,7 +19720,7 @@
       </c>
       <c r="E23" s="19" t="inlineStr">
         <is>
-          <t>7 390 ₽</t>
+          <t>6 026 ₽</t>
         </is>
       </c>
     </row>
@@ -19770,7 +19770,7 @@
       </c>
       <c r="E25" s="19" t="inlineStr">
         <is>
-          <t>5 990 ₽</t>
+          <t>5 042 ₽</t>
         </is>
       </c>
     </row>
@@ -19790,12 +19790,12 @@
       </c>
       <c r="D26" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E26" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 210 ₽</t>
         </is>
       </c>
     </row>
@@ -19820,7 +19820,7 @@
       </c>
       <c r="E27" s="19" t="inlineStr">
         <is>
-          <t>9 490 ₽</t>
+          <t>8 730 ₽</t>
         </is>
       </c>
     </row>
@@ -19865,12 +19865,12 @@
       </c>
       <c r="D29" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E29" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8 272 ₽</t>
         </is>
       </c>
     </row>
@@ -19995,7 +19995,7 @@
       </c>
       <c r="E34" s="19" t="inlineStr">
         <is>
-          <t>1 990 ₽</t>
+          <t>1 830 ₽</t>
         </is>
       </c>
     </row>
@@ -20020,7 +20020,7 @@
       </c>
       <c r="E35" s="19" t="inlineStr">
         <is>
-          <t>11 714 ₽</t>
+          <t>9 590 ₽</t>
         </is>
       </c>
     </row>
@@ -20095,7 +20095,7 @@
       </c>
       <c r="E38" s="19" t="inlineStr">
         <is>
-          <t>3 524 ₽</t>
+          <t>3 011 ₽</t>
         </is>
       </c>
     </row>
@@ -20170,7 +20170,7 @@
       </c>
       <c r="E41" s="19" t="inlineStr">
         <is>
-          <t>4 990 ₽</t>
+          <t>5 490 ₽</t>
         </is>
       </c>
     </row>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="E43" s="19" t="inlineStr">
         <is>
-          <t>5 990 ₽</t>
+          <t>6 490 ₽</t>
         </is>
       </c>
     </row>
@@ -20345,7 +20345,7 @@
       </c>
       <c r="E48" s="19" t="inlineStr">
         <is>
-          <t>2 490 ₽</t>
+          <t>2 489 ₽</t>
         </is>
       </c>
     </row>
@@ -20470,7 +20470,7 @@
       </c>
       <c r="E53" s="19" t="inlineStr">
         <is>
-          <t>6 490 ₽</t>
+          <t>5 780 ₽</t>
         </is>
       </c>
     </row>
@@ -20490,12 +20490,12 @@
       </c>
       <c r="D54" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E54" s="19" t="inlineStr">
         <is>
-          <t>4 990 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -20520,7 +20520,7 @@
       </c>
       <c r="E55" s="19" t="inlineStr">
         <is>
-          <t>1 380 ₽</t>
+          <t>1 206 ₽</t>
         </is>
       </c>
     </row>
@@ -20540,12 +20540,12 @@
       </c>
       <c r="D56" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E56" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14 711 ₽</t>
         </is>
       </c>
     </row>
@@ -20620,7 +20620,7 @@
       </c>
       <c r="E59" s="19" t="inlineStr">
         <is>
-          <t>7 641 ₽</t>
+          <t>6 781 ₽</t>
         </is>
       </c>
     </row>
@@ -20670,7 +20670,7 @@
       </c>
       <c r="E61" s="19" t="inlineStr">
         <is>
-          <t>8 490 ₽</t>
+          <t>7 812 ₽</t>
         </is>
       </c>
     </row>
@@ -20690,12 +20690,12 @@
       </c>
       <c r="D62" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E62" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>3 290 ₽</t>
         </is>
       </c>
     </row>
@@ -20715,12 +20715,12 @@
       </c>
       <c r="D63" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E63" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 489 ₽</t>
         </is>
       </c>
     </row>
@@ -20770,7 +20770,7 @@
       </c>
       <c r="E65" s="19" t="inlineStr">
         <is>
-          <t>2 541 ₽</t>
+          <t>2 332 ₽</t>
         </is>
       </c>
     </row>
@@ -20795,7 +20795,7 @@
       </c>
       <c r="E66" s="19" t="inlineStr">
         <is>
-          <t>2 318 ₽</t>
+          <t>1 803 ₽</t>
         </is>
       </c>
     </row>
@@ -20820,7 +20820,7 @@
       </c>
       <c r="E67" s="19" t="inlineStr">
         <is>
-          <t>10 990 ₽</t>
+          <t>9 976 ₽</t>
         </is>
       </c>
     </row>
@@ -20845,7 +20845,7 @@
       </c>
       <c r="E68" s="19" t="inlineStr">
         <is>
-          <t>12 533 ₽</t>
+          <t>10 555 ₽</t>
         </is>
       </c>
     </row>
@@ -20870,7 +20870,7 @@
       </c>
       <c r="E69" s="19" t="inlineStr">
         <is>
-          <t>9 990 ₽</t>
+          <t>8 516 ₽</t>
         </is>
       </c>
     </row>
@@ -20965,12 +20965,12 @@
       </c>
       <c r="D73" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E73" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>6 404 ₽</t>
         </is>
       </c>
     </row>
@@ -21095,7 +21095,7 @@
       </c>
       <c r="E78" s="19" t="inlineStr">
         <is>
-          <t>4 849 ₽</t>
+          <t>4 140 ₽</t>
         </is>
       </c>
     </row>
@@ -21145,7 +21145,7 @@
       </c>
       <c r="E80" s="19" t="inlineStr">
         <is>
-          <t>3 590 ₽</t>
+          <t>3 404 ₽</t>
         </is>
       </c>
     </row>
@@ -21195,7 +21195,7 @@
       </c>
       <c r="E82" s="19" t="inlineStr">
         <is>
-          <t>2 990 ₽</t>
+          <t>2 254 ₽</t>
         </is>
       </c>
     </row>
@@ -21270,7 +21270,7 @@
       </c>
       <c r="E85" s="19" t="inlineStr">
         <is>
-          <t>8 490 ₽</t>
+          <t>7 812 ₽</t>
         </is>
       </c>
     </row>
@@ -21290,12 +21290,12 @@
       </c>
       <c r="D86" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E86" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8 990 ₽</t>
         </is>
       </c>
     </row>
@@ -21345,7 +21345,7 @@
       </c>
       <c r="E88" s="19" t="inlineStr">
         <is>
-          <t>3 490 ₽</t>
+          <t>3 210 ₽</t>
         </is>
       </c>
     </row>
@@ -21445,7 +21445,7 @@
       </c>
       <c r="E92" s="19" t="inlineStr">
         <is>
-          <t>3 212 ₽</t>
+          <t>2 482 ₽</t>
         </is>
       </c>
     </row>
@@ -21465,12 +21465,12 @@
       </c>
       <c r="D93" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E93" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>6 768 ₽</t>
         </is>
       </c>
     </row>
@@ -21495,7 +21495,7 @@
       </c>
       <c r="E94" s="19" t="inlineStr">
         <is>
-          <t>10 990 ₽</t>
+          <t>10 991 ₽</t>
         </is>
       </c>
     </row>
@@ -21520,7 +21520,7 @@
       </c>
       <c r="E95" s="19" t="inlineStr">
         <is>
-          <t>9 240 ₽</t>
+          <t>7 537 ₽</t>
         </is>
       </c>
     </row>
@@ -21645,7 +21645,7 @@
       </c>
       <c r="E100" s="19" t="inlineStr">
         <is>
-          <t>5 990 ₽</t>
+          <t>4 086 ₽</t>
         </is>
       </c>
     </row>
@@ -21815,12 +21815,12 @@
       </c>
       <c r="D107" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E107" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 331 ₽</t>
         </is>
       </c>
     </row>
@@ -21970,7 +21970,7 @@
       </c>
       <c r="E113" s="19" t="inlineStr">
         <is>
-          <t>17 990 ₽</t>
+          <t>13 572 ₽</t>
         </is>
       </c>
     </row>
@@ -22095,7 +22095,7 @@
       </c>
       <c r="E118" s="19" t="inlineStr">
         <is>
-          <t>14 990 ₽</t>
+          <t>12 290 ₽</t>
         </is>
       </c>
     </row>
@@ -22120,7 +22120,7 @@
       </c>
       <c r="E119" s="19" t="inlineStr">
         <is>
-          <t>7 990 ₽</t>
+          <t>6 028 ₽</t>
         </is>
       </c>
     </row>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="E122" s="19" t="inlineStr">
         <is>
-          <t>29 990 ₽</t>
+          <t>22 625 ₽</t>
         </is>
       </c>
     </row>
@@ -22370,7 +22370,7 @@
       </c>
       <c r="E129" s="19" t="inlineStr">
         <is>
-          <t>5 614 ₽</t>
+          <t>4 897 ₽</t>
         </is>
       </c>
     </row>
@@ -22465,12 +22465,12 @@
       </c>
       <c r="D133" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E133" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>32 081 ₽</t>
         </is>
       </c>
     </row>
@@ -22545,7 +22545,7 @@
       </c>
       <c r="E136" s="19" t="inlineStr">
         <is>
-          <t>3 974 ₽</t>
+          <t>3 008 ₽</t>
         </is>
       </c>
     </row>
@@ -22670,7 +22670,7 @@
       </c>
       <c r="E141" s="19" t="inlineStr">
         <is>
-          <t>6 990 ₽</t>
+          <t>5 274 ₽</t>
         </is>
       </c>
     </row>
@@ -22690,12 +22690,12 @@
       </c>
       <c r="D142" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E142" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>14 990 ₽</t>
         </is>
       </c>
     </row>
@@ -22745,7 +22745,7 @@
       </c>
       <c r="E144" s="19" t="inlineStr">
         <is>
-          <t>2 490 ₽</t>
+          <t>2 492 ₽</t>
         </is>
       </c>
     </row>
@@ -22770,7 +22770,7 @@
       </c>
       <c r="E145" s="19" t="inlineStr">
         <is>
-          <t>5 990 ₽</t>
+          <t>6 990 ₽</t>
         </is>
       </c>
     </row>
@@ -22845,7 +22845,7 @@
       </c>
       <c r="E148" s="19" t="inlineStr">
         <is>
-          <t>4 060 ₽</t>
+          <t>3 186 ₽</t>
         </is>
       </c>
     </row>
@@ -22865,12 +22865,12 @@
       </c>
       <c r="D149" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E149" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 990 ₽</t>
         </is>
       </c>
     </row>
@@ -22945,7 +22945,7 @@
       </c>
       <c r="E152" s="19" t="inlineStr">
         <is>
-          <t>8 990 ₽</t>
+          <t>8 270 ₽</t>
         </is>
       </c>
     </row>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="E154" s="19" t="inlineStr">
         <is>
-          <t>14 769 ₽</t>
+          <t>11 310 ₽</t>
         </is>
       </c>
     </row>
@@ -23040,12 +23040,12 @@
       </c>
       <c r="D156" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E156" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2 990 ₽</t>
         </is>
       </c>
     </row>
@@ -23115,12 +23115,12 @@
       </c>
       <c r="D159" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E159" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>4 790 ₽</t>
         </is>
       </c>
     </row>
@@ -23140,12 +23140,12 @@
       </c>
       <c r="D160" s="19" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Нет в наличии</t>
         </is>
       </c>
       <c r="E160" s="19" t="inlineStr">
         <is>
-          <t>3 490 ₽</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -23165,12 +23165,12 @@
       </c>
       <c r="D161" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E161" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>5 991 ₽</t>
         </is>
       </c>
     </row>
@@ -23190,12 +23190,12 @@
       </c>
       <c r="D162" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E162" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>6 622 ₽</t>
         </is>
       </c>
     </row>
@@ -23220,7 +23220,7 @@
       </c>
       <c r="E163" s="19" t="inlineStr">
         <is>
-          <t>1 218 ₽</t>
+          <t>972 ₽</t>
         </is>
       </c>
     </row>
@@ -23390,12 +23390,12 @@
       </c>
       <c r="D170" s="19" t="inlineStr">
         <is>
-          <t>Нет в наличии</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="E170" s="19" t="inlineStr">
         <is>
-          <t> </t>
+          <t>19 990 ₽</t>
         </is>
       </c>
     </row>
@@ -23495,7 +23495,7 @@
       </c>
       <c r="E174" s="19" t="inlineStr">
         <is>
-          <t>2 990 ₽</t>
+          <t>3 890 ₽</t>
         </is>
       </c>
     </row>
@@ -23520,7 +23520,7 @@
       </c>
       <c r="E175" s="19" t="inlineStr">
         <is>
-          <t>3 590 ₽</t>
+          <t>3 404 ₽</t>
         </is>
       </c>
     </row>
